--- a/programacao/15 -  Prontidão Médio Prazo.xlsx
+++ b/programacao/15 -  Prontidão Médio Prazo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_4600011662_Utilidades/02.PLANEJAMENTO/01 - Base de dados BI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="996" documentId="13_ncr:1_{CF35CD03-2AB7-44C8-89C3-A37B38273E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF2C5C10-230D-4043-9E01-A567C09AA081}"/>
+  <xr:revisionPtr revIDLastSave="1011" documentId="13_ncr:1_{CF35CD03-2AB7-44C8-89C3-A37B38273E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D452ADEA-71BB-4C03-B1A9-787F39402709}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{32A6E8DD-ACB4-40F1-8D5E-8E9CE1A3868D}"/>
   </bookViews>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6268" uniqueCount="2638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6283" uniqueCount="2638">
   <si>
     <t>Status</t>
   </si>
@@ -7954,9 +7954,6 @@
     <t>Pendente valvula, parafusos e flanges - Solicitar nota de materiais para saída</t>
   </si>
   <si>
-    <t xml:space="preserve">Pendente flanges, parafusos e valvula - Solicitar nota de materiais para sida </t>
-  </si>
-  <si>
     <t>Pendente materiais para fabricação</t>
   </si>
   <si>
@@ -8078,6 +8075,9 @@
   </si>
   <si>
     <t>0,19 dias</t>
+  </si>
+  <si>
+    <t>Pendente flanges, parafusos e valvula - Solicitar nota de materiais para saída</t>
   </si>
 </sst>
 </file>
@@ -10887,7 +10887,7 @@
         <v>1283</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="E29" s="46" t="s">
         <v>135</v>
@@ -10953,7 +10953,7 @@
         <v>1286</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="E32" s="46" t="s">
         <v>143</v>
@@ -10975,7 +10975,7 @@
         <v>1294</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="E33" s="46" t="s">
         <v>143</v>
@@ -11085,7 +11085,7 @@
         <v>1295</v>
       </c>
       <c r="D38" s="46" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="E38" s="46" t="s">
         <v>143</v>
@@ -11195,7 +11195,7 @@
         <v>1296</v>
       </c>
       <c r="D43" s="46" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="E43" s="46" t="s">
         <v>143</v>
@@ -11635,7 +11635,7 @@
         <v>1297</v>
       </c>
       <c r="D63" s="46" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="E63" s="46" t="s">
         <v>143</v>
@@ -11745,7 +11745,7 @@
         <v>1298</v>
       </c>
       <c r="D68" s="46" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="E68" s="46" t="s">
         <v>143</v>
@@ -14671,7 +14671,7 @@
         <v>1283</v>
       </c>
       <c r="D201" s="46" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="E201" s="46" t="s">
         <v>1827</v>
@@ -15432,7 +15432,7 @@
         <v>1314</v>
       </c>
       <c r="D237" s="46" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="E237" s="46" t="s">
         <v>1964</v>
@@ -15453,7 +15453,7 @@
         <v>1424</v>
       </c>
       <c r="D238" s="46" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="E238" s="46" t="s">
         <v>1964</v>
@@ -15726,7 +15726,7 @@
         <v>1434</v>
       </c>
       <c r="D251" s="46" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="E251" s="46" t="s">
         <v>1850</v>
@@ -16230,7 +16230,7 @@
         <v>1446</v>
       </c>
       <c r="D275" s="46" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="E275" s="46" t="s">
         <v>1853</v>
@@ -16251,7 +16251,7 @@
         <v>1447</v>
       </c>
       <c r="D276" s="46" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="E276" s="46" t="s">
         <v>1853</v>
@@ -16734,7 +16734,7 @@
         <v>1467</v>
       </c>
       <c r="D299" s="46" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="E299" s="46" t="s">
         <v>1937</v>
@@ -16755,7 +16755,7 @@
         <v>1468</v>
       </c>
       <c r="D300" s="46" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="E300" s="46" t="s">
         <v>1937</v>
@@ -17196,7 +17196,7 @@
         <v>1328</v>
       </c>
       <c r="D321" s="46" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="E321" s="46" t="s">
         <v>1998</v>
@@ -17217,7 +17217,7 @@
         <v>1489</v>
       </c>
       <c r="D322" s="46" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="E322" s="46" t="s">
         <v>1998</v>
@@ -17364,7 +17364,7 @@
         <v>1495</v>
       </c>
       <c r="D329" s="46" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="E329" s="46" t="s">
         <v>2284</v>
@@ -17595,7 +17595,7 @@
         <v>1499</v>
       </c>
       <c r="D340" s="46" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="E340" s="46" t="s">
         <v>2291</v>
@@ -17805,7 +17805,7 @@
         <v>1503</v>
       </c>
       <c r="D350" s="46" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="E350" s="46" t="s">
         <v>2011</v>
@@ -17952,7 +17952,7 @@
         <v>1308</v>
       </c>
       <c r="D357" s="46" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="E357" s="46" t="s">
         <v>2037</v>
@@ -18309,7 +18309,7 @@
         <v>1313</v>
       </c>
       <c r="D374" s="46" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="E374" s="46" t="s">
         <v>1978</v>
@@ -18645,7 +18645,7 @@
         <v>1311</v>
       </c>
       <c r="D390" s="46" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="E390" s="46" t="s">
         <v>2228</v>
@@ -18771,7 +18771,7 @@
         <v>1507</v>
       </c>
       <c r="D396" s="46" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="E396" s="46" t="s">
         <v>2019</v>
@@ -18876,7 +18876,7 @@
         <v>1510</v>
       </c>
       <c r="D401" s="46" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="E401" s="46" t="s">
         <v>2020</v>
@@ -19548,7 +19548,7 @@
         <v>1526</v>
       </c>
       <c r="D433" s="46" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="E433" s="46" t="s">
         <v>2318</v>
@@ -34782,8 +34782,8 @@
   </sheetPr>
   <dimension ref="A1:AB48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="F14" zoomScale="59" zoomScaleNormal="37" zoomScaleSheetLayoutView="73" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D28" zoomScale="56" zoomScaleNormal="37" zoomScaleSheetLayoutView="73" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34941,7 +34941,7 @@
         <v>110</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="L6" s="23" t="s">
         <v>111</v>
@@ -34965,7 +34965,7 @@
         <v>117</v>
       </c>
       <c r="S6" s="69" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="7" spans="1:28" s="22" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -35919,7 +35919,7 @@
         <v>Concluída</v>
       </c>
       <c r="R21" s="44" t="s">
-        <v>2596</v>
+        <v>2637</v>
       </c>
       <c r="S21" s="70">
         <v>45357</v>
@@ -35936,7 +35936,7 @@
         <v>362</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>2205</v>
@@ -35997,7 +35997,7 @@
         <v>368</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>2205</v>
@@ -36339,10 +36339,10 @@
       <c r="P28" s="60"/>
       <c r="Q28" s="21" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
+        <v>Atrasada</v>
       </c>
       <c r="R28" s="65" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="S28" s="70">
         <v>45351</v>
@@ -36359,7 +36359,7 @@
         <v>331</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>124</v>
@@ -36397,10 +36397,12 @@
         <f>IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]="","",Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]])</f>
         <v>45337</v>
       </c>
-      <c r="P29" s="60"/>
+      <c r="P29" s="60">
+        <v>45345</v>
+      </c>
       <c r="Q29" s="21" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>Atrasada</v>
+        <v>Concluída</v>
       </c>
       <c r="R29" s="65" t="s">
         <v>2586</v>
@@ -36420,7 +36422,7 @@
         <v>345</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>124</v>
@@ -36458,10 +36460,12 @@
         <f>IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]="","",Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]])</f>
         <v>45337</v>
       </c>
-      <c r="P30" s="60"/>
+      <c r="P30" s="60">
+        <v>45345</v>
+      </c>
       <c r="Q30" s="21" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>Atrasada</v>
+        <v>Concluída</v>
       </c>
       <c r="R30" s="65" t="s">
         <v>2586</v>
@@ -36488,10 +36492,10 @@
         <v>124</v>
       </c>
       <c r="F31" s="17" t="s">
+        <v>2598</v>
+      </c>
+      <c r="G31" s="18" t="s">
         <v>2599</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>2600</v>
       </c>
       <c r="H31" s="19">
         <v>45342</v>
@@ -36548,10 +36552,10 @@
         <v>124</v>
       </c>
       <c r="F32" s="17" t="s">
+        <v>2598</v>
+      </c>
+      <c r="G32" s="18" t="s">
         <v>2599</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>2600</v>
       </c>
       <c r="H32" s="19">
         <v>45342</v>
@@ -36595,7 +36599,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="C33" s="67" t="s">
         <v>54</v>
@@ -36608,10 +36612,10 @@
         <v>124</v>
       </c>
       <c r="F33" s="17" t="s">
+        <v>2598</v>
+      </c>
+      <c r="G33" s="18" t="s">
         <v>2599</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>2600</v>
       </c>
       <c r="H33" s="19">
         <v>45342</v>
@@ -36647,7 +36651,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="C34" s="67" t="s">
         <v>280</v>
@@ -36660,10 +36664,10 @@
         <v>124</v>
       </c>
       <c r="F34" s="17" t="s">
+        <v>2598</v>
+      </c>
+      <c r="G34" s="18" t="s">
         <v>2599</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>2600</v>
       </c>
       <c r="H34" s="19">
         <v>45342</v>
@@ -36699,7 +36703,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="C35" s="67" t="s">
         <v>281</v>
@@ -36712,10 +36716,10 @@
         <v>124</v>
       </c>
       <c r="F35" s="17" t="s">
+        <v>2598</v>
+      </c>
+      <c r="G35" s="18" t="s">
         <v>2599</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>2600</v>
       </c>
       <c r="H35" s="19">
         <v>45342</v>
@@ -36751,7 +36755,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="C36" s="67" t="s">
         <v>174</v>
@@ -36764,10 +36768,10 @@
         <v>124</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="H36" s="19">
         <v>45342</v>
@@ -36816,10 +36820,10 @@
         <v>124</v>
       </c>
       <c r="F37" s="17" t="s">
+        <v>2598</v>
+      </c>
+      <c r="G37" s="18" t="s">
         <v>2599</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>2600</v>
       </c>
       <c r="H37" s="19">
         <v>45342</v>
@@ -36833,9 +36837,15 @@
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>9</v>
       </c>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="62"/>
+      <c r="L37" s="61" t="s">
+        <v>2218</v>
+      </c>
+      <c r="M37" s="61" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N37" s="62" t="s">
+        <v>2193</v>
+      </c>
       <c r="O37" s="63" t="str">
         <f>IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]="","",Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]])</f>
         <v/>
@@ -36868,10 +36878,10 @@
         <v>124</v>
       </c>
       <c r="F38" s="17" t="s">
+        <v>2598</v>
+      </c>
+      <c r="G38" s="18" t="s">
         <v>2599</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>2600</v>
       </c>
       <c r="H38" s="19">
         <v>45342</v>
@@ -36885,9 +36895,15 @@
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>10</v>
       </c>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="62"/>
+      <c r="L38" s="61" t="s">
+        <v>2218</v>
+      </c>
+      <c r="M38" s="61" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N38" s="62" t="s">
+        <v>2193</v>
+      </c>
       <c r="O38" s="63" t="str">
         <f>IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]="","",Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]])</f>
         <v/>
@@ -36913,13 +36929,13 @@
         <v>374</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>124</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="G39" s="18" t="s">
         <v>2206</v>
@@ -36966,7 +36982,7 @@
         <v>399</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>2205</v>
@@ -37013,7 +37029,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="C41" s="67" t="s">
         <v>709</v>
@@ -37026,10 +37042,10 @@
         <v>124</v>
       </c>
       <c r="F41" s="17" t="s">
+        <v>2598</v>
+      </c>
+      <c r="G41" s="18" t="s">
         <v>2599</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>2600</v>
       </c>
       <c r="H41" s="19">
         <v>45342</v>
@@ -37065,7 +37081,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="C42" s="67" t="s">
         <v>718</v>
@@ -37078,10 +37094,10 @@
         <v>124</v>
       </c>
       <c r="F42" s="17" t="s">
+        <v>2598</v>
+      </c>
+      <c r="G42" s="18" t="s">
         <v>2599</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>2600</v>
       </c>
       <c r="H42" s="19">
         <v>45342</v>
@@ -37117,7 +37133,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="C43" s="67" t="s">
         <v>726</v>
@@ -37130,10 +37146,10 @@
         <v>124</v>
       </c>
       <c r="F43" s="17" t="s">
+        <v>2598</v>
+      </c>
+      <c r="G43" s="18" t="s">
         <v>2599</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>2600</v>
       </c>
       <c r="H43" s="19">
         <v>45342</v>
@@ -37169,7 +37185,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="C44" s="67" t="s">
         <v>754</v>
@@ -37182,10 +37198,10 @@
         <v>124</v>
       </c>
       <c r="F44" s="17" t="s">
+        <v>2598</v>
+      </c>
+      <c r="G44" s="18" t="s">
         <v>2599</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>2600</v>
       </c>
       <c r="H44" s="19">
         <v>45342</v>
@@ -37234,10 +37250,10 @@
         <v>124</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="H45" s="19">
         <v>45342</v>
@@ -37286,10 +37302,10 @@
         <v>124</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="H46" s="19">
         <v>45342</v>
@@ -37303,9 +37319,15 @@
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>9</v>
       </c>
-      <c r="L46" s="61"/>
-      <c r="M46" s="61"/>
-      <c r="N46" s="62"/>
+      <c r="L46" s="61" t="s">
+        <v>2218</v>
+      </c>
+      <c r="M46" s="61" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N46" s="62" t="s">
+        <v>2193</v>
+      </c>
       <c r="O46" s="63" t="str">
         <f>IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]="","",Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]])</f>
         <v/>
@@ -37331,16 +37353,16 @@
         <v>1095</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>124</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="H47" s="19">
         <v>45342</v>
@@ -37354,9 +37376,15 @@
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>10</v>
       </c>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="62"/>
+      <c r="L47" s="61" t="s">
+        <v>2218</v>
+      </c>
+      <c r="M47" s="61" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N47" s="62" t="s">
+        <v>2193</v>
+      </c>
       <c r="O47" s="63" t="str">
         <f>IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]="","",Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]])</f>
         <v/>
@@ -37382,16 +37410,16 @@
         <v>1101</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>124</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="H48" s="19">
         <v>45342</v>
@@ -37405,9 +37433,15 @@
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>11</v>
       </c>
-      <c r="L48" s="61"/>
-      <c r="M48" s="61"/>
-      <c r="N48" s="62"/>
+      <c r="L48" s="61" t="s">
+        <v>2218</v>
+      </c>
+      <c r="M48" s="61" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N48" s="62" t="s">
+        <v>2193</v>
+      </c>
       <c r="O48" s="63" t="str">
         <f>IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]="","",Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]])</f>
         <v/>
@@ -38008,6 +38042,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
@@ -38017,15 +38060,6 @@
     <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -38253,6 +38287,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4F5EE1-56D7-4FFB-B992-DE488B5495B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -38260,14 +38302,6 @@
     <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
     <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
     <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/programacao/15 -  Prontidão Médio Prazo.xlsx
+++ b/programacao/15 -  Prontidão Médio Prazo.xlsx
@@ -8554,7 +8554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8760,7 +8760,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8773,49 +8772,7 @@
     <cellStyle name="Vírgula 3" xfId="7" xr:uid="{AC04EBC1-067B-4DD3-AB12-15BC23D4E125}"/>
     <cellStyle name="Vírgula 6" xfId="5" xr:uid="{CB1685CC-0710-4DF6-A7AD-58305EA87DC0}"/>
   </cellStyles>
-  <dxfs count="69">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFB3B3B3"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFB3B3B3"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FFB3B3B3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <font>
         <color theme="0"/>
@@ -8860,325 +8817,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9310,6 +8948,38 @@
         <top style="thin">
           <color rgb="FFB3B3B3"/>
         </top>
+        <bottom style="thin">
+          <color rgb="FFB3B3B3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFB3B3B3"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB3B3B3"/>
+        </right>
+        <top/>
         <bottom style="thin">
           <color rgb="FFB3B3B3"/>
         </bottom>
@@ -9790,13 +9460,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FFB3B3B3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -9808,6 +9471,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFB3B3B3"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -10219,7 +9889,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EF2621C-A558-4248-897D-578581E51F6C}" name="Cronograma" displayName="Cronograma" ref="B1:G1154" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EF2621C-A558-4248-897D-578581E51F6C}" name="Cronograma" displayName="Cronograma" ref="B1:G1154" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32">
   <autoFilter ref="B1:G1154" xr:uid="{2EF2621C-A558-4248-897D-578581E51F6C}"/>
   <tableColumns count="6">
     <tableColumn id="2" xr3:uid="{284525CD-76BC-49A7-8C7C-E353A57B6CBC}" name="EDT"/>
@@ -10227,7 +9897,7 @@
     <tableColumn id="6" xr3:uid="{8A316AA5-3F27-4B99-A5FF-08B7675D198A}" name="Duração"/>
     <tableColumn id="12" xr3:uid="{7E09DA88-5D9A-4A6B-96E8-4C36A3FE6CEA}" name="Início da Linha de Base"/>
     <tableColumn id="13" xr3:uid="{C1E2EF24-D9C7-434F-8897-0EFE807E8AB5}" name="Término da linha de base"/>
-    <tableColumn id="1" xr3:uid="{6710B2EE-6C9A-4D88-B5C8-0E1F3CFD5C85}" name="Restrição" dataDxfId="65">
+    <tableColumn id="1" xr3:uid="{6710B2EE-6C9A-4D88-B5C8-0E1F3CFD5C85}" name="Restrição" dataDxfId="30">
       <calculatedColumnFormula>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10236,38 +9906,38 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}" name="Prontidao_MedioPrazo" displayName="Prontidao_MedioPrazo" ref="A6:S78" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63" headerRowBorderDxfId="61" tableBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}" name="Prontidao_MedioPrazo" displayName="Prontidao_MedioPrazo" ref="A6:S78" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
   <autoFilter ref="A6:S78" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{BCE3C5A2-1F72-49EB-BB87-9A92C2B54BB4}" name="ITEM" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{66580C9C-6594-4500-A4D5-A646C365043A}" name="LOCAL" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{72CADBD4-BB10-4819-BD20-5F1FED34D952}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{2ADFA8B7-8EFF-44DC-A62F-3674B062D4A2}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="57">
+    <tableColumn id="1" xr3:uid="{BCE3C5A2-1F72-49EB-BB87-9A92C2B54BB4}" name="ITEM" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{66580C9C-6594-4500-A4D5-A646C365043A}" name="LOCAL" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{72CADBD4-BB10-4819-BD20-5F1FED34D952}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{2ADFA8B7-8EFF-44DC-A62F-3674B062D4A2}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="22">
       <calculatedColumnFormula>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{10644C3D-33D6-4632-AEDA-8C10BCF893ED}" name="GRUPO" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{2E31625A-C772-4196-9F67-24069F7E96AC}" name="RESTRIÇÃO DETECTADA" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{480343CB-432F-4FEF-BD8B-240D45972277}" name="AÇÃO A SER TOMADA" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{96E10FFD-7709-41D7-989F-D00B08372AB5}" name="DATA DE MAPEAMENTO" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{714BC864-34A3-4792-AA6F-188AABE3C4ED}" name="DATA DE IMPACTO" dataDxfId="52">
+    <tableColumn id="5" xr3:uid="{10644C3D-33D6-4632-AEDA-8C10BCF893ED}" name="GRUPO" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{2E31625A-C772-4196-9F67-24069F7E96AC}" name="RESTRIÇÃO DETECTADA" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{480343CB-432F-4FEF-BD8B-240D45972277}" name="AÇÃO A SER TOMADA" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{96E10FFD-7709-41D7-989F-D00B08372AB5}" name="DATA DE MAPEAMENTO" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{714BC864-34A3-4792-AA6F-188AABE3C4ED}" name="DATA DE IMPACTO" dataDxfId="17">
       <calculatedColumnFormula>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4DC78624-5319-4031-B1C2-493145D03132}" name="TÉRMINO PREV. (BASELINE)" dataDxfId="51"/>
-    <tableColumn id="18" xr3:uid="{4DF93A02-132B-4759-A432-9CA8B6508C90}" name="SEMANA" dataDxfId="50">
+    <tableColumn id="10" xr3:uid="{4DC78624-5319-4031-B1C2-493145D03132}" name="TÉRMINO PREV. (BASELINE)" dataDxfId="16"/>
+    <tableColumn id="18" xr3:uid="{4DF93A02-132B-4759-A432-9CA8B6508C90}" name="SEMANA" dataDxfId="15">
       <calculatedColumnFormula>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C57D6655-5CF4-4B9A-A67C-31241F5DC72D}" name="RESPONSÁVEL" dataDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{D104C09E-C921-4B27-A02D-B5B54E0475C1}" name="DISCIPLINA" dataDxfId="48"/>
-    <tableColumn id="13" xr3:uid="{F0D9B4F9-EBAB-4F73-A8C5-C7D317CF207D}" name="EMPRESA" dataDxfId="47"/>
-    <tableColumn id="14" xr3:uid="{63E49F65-A154-4361-87FC-104A847190DC}" name="TÉRMINO PREVISTO" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{C57D6655-5CF4-4B9A-A67C-31241F5DC72D}" name="RESPONSÁVEL" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{D104C09E-C921-4B27-A02D-B5B54E0475C1}" name="DISCIPLINA" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{F0D9B4F9-EBAB-4F73-A8C5-C7D317CF207D}" name="EMPRESA" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{63E49F65-A154-4361-87FC-104A847190DC}" name="TÉRMINO PREVISTO" dataDxfId="11">
       <calculatedColumnFormula>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{0C1B0E76-8A6B-471B-983E-1BC8BF383DB3}" name="TÉRMINO REAL" dataDxfId="46"/>
-    <tableColumn id="16" xr3:uid="{7E90AD6D-C70F-4E00-A6C8-54C0F9D79A8C}" name="STATUS" dataDxfId="45">
+    <tableColumn id="15" xr3:uid="{0C1B0E76-8A6B-471B-983E-1BC8BF383DB3}" name="TÉRMINO REAL" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{7E90AD6D-C70F-4E00-A6C8-54C0F9D79A8C}" name="STATUS" dataDxfId="9">
       <calculatedColumnFormula>IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{1DD489EB-9393-4846-8D4D-BEF17D7FA138}" name="OBSERVAÇÕES" dataDxfId="44"/>
-    <tableColumn id="19" xr3:uid="{435CC5A0-634A-4EA9-A219-7FF662FF83FE}" name="Coluna1" dataDxfId="43"/>
+    <tableColumn id="17" xr3:uid="{1DD489EB-9393-4846-8D4D-BEF17D7FA138}" name="OBSERVAÇÕES" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{435CC5A0-634A-4EA9-A219-7FF662FF83FE}" name="Coluna1" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -30639,7 +30309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="944" spans="2:7" ht="28.8" x14ac:dyDescent="0.35">
+    <row r="944" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B944" s="49" t="s">
         <v>1049</v>
       </c>
@@ -35150,8 +34820,8 @@
   </sheetPr>
   <dimension ref="A1:AB78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="38" zoomScaleNormal="37" zoomScaleSheetLayoutView="73" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="38" zoomScaleNormal="37" zoomScaleSheetLayoutView="73" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -36955,7 +36625,7 @@
       <c r="P32" s="60"/>
       <c r="Q32" s="21" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
+        <v>Atrasada</v>
       </c>
       <c r="R32" s="65"/>
       <c r="S32" s="70">
@@ -37981,7 +37651,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R49" s="73"/>
-      <c r="S49" s="74">
+      <c r="S49" s="70">
         <v>45348</v>
       </c>
     </row>
@@ -38039,7 +37709,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R50" s="73"/>
-      <c r="S50" s="74">
+      <c r="S50" s="70">
         <v>45352</v>
       </c>
     </row>
@@ -38097,7 +37767,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R51" s="73"/>
-      <c r="S51" s="74">
+      <c r="S51" s="70">
         <v>45329</v>
       </c>
     </row>
@@ -38155,7 +37825,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R52" s="73"/>
-      <c r="S52" s="74">
+      <c r="S52" s="70">
         <v>45329</v>
       </c>
     </row>
@@ -38213,7 +37883,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R53" s="73"/>
-      <c r="S53" s="74">
+      <c r="S53" s="70">
         <v>45351</v>
       </c>
     </row>
@@ -38271,7 +37941,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R54" s="73"/>
-      <c r="S54" s="74">
+      <c r="S54" s="70">
         <v>45363</v>
       </c>
     </row>
@@ -38329,7 +37999,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R55" s="73"/>
-      <c r="S55" s="74">
+      <c r="S55" s="70">
         <v>45257</v>
       </c>
     </row>
@@ -38387,7 +38057,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R56" s="73"/>
-      <c r="S56" s="74">
+      <c r="S56" s="70">
         <v>45369</v>
       </c>
     </row>
@@ -38445,7 +38115,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R57" s="73"/>
-      <c r="S57" s="74">
+      <c r="S57" s="70">
         <v>45364</v>
       </c>
     </row>
@@ -38503,7 +38173,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R58" s="73"/>
-      <c r="S58" s="74">
+      <c r="S58" s="70">
         <v>45369</v>
       </c>
     </row>
@@ -38561,7 +38231,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R59" s="73"/>
-      <c r="S59" s="74">
+      <c r="S59" s="70">
         <v>45371</v>
       </c>
     </row>
@@ -38616,10 +38286,10 @@
       <c r="P60" s="71"/>
       <c r="Q60" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
+        <v>Atrasada</v>
       </c>
       <c r="R60" s="73"/>
-      <c r="S60" s="74">
+      <c r="S60" s="70">
         <v>45376</v>
       </c>
     </row>
@@ -38677,7 +38347,7 @@
         <v>No Prazo</v>
       </c>
       <c r="R61" s="73"/>
-      <c r="S61" s="74">
+      <c r="S61" s="70">
         <v>45377</v>
       </c>
     </row>
@@ -38735,7 +38405,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R62" s="73"/>
-      <c r="S62" s="74">
+      <c r="S62" s="70">
         <v>45364</v>
       </c>
     </row>
@@ -38793,7 +38463,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R63" s="73"/>
-      <c r="S63" s="74">
+      <c r="S63" s="70">
         <v>45371</v>
       </c>
     </row>
@@ -38851,7 +38521,7 @@
         <v>No Prazo</v>
       </c>
       <c r="R64" s="73"/>
-      <c r="S64" s="74">
+      <c r="S64" s="70">
         <v>45377</v>
       </c>
     </row>
@@ -38909,7 +38579,7 @@
         <v>No Prazo</v>
       </c>
       <c r="R65" s="73"/>
-      <c r="S65" s="74">
+      <c r="S65" s="70">
         <v>45377</v>
       </c>
     </row>
@@ -38967,7 +38637,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R66" s="73"/>
-      <c r="S66" s="74">
+      <c r="S66" s="70">
         <v>45371</v>
       </c>
     </row>
@@ -39025,7 +38695,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R67" s="73"/>
-      <c r="S67" s="74">
+      <c r="S67" s="70">
         <v>45372</v>
       </c>
     </row>
@@ -39083,7 +38753,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R68" s="73"/>
-      <c r="S68" s="74">
+      <c r="S68" s="70">
         <v>45373</v>
       </c>
     </row>
@@ -39138,10 +38808,10 @@
       <c r="P69" s="71"/>
       <c r="Q69" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
+        <v>Atrasada</v>
       </c>
       <c r="R69" s="73"/>
-      <c r="S69" s="74">
+      <c r="S69" s="70">
         <v>45376</v>
       </c>
     </row>
@@ -39199,7 +38869,7 @@
         <v>No Prazo</v>
       </c>
       <c r="R70" s="73"/>
-      <c r="S70" s="74">
+      <c r="S70" s="70">
         <v>45377</v>
       </c>
     </row>
@@ -39257,7 +38927,7 @@
         <v>No Prazo</v>
       </c>
       <c r="R71" s="73"/>
-      <c r="S71" s="74">
+      <c r="S71" s="70">
         <v>45379</v>
       </c>
     </row>
@@ -39315,7 +38985,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R72" s="73"/>
-      <c r="S72" s="74">
+      <c r="S72" s="70">
         <v>45366</v>
       </c>
     </row>
@@ -39373,7 +39043,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R73" s="73"/>
-      <c r="S73" s="74">
+      <c r="S73" s="70">
         <v>45369</v>
       </c>
     </row>
@@ -39431,7 +39101,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R74" s="73"/>
-      <c r="S74" s="74">
+      <c r="S74" s="70">
         <v>45371</v>
       </c>
     </row>
@@ -39489,7 +39159,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R75" s="73"/>
-      <c r="S75" s="74">
+      <c r="S75" s="70">
         <v>45373</v>
       </c>
     </row>
@@ -39547,7 +39217,7 @@
         <v>No Prazo</v>
       </c>
       <c r="R76" s="73"/>
-      <c r="S76" s="74">
+      <c r="S76" s="70">
         <v>45383</v>
       </c>
     </row>
@@ -39605,7 +39275,7 @@
         <v>No Prazo</v>
       </c>
       <c r="R77" s="73"/>
-      <c r="S77" s="74">
+      <c r="S77" s="70">
         <v>45377</v>
       </c>
     </row>
@@ -39663,33 +39333,33 @@
         <v>No Prazo</v>
       </c>
       <c r="R78" s="73"/>
-      <c r="S78" s="74">
+      <c r="S78" s="70">
         <v>45378</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C7:C32">
-    <cfRule type="duplicateValues" dxfId="42" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32 C7:C30">
-    <cfRule type="duplicateValues" dxfId="41" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D78">
+    <cfRule type="duplicateValues" dxfId="4" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7:Q78">
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Concluída"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"À definir"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"Atrasada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"No Prazo"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D78">
-    <cfRule type="duplicateValues" dxfId="36" priority="132"/>
   </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Atividade Impactada" prompt="Fórmula, não há necessidade de preenchimento" sqref="D7:D78" xr:uid="{E680AA44-5F85-4EFF-803C-0597875D8EB8}"/>
@@ -40253,27 +39923,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acfac000-05a5-4485-98d1-25ae80f2ac3c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C24875C6C3D6EA45AFCB982D3A0B37CD" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab8229b382e62ca7f68ac387406343b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e7640078-2807-4792-8712-763d4cb58983" xmlns:ns3="acfac000-05a5-4485-98d1-25ae80f2ac3c" xmlns:ns4="601ddd3e-e7e7-4b57-95a9-114b343b906a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f0b2ba43dd082ea35de1bb7fc9953a3" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e7640078-2807-4792-8712-763d4cb58983"/>
@@ -40497,27 +40146,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4F5EE1-56D7-4FFB-B992-DE488B5495B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
-    <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
-    <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acfac000-05a5-4485-98d1-25ae80f2ac3c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43EA2ECA-4B5E-4DC2-9087-8210D1FB9903}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40535,4 +40185,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4F5EE1-56D7-4FFB-B992-DE488B5495B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
+    <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
+    <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/programacao/15 -  Prontidão Médio Prazo.xlsx
+++ b/programacao/15 -  Prontidão Médio Prazo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_4600011662_Utilidades/02.PLANEJAMENTO/01 - Base de dados BI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1315" documentId="13_ncr:1_{CF35CD03-2AB7-44C8-89C3-A37B38273E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D9B6F56-07C3-4895-A543-2D5E246C7907}"/>
+  <xr:revisionPtr revIDLastSave="1701" documentId="13_ncr:1_{CF35CD03-2AB7-44C8-89C3-A37B38273E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8D09704-8013-49F6-94B1-5ADA2EC5A1DC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{32A6E8DD-ACB4-40F1-8D5E-8E9CE1A3868D}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cronograma'!$B$1:$F$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Prontidão Médio Prazo'!$A$1:$R$90</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Prontidão Médio Prazo'!$A$1:$R$94</definedName>
     <definedName name="dfgvxcbfxcc" hidden="1">{"Avaliação de Cargos (Class Mens Todas)",#N/A,FALSE,"BANCO DE DADOS MENSALISTAS";"Avaliação de Cargos (Class Mens Todas)",#N/A,FALSE,"BANCO DE DADOS MENSALISTAS"}</definedName>
     <definedName name="ECC" hidden="1">{"Avaliação de Cargos (Class Mens Todas)",#N/A,FALSE,"BANCO DE DADOS MENSALISTAS";"Avaliação de Cargos (Class Mens Todas)",#N/A,FALSE,"BANCO DE DADOS MENSALISTAS"}</definedName>
     <definedName name="fdxcgfdgdxc" hidden="1">{#N/A,#N/A,FALSE,"Costo Vendido";#N/A,#N/A,FALSE,"Precio";#N/A,#N/A,FALSE,"Consumo";#N/A,#N/A,FALSE,"GDV";#N/A,#N/A,FALSE,"expestru";#N/A,#N/A,FALSE,"Graficos";#N/A,#N/A,FALSE,"Resumen "}</definedName>
@@ -34,6 +34,7 @@
     <definedName name="xdcvhv" hidden="1">{"Avaliação de Cargos (Class Mens Todas)",#N/A,FALSE,"BANCO DE DADOS MENSALISTAS";"Avaliação de Cargos (Class Mens Todas)",#N/A,FALSE,"BANCO DE DADOS MENSALISTAS"}</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -164,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6556" uniqueCount="2644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6684" uniqueCount="2644">
   <si>
     <t>Status</t>
   </si>
@@ -8316,7 +8317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -8540,6 +8541,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB3B3B3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8554,7 +8575,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8760,6 +8781,25 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8772,7 +8812,7 @@
     <cellStyle name="Vírgula 3" xfId="7" xr:uid="{AC04EBC1-067B-4DD3-AB12-15BC23D4E125}"/>
     <cellStyle name="Vírgula 6" xfId="5" xr:uid="{CB1685CC-0710-4DF6-A7AD-58305EA87DC0}"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="59">
     <dxf>
       <font>
         <color theme="0"/>
@@ -8822,11 +8862,179 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9460,6 +9668,13 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFB3B3B3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -9471,13 +9686,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FFB3B3B3"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -9513,6 +9721,73 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -9889,7 +10164,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EF2621C-A558-4248-897D-578581E51F6C}" name="Cronograma" displayName="Cronograma" ref="B1:G1154" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EF2621C-A558-4248-897D-578581E51F6C}" name="Cronograma" displayName="Cronograma" ref="B1:G1154" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57">
   <autoFilter ref="B1:G1154" xr:uid="{2EF2621C-A558-4248-897D-578581E51F6C}"/>
   <tableColumns count="6">
     <tableColumn id="2" xr3:uid="{284525CD-76BC-49A7-8C7C-E353A57B6CBC}" name="EDT"/>
@@ -9897,7 +10172,7 @@
     <tableColumn id="6" xr3:uid="{8A316AA5-3F27-4B99-A5FF-08B7675D198A}" name="Duração"/>
     <tableColumn id="12" xr3:uid="{7E09DA88-5D9A-4A6B-96E8-4C36A3FE6CEA}" name="Início da Linha de Base"/>
     <tableColumn id="13" xr3:uid="{C1E2EF24-D9C7-434F-8897-0EFE807E8AB5}" name="Término da linha de base"/>
-    <tableColumn id="1" xr3:uid="{6710B2EE-6C9A-4D88-B5C8-0E1F3CFD5C85}" name="Restrição" dataDxfId="30">
+    <tableColumn id="1" xr3:uid="{6710B2EE-6C9A-4D88-B5C8-0E1F3CFD5C85}" name="Restrição" dataDxfId="55">
       <calculatedColumnFormula>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9906,38 +10181,38 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}" name="Prontidao_MedioPrazo" displayName="Prontidao_MedioPrazo" ref="A6:S78" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
-  <autoFilter ref="A6:S78" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}" name="Prontidao_MedioPrazo" displayName="Prontidao_MedioPrazo" ref="A6:S94" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" headerRowBorderDxfId="44" tableBorderDxfId="45">
+  <autoFilter ref="A6:S94" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{BCE3C5A2-1F72-49EB-BB87-9A92C2B54BB4}" name="ITEM" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{66580C9C-6594-4500-A4D5-A646C365043A}" name="LOCAL" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{72CADBD4-BB10-4819-BD20-5F1FED34D952}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{2ADFA8B7-8EFF-44DC-A62F-3674B062D4A2}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{BCE3C5A2-1F72-49EB-BB87-9A92C2B54BB4}" name="ITEM" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{66580C9C-6594-4500-A4D5-A646C365043A}" name="LOCAL" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{72CADBD4-BB10-4819-BD20-5F1FED34D952}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{2ADFA8B7-8EFF-44DC-A62F-3674B062D4A2}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="40">
       <calculatedColumnFormula>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{10644C3D-33D6-4632-AEDA-8C10BCF893ED}" name="GRUPO" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{2E31625A-C772-4196-9F67-24069F7E96AC}" name="RESTRIÇÃO DETECTADA" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{480343CB-432F-4FEF-BD8B-240D45972277}" name="AÇÃO A SER TOMADA" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{96E10FFD-7709-41D7-989F-D00B08372AB5}" name="DATA DE MAPEAMENTO" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{714BC864-34A3-4792-AA6F-188AABE3C4ED}" name="DATA DE IMPACTO" dataDxfId="17">
+    <tableColumn id="5" xr3:uid="{10644C3D-33D6-4632-AEDA-8C10BCF893ED}" name="GRUPO" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{2E31625A-C772-4196-9F67-24069F7E96AC}" name="RESTRIÇÃO DETECTADA" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{480343CB-432F-4FEF-BD8B-240D45972277}" name="AÇÃO A SER TOMADA" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{96E10FFD-7709-41D7-989F-D00B08372AB5}" name="DATA DE MAPEAMENTO" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{714BC864-34A3-4792-AA6F-188AABE3C4ED}" name="DATA DE IMPACTO" dataDxfId="35">
       <calculatedColumnFormula>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4DC78624-5319-4031-B1C2-493145D03132}" name="TÉRMINO PREV. (BASELINE)" dataDxfId="16"/>
-    <tableColumn id="18" xr3:uid="{4DF93A02-132B-4759-A432-9CA8B6508C90}" name="SEMANA" dataDxfId="15">
+    <tableColumn id="10" xr3:uid="{4DC78624-5319-4031-B1C2-493145D03132}" name="TÉRMINO PREV. (BASELINE)" dataDxfId="34"/>
+    <tableColumn id="18" xr3:uid="{4DF93A02-132B-4759-A432-9CA8B6508C90}" name="SEMANA" dataDxfId="33">
       <calculatedColumnFormula>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C57D6655-5CF4-4B9A-A67C-31241F5DC72D}" name="RESPONSÁVEL" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{D104C09E-C921-4B27-A02D-B5B54E0475C1}" name="DISCIPLINA" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{F0D9B4F9-EBAB-4F73-A8C5-C7D317CF207D}" name="EMPRESA" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{63E49F65-A154-4361-87FC-104A847190DC}" name="TÉRMINO PREVISTO" dataDxfId="11">
+    <tableColumn id="11" xr3:uid="{C57D6655-5CF4-4B9A-A67C-31241F5DC72D}" name="RESPONSÁVEL" dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{D104C09E-C921-4B27-A02D-B5B54E0475C1}" name="DISCIPLINA" dataDxfId="31"/>
+    <tableColumn id="13" xr3:uid="{F0D9B4F9-EBAB-4F73-A8C5-C7D317CF207D}" name="EMPRESA" dataDxfId="30"/>
+    <tableColumn id="14" xr3:uid="{63E49F65-A154-4361-87FC-104A847190DC}" name="TÉRMINO PREVISTO" dataDxfId="29">
       <calculatedColumnFormula>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{0C1B0E76-8A6B-471B-983E-1BC8BF383DB3}" name="TÉRMINO REAL" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{7E90AD6D-C70F-4E00-A6C8-54C0F9D79A8C}" name="STATUS" dataDxfId="9">
+    <tableColumn id="15" xr3:uid="{0C1B0E76-8A6B-471B-983E-1BC8BF383DB3}" name="TÉRMINO REAL" dataDxfId="28"/>
+    <tableColumn id="16" xr3:uid="{7E90AD6D-C70F-4E00-A6C8-54C0F9D79A8C}" name="STATUS" dataDxfId="27">
       <calculatedColumnFormula>IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{1DD489EB-9393-4846-8D4D-BEF17D7FA138}" name="OBSERVAÇÕES" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{435CC5A0-634A-4EA9-A219-7FF662FF83FE}" name="Coluna1" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{1DD489EB-9393-4846-8D4D-BEF17D7FA138}" name="OBSERVAÇÕES" dataDxfId="26"/>
+    <tableColumn id="19" xr3:uid="{435CC5A0-634A-4EA9-A219-7FF662FF83FE}" name="Coluna1" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12739,7 +13014,7 @@
       </c>
       <c r="G111" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
@@ -13553,7 +13828,7 @@
       </c>
       <c r="G148" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
@@ -13883,7 +14158,7 @@
       </c>
       <c r="G163" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
@@ -13905,7 +14180,7 @@
       </c>
       <c r="G164" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
@@ -13927,7 +14202,7 @@
       </c>
       <c r="G165" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
@@ -13949,7 +14224,7 @@
       </c>
       <c r="G166" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
@@ -16929,7 +17204,7 @@
       </c>
       <c r="G306" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.35">
@@ -20709,7 +20984,7 @@
       </c>
       <c r="G486" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="2:7" x14ac:dyDescent="0.35">
@@ -24237,7 +24512,7 @@
       </c>
       <c r="G654" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="2:7" x14ac:dyDescent="0.35">
@@ -24909,7 +25184,7 @@
       </c>
       <c r="G686" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="2:7" x14ac:dyDescent="0.35">
@@ -29130,7 +29405,7 @@
       </c>
       <c r="G887" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="2:7" x14ac:dyDescent="0.35">
@@ -29508,7 +29783,7 @@
       </c>
       <c r="G905" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="2:7" x14ac:dyDescent="0.35">
@@ -29634,7 +29909,7 @@
       </c>
       <c r="G911" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="2:7" x14ac:dyDescent="0.35">
@@ -29886,7 +30161,7 @@
       </c>
       <c r="G923" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="2:7" x14ac:dyDescent="0.35">
@@ -32700,7 +32975,7 @@
       </c>
       <c r="G1057" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058" spans="2:7" x14ac:dyDescent="0.35">
@@ -34464,7 +34739,7 @@
       </c>
       <c r="G1141" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1142" spans="2:7" x14ac:dyDescent="0.35">
@@ -34818,10 +35093,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB78"/>
+  <dimension ref="A1:AB94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="38" zoomScaleNormal="37" zoomScaleSheetLayoutView="73" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="33" zoomScaleNormal="37" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -36015,7 +36290,7 @@
       <c r="P22" s="60"/>
       <c r="Q22" s="21" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
+        <v>Atrasada</v>
       </c>
       <c r="R22" s="44" t="s">
         <v>2587</v>
@@ -36076,7 +36351,7 @@
       <c r="P23" s="60"/>
       <c r="Q23" s="21" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
+        <v>Atrasada</v>
       </c>
       <c r="R23" s="44" t="s">
         <v>2588</v>
@@ -36565,7 +36840,7 @@
       <c r="P31" s="60"/>
       <c r="Q31" s="21" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
+        <v>Atrasada</v>
       </c>
       <c r="R31" s="65"/>
       <c r="S31" s="70">
@@ -36807,7 +37082,7 @@
       <c r="P35" s="60"/>
       <c r="Q35" s="21" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
+        <v>Atrasada</v>
       </c>
       <c r="R35" s="44"/>
       <c r="S35" s="70">
@@ -36989,7 +37264,7 @@
       <c r="P38" s="60"/>
       <c r="Q38" s="21" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
+        <v>Atrasada</v>
       </c>
       <c r="R38" s="65"/>
       <c r="S38" s="70">
@@ -37531,7 +37806,7 @@
       <c r="P47" s="60"/>
       <c r="Q47" s="21" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
+        <v>Atrasada</v>
       </c>
       <c r="R47" s="65"/>
       <c r="S47" s="70">
@@ -37627,7 +37902,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 26/02/24 14:18</v>
       </c>
-      <c r="J49" s="71"/>
+      <c r="J49" s="60">
+        <v>45347</v>
+      </c>
       <c r="K49" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>9</v>
@@ -37642,10 +37919,10 @@
         <v>2193</v>
       </c>
       <c r="O49" s="63">
-        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
-        <v>45327</v>
-      </c>
-      <c r="P49" s="71"/>
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>45347</v>
+      </c>
+      <c r="P49" s="60"/>
       <c r="Q49" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
@@ -37685,7 +37962,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 01/03/24 09:30</v>
       </c>
-      <c r="J50" s="71"/>
+      <c r="J50" s="60">
+        <v>45351</v>
+      </c>
       <c r="K50" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>9</v>
@@ -37700,10 +37979,10 @@
         <v>2193</v>
       </c>
       <c r="O50" s="63">
-        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
-        <v>45331</v>
-      </c>
-      <c r="P50" s="71"/>
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>45351</v>
+      </c>
+      <c r="P50" s="60"/>
       <c r="Q50" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
@@ -37743,7 +38022,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 07/02/24 09:30</v>
       </c>
-      <c r="J51" s="71"/>
+      <c r="J51" s="60">
+        <v>45328</v>
+      </c>
       <c r="K51" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>6</v>
@@ -37758,10 +38039,10 @@
         <v>2193</v>
       </c>
       <c r="O51" s="63">
-        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
-        <v>45308</v>
-      </c>
-      <c r="P51" s="71"/>
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>45328</v>
+      </c>
+      <c r="P51" s="60"/>
       <c r="Q51" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
@@ -37801,7 +38082,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 07/02/24 14:30</v>
       </c>
-      <c r="J52" s="71"/>
+      <c r="J52" s="60">
+        <v>45328</v>
+      </c>
       <c r="K52" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>6</v>
@@ -37816,10 +38099,10 @@
         <v>2193</v>
       </c>
       <c r="O52" s="63">
-        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
-        <v>45308</v>
-      </c>
-      <c r="P52" s="71"/>
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>45328</v>
+      </c>
+      <c r="P52" s="60"/>
       <c r="Q52" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
@@ -37859,7 +38142,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 29/02/24 15:30</v>
       </c>
-      <c r="J53" s="71"/>
+      <c r="J53" s="60">
+        <v>45350</v>
+      </c>
       <c r="K53" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>9</v>
@@ -37874,10 +38159,10 @@
         <v>2193</v>
       </c>
       <c r="O53" s="63">
-        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
-        <v>45330</v>
-      </c>
-      <c r="P53" s="71"/>
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>45350</v>
+      </c>
+      <c r="P53" s="60"/>
       <c r="Q53" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
@@ -37917,7 +38202,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 12/03/24 15:30</v>
       </c>
-      <c r="J54" s="71"/>
+      <c r="J54" s="60">
+        <v>45362</v>
+      </c>
       <c r="K54" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>11</v>
@@ -37932,13 +38219,13 @@
         <v>2193</v>
       </c>
       <c r="O54" s="63">
-        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
-        <v>45342</v>
-      </c>
-      <c r="P54" s="71"/>
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>45362</v>
+      </c>
+      <c r="P54" s="60"/>
       <c r="Q54" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>Atrasada</v>
+        <v>No Prazo</v>
       </c>
       <c r="R54" s="73"/>
       <c r="S54" s="70">
@@ -37975,7 +38262,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 27/11/23 09:30</v>
       </c>
-      <c r="J55" s="71"/>
+      <c r="J55" s="60">
+        <v>45256</v>
+      </c>
       <c r="K55" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>48</v>
@@ -37990,10 +38279,10 @@
         <v>2193</v>
       </c>
       <c r="O55" s="63">
-        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
-        <v>45236</v>
-      </c>
-      <c r="P55" s="71"/>
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>45256</v>
+      </c>
+      <c r="P55" s="60"/>
       <c r="Q55" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
@@ -38033,7 +38322,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 18/03/24 10:30</v>
       </c>
-      <c r="J56" s="71"/>
+      <c r="J56" s="60">
+        <v>45368</v>
+      </c>
       <c r="K56" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>12</v>
@@ -38051,7 +38342,7 @@
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
         <v>45348</v>
       </c>
-      <c r="P56" s="71"/>
+      <c r="P56" s="60"/>
       <c r="Q56" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
@@ -38091,7 +38382,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 13/03/24 08:30</v>
       </c>
-      <c r="J57" s="71"/>
+      <c r="J57" s="60">
+        <v>45363</v>
+      </c>
       <c r="K57" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>11</v>
@@ -38109,7 +38402,7 @@
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
         <v>45343</v>
       </c>
-      <c r="P57" s="71"/>
+      <c r="P57" s="60"/>
       <c r="Q57" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
@@ -38149,7 +38442,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 18/03/24 11:30</v>
       </c>
-      <c r="J58" s="71"/>
+      <c r="J58" s="60">
+        <v>45368</v>
+      </c>
       <c r="K58" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>12</v>
@@ -38167,7 +38462,7 @@
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
         <v>45348</v>
       </c>
-      <c r="P58" s="71"/>
+      <c r="P58" s="60"/>
       <c r="Q58" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
@@ -38207,7 +38502,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 20/03/24 14:30</v>
       </c>
-      <c r="J59" s="71"/>
+      <c r="J59" s="60">
+        <v>45370</v>
+      </c>
       <c r="K59" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>12</v>
@@ -38225,7 +38522,7 @@
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
         <v>45350</v>
       </c>
-      <c r="P59" s="71"/>
+      <c r="P59" s="60"/>
       <c r="Q59" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
@@ -38265,7 +38562,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 25/03/24 08:30</v>
       </c>
-      <c r="J60" s="71"/>
+      <c r="J60" s="60">
+        <v>45375</v>
+      </c>
       <c r="K60" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>13</v>
@@ -38283,7 +38582,7 @@
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
         <v>45355</v>
       </c>
-      <c r="P60" s="71"/>
+      <c r="P60" s="60"/>
       <c r="Q60" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
@@ -38323,7 +38622,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 26/03/24 09:30</v>
       </c>
-      <c r="J61" s="71"/>
+      <c r="J61" s="60">
+        <v>45376</v>
+      </c>
       <c r="K61" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>13</v>
@@ -38341,10 +38642,10 @@
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
         <v>45356</v>
       </c>
-      <c r="P61" s="71"/>
+      <c r="P61" s="60"/>
       <c r="Q61" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
+        <v>Atrasada</v>
       </c>
       <c r="R61" s="73"/>
       <c r="S61" s="70">
@@ -38381,7 +38682,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 13/03/24 13:30</v>
       </c>
-      <c r="J62" s="71"/>
+      <c r="J62" s="60">
+        <v>45363</v>
+      </c>
       <c r="K62" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>11</v>
@@ -38399,7 +38702,7 @@
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
         <v>45343</v>
       </c>
-      <c r="P62" s="71"/>
+      <c r="P62" s="60"/>
       <c r="Q62" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
@@ -38439,7 +38742,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 20/03/24 09:30</v>
       </c>
-      <c r="J63" s="71"/>
+      <c r="J63" s="60">
+        <v>45370</v>
+      </c>
       <c r="K63" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>12</v>
@@ -38457,7 +38762,7 @@
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
         <v>45350</v>
       </c>
-      <c r="P63" s="71"/>
+      <c r="P63" s="60"/>
       <c r="Q63" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
@@ -38497,7 +38802,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 26/03/24 14:30</v>
       </c>
-      <c r="J64" s="71"/>
+      <c r="J64" s="60">
+        <v>45376</v>
+      </c>
       <c r="K64" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>13</v>
@@ -38515,10 +38822,10 @@
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
         <v>45356</v>
       </c>
-      <c r="P64" s="71"/>
+      <c r="P64" s="60"/>
       <c r="Q64" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
+        <v>Atrasada</v>
       </c>
       <c r="R64" s="73"/>
       <c r="S64" s="70">
@@ -38555,7 +38862,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 26/03/24 14:30</v>
       </c>
-      <c r="J65" s="71"/>
+      <c r="J65" s="60">
+        <v>45376</v>
+      </c>
       <c r="K65" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>13</v>
@@ -38573,10 +38882,10 @@
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
         <v>45356</v>
       </c>
-      <c r="P65" s="71"/>
+      <c r="P65" s="60"/>
       <c r="Q65" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
+        <v>Atrasada</v>
       </c>
       <c r="R65" s="73"/>
       <c r="S65" s="70">
@@ -38613,7 +38922,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 20/03/24 10:30</v>
       </c>
-      <c r="J66" s="71"/>
+      <c r="J66" s="60">
+        <v>45370</v>
+      </c>
       <c r="K66" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>12</v>
@@ -38631,7 +38942,7 @@
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
         <v>45350</v>
       </c>
-      <c r="P66" s="71"/>
+      <c r="P66" s="60"/>
       <c r="Q66" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
@@ -38671,7 +38982,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 21/03/24 11:30</v>
       </c>
-      <c r="J67" s="71"/>
+      <c r="J67" s="60">
+        <v>45371</v>
+      </c>
       <c r="K67" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>12</v>
@@ -38689,7 +39002,7 @@
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
         <v>45351</v>
       </c>
-      <c r="P67" s="71"/>
+      <c r="P67" s="60"/>
       <c r="Q67" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
@@ -38729,7 +39042,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 22/03/24 13:30</v>
       </c>
-      <c r="J68" s="71"/>
+      <c r="J68" s="60">
+        <v>45372</v>
+      </c>
       <c r="K68" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>12</v>
@@ -38747,7 +39062,7 @@
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
         <v>45352</v>
       </c>
-      <c r="P68" s="71"/>
+      <c r="P68" s="60"/>
       <c r="Q68" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
@@ -38787,7 +39102,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 25/03/24 14:30</v>
       </c>
-      <c r="J69" s="71"/>
+      <c r="J69" s="60">
+        <v>45375</v>
+      </c>
       <c r="K69" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>13</v>
@@ -38805,7 +39122,7 @@
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
         <v>45355</v>
       </c>
-      <c r="P69" s="71"/>
+      <c r="P69" s="60"/>
       <c r="Q69" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
@@ -38845,7 +39162,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 26/03/24 15:30</v>
       </c>
-      <c r="J70" s="71"/>
+      <c r="J70" s="60">
+        <v>45376</v>
+      </c>
       <c r="K70" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>13</v>
@@ -38863,10 +39182,10 @@
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
         <v>45356</v>
       </c>
-      <c r="P70" s="71"/>
+      <c r="P70" s="60"/>
       <c r="Q70" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
+        <v>Atrasada</v>
       </c>
       <c r="R70" s="73"/>
       <c r="S70" s="70">
@@ -38903,7 +39222,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 28/03/24 08:30</v>
       </c>
-      <c r="J71" s="71"/>
+      <c r="J71" s="60">
+        <v>45378</v>
+      </c>
       <c r="K71" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>13</v>
@@ -38921,10 +39242,10 @@
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
         <v>45358</v>
       </c>
-      <c r="P71" s="71"/>
+      <c r="P71" s="60"/>
       <c r="Q71" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
+        <v>Atrasada</v>
       </c>
       <c r="R71" s="73"/>
       <c r="S71" s="70">
@@ -38961,7 +39282,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 15/03/24 08:30</v>
       </c>
-      <c r="J72" s="71"/>
+      <c r="J72" s="60">
+        <v>45365</v>
+      </c>
       <c r="K72" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>11</v>
@@ -38979,7 +39302,7 @@
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
         <v>45345</v>
       </c>
-      <c r="P72" s="71"/>
+      <c r="P72" s="60"/>
       <c r="Q72" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
@@ -39019,7 +39342,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 18/03/24 09:30</v>
       </c>
-      <c r="J73" s="71"/>
+      <c r="J73" s="60">
+        <v>45368</v>
+      </c>
       <c r="K73" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>12</v>
@@ -39037,7 +39362,7 @@
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
         <v>45348</v>
       </c>
-      <c r="P73" s="71"/>
+      <c r="P73" s="60"/>
       <c r="Q73" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
@@ -39077,7 +39402,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 20/03/24 11:30</v>
       </c>
-      <c r="J74" s="71"/>
+      <c r="J74" s="60">
+        <v>45370</v>
+      </c>
       <c r="K74" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>12</v>
@@ -39095,7 +39422,7 @@
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
         <v>45350</v>
       </c>
-      <c r="P74" s="71"/>
+      <c r="P74" s="60"/>
       <c r="Q74" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
@@ -39135,7 +39462,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 22/03/24 14:30</v>
       </c>
-      <c r="J75" s="71"/>
+      <c r="J75" s="60">
+        <v>45372</v>
+      </c>
       <c r="K75" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>12</v>
@@ -39153,7 +39482,7 @@
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
         <v>45352</v>
       </c>
-      <c r="P75" s="71"/>
+      <c r="P75" s="60"/>
       <c r="Q75" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
@@ -39193,7 +39522,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 01/04/24 10:30</v>
       </c>
-      <c r="J76" s="71"/>
+      <c r="J76" s="60">
+        <v>45380</v>
+      </c>
       <c r="K76" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>14</v>
@@ -39211,7 +39542,7 @@
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
         <v>45362</v>
       </c>
-      <c r="P76" s="71"/>
+      <c r="P76" s="60"/>
       <c r="Q76" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>No Prazo</v>
@@ -39251,7 +39582,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 26/03/24 09:30</v>
       </c>
-      <c r="J77" s="71"/>
+      <c r="J77" s="60">
+        <v>45376</v>
+      </c>
       <c r="K77" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>13</v>
@@ -39269,10 +39602,10 @@
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
         <v>45356</v>
       </c>
-      <c r="P77" s="71"/>
+      <c r="P77" s="60"/>
       <c r="Q77" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
+        <v>Atrasada</v>
       </c>
       <c r="R77" s="73"/>
       <c r="S77" s="70">
@@ -39309,7 +39642,9 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 27/03/24 10:30</v>
       </c>
-      <c r="J78" s="71"/>
+      <c r="J78" s="60">
+        <v>45377</v>
+      </c>
       <c r="K78" s="72">
         <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
         <v>13</v>
@@ -39327,45 +39662,1021 @@
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-21</f>
         <v>45357</v>
       </c>
-      <c r="P78" s="71"/>
+      <c r="P78" s="60"/>
       <c r="Q78" s="71" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
+        <v>Atrasada</v>
       </c>
       <c r="R78" s="73"/>
       <c r="S78" s="70">
         <v>45378</v>
       </c>
     </row>
+    <row r="79" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="74">
+        <v>73</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C79" s="78" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D79" s="76" t="str">
+        <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
+        <v>Plataforma do Mezanino</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>2642</v>
+      </c>
+      <c r="H79" s="77">
+        <v>45362</v>
+      </c>
+      <c r="I79" s="20" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Seg 01/04/24 15:30</v>
+      </c>
+      <c r="J79" s="60">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
+        <v>45363</v>
+      </c>
+      <c r="K79" s="72">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>14</v>
+      </c>
+      <c r="L79" s="61" t="s">
+        <v>2218</v>
+      </c>
+      <c r="M79" s="61" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N79" s="62" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O79" s="63">
+        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-20</f>
+        <v>45363</v>
+      </c>
+      <c r="P79" s="60"/>
+      <c r="Q79" s="71" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R79" s="73"/>
+      <c r="S79" s="70">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="74">
+        <v>74</v>
+      </c>
+      <c r="B80" s="75" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C80" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="D80" s="76" t="str">
+        <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
+        <v>Linha 6"-S3-14E-5375-H</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>2642</v>
+      </c>
+      <c r="H80" s="77">
+        <v>45362</v>
+      </c>
+      <c r="I80" s="79" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Seg 01/04/24 08:30</v>
+      </c>
+      <c r="J80" s="60">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
+        <v>45363</v>
+      </c>
+      <c r="K80" s="72">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>14</v>
+      </c>
+      <c r="L80" s="61" t="s">
+        <v>2218</v>
+      </c>
+      <c r="M80" s="61" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N80" s="62" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O80" s="63">
+        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-20</f>
+        <v>45363</v>
+      </c>
+      <c r="P80" s="60"/>
+      <c r="Q80" s="71" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R80" s="73"/>
+      <c r="S80" s="80">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="74">
+        <v>75</v>
+      </c>
+      <c r="B81" s="75" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C81" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="D81" s="76" t="str">
+        <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
+        <v>TIE-IN_118</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>2642</v>
+      </c>
+      <c r="H81" s="77">
+        <v>45362</v>
+      </c>
+      <c r="I81" s="79" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Seg 01/04/24 09:30</v>
+      </c>
+      <c r="J81" s="60">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
+        <v>45363</v>
+      </c>
+      <c r="K81" s="72">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>14</v>
+      </c>
+      <c r="L81" s="61" t="s">
+        <v>2218</v>
+      </c>
+      <c r="M81" s="61" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N81" s="62" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O81" s="63">
+        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-20</f>
+        <v>45363</v>
+      </c>
+      <c r="P81" s="60"/>
+      <c r="Q81" s="71" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R81" s="73"/>
+      <c r="S81" s="80">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="74">
+        <v>76</v>
+      </c>
+      <c r="B82" s="75" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C82" s="75" t="s">
+        <v>302</v>
+      </c>
+      <c r="D82" s="76" t="str">
+        <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
+        <v>TIE-IN_119</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>2642</v>
+      </c>
+      <c r="H82" s="77">
+        <v>45362</v>
+      </c>
+      <c r="I82" s="79" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Ter 02/04/24 10:30</v>
+      </c>
+      <c r="J82" s="60">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
+        <v>45364</v>
+      </c>
+      <c r="K82" s="72">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>14</v>
+      </c>
+      <c r="L82" s="61" t="s">
+        <v>2218</v>
+      </c>
+      <c r="M82" s="61" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N82" s="62" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O82" s="63">
+        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-20</f>
+        <v>45364</v>
+      </c>
+      <c r="P82" s="60"/>
+      <c r="Q82" s="71" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R82" s="73"/>
+      <c r="S82" s="80">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="74">
+        <v>77</v>
+      </c>
+      <c r="B83" s="75" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C83" s="75" t="s">
+        <v>303</v>
+      </c>
+      <c r="D83" s="76" t="str">
+        <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
+        <v>TIE-IN_121</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>2642</v>
+      </c>
+      <c r="H83" s="77">
+        <v>45362</v>
+      </c>
+      <c r="I83" s="79" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Qua 03/04/24 11:30</v>
+      </c>
+      <c r="J83" s="60">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
+        <v>45365</v>
+      </c>
+      <c r="K83" s="72">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>14</v>
+      </c>
+      <c r="L83" s="61" t="s">
+        <v>2218</v>
+      </c>
+      <c r="M83" s="61" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N83" s="62" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O83" s="63">
+        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-20</f>
+        <v>45365</v>
+      </c>
+      <c r="P83" s="60"/>
+      <c r="Q83" s="71" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R83" s="73"/>
+      <c r="S83" s="80">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="74">
+        <v>78</v>
+      </c>
+      <c r="B84" s="75" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C84" s="75" t="s">
+        <v>304</v>
+      </c>
+      <c r="D84" s="76" t="str">
+        <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
+        <v>TIE-IN_122</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>2642</v>
+      </c>
+      <c r="H84" s="77">
+        <v>45362</v>
+      </c>
+      <c r="I84" s="79" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Qui 04/04/24 13:30</v>
+      </c>
+      <c r="J84" s="60">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
+        <v>45366</v>
+      </c>
+      <c r="K84" s="72">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>14</v>
+      </c>
+      <c r="L84" s="61" t="s">
+        <v>2218</v>
+      </c>
+      <c r="M84" s="61" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N84" s="62" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O84" s="63">
+        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-20</f>
+        <v>45366</v>
+      </c>
+      <c r="P84" s="60"/>
+      <c r="Q84" s="71" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R84" s="73"/>
+      <c r="S84" s="80">
+        <v>45386</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="74">
+        <v>79</v>
+      </c>
+      <c r="B85" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85" s="67" t="s">
+        <v>424</v>
+      </c>
+      <c r="D85" s="76" t="str">
+        <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
+        <v>Montagem da palataforma, escada e guarda corpo do tanque</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>2642</v>
+      </c>
+      <c r="H85" s="77">
+        <v>45362</v>
+      </c>
+      <c r="I85" s="79" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Ter 19/03/24 14:30</v>
+      </c>
+      <c r="J85" s="60">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
+        <v>45350</v>
+      </c>
+      <c r="K85" s="72">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>12</v>
+      </c>
+      <c r="L85" s="61" t="s">
+        <v>2218</v>
+      </c>
+      <c r="M85" s="61" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N85" s="62" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O85" s="63">
+        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-20</f>
+        <v>45350</v>
+      </c>
+      <c r="P85" s="60"/>
+      <c r="Q85" s="71" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>Atrasada</v>
+      </c>
+      <c r="R85" s="73"/>
+      <c r="S85" s="80">
+        <v>45370</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="74">
+        <v>80</v>
+      </c>
+      <c r="B86" s="75" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C86" s="67" t="s">
+        <v>599</v>
+      </c>
+      <c r="D86" s="76" t="str">
+        <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
+        <v>Construção das bases civis das bombas</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>2642</v>
+      </c>
+      <c r="H86" s="77">
+        <v>45362</v>
+      </c>
+      <c r="I86" s="79" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Seg 01/04/24 16:25</v>
+      </c>
+      <c r="J86" s="60">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
+        <v>45363</v>
+      </c>
+      <c r="K86" s="72">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>14</v>
+      </c>
+      <c r="L86" s="61" t="s">
+        <v>2218</v>
+      </c>
+      <c r="M86" s="61" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N86" s="62" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O86" s="63">
+        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-20</f>
+        <v>45363</v>
+      </c>
+      <c r="P86" s="60"/>
+      <c r="Q86" s="71" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R86" s="73"/>
+      <c r="S86" s="80">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="74">
+        <v>81</v>
+      </c>
+      <c r="B87" s="75" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C87" s="75" t="s">
+        <v>797</v>
+      </c>
+      <c r="D87" s="76" t="str">
+        <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
+        <v>Linha 8'' -S3-14E-5355/5356/5357-H</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G87" s="18" t="s">
+        <v>2642</v>
+      </c>
+      <c r="H87" s="77">
+        <v>45362</v>
+      </c>
+      <c r="I87" s="79" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Ter 05/03/24 09:30</v>
+      </c>
+      <c r="J87" s="60">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
+        <v>45336</v>
+      </c>
+      <c r="K87" s="72">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>10</v>
+      </c>
+      <c r="L87" s="61" t="s">
+        <v>2218</v>
+      </c>
+      <c r="M87" s="61" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N87" s="62" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O87" s="63">
+        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-20</f>
+        <v>45336</v>
+      </c>
+      <c r="P87" s="60"/>
+      <c r="Q87" s="71" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>Atrasada</v>
+      </c>
+      <c r="R87" s="73"/>
+      <c r="S87" s="80">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="74">
+        <v>82</v>
+      </c>
+      <c r="B88" s="75" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C88" s="75" t="s">
+        <v>765</v>
+      </c>
+      <c r="D88" s="76" t="str">
+        <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
+        <v>Linha 10"-S1-14E-5385-H</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>2642</v>
+      </c>
+      <c r="H88" s="77">
+        <v>45362</v>
+      </c>
+      <c r="I88" s="79" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Seg 08/01/24 11:30</v>
+      </c>
+      <c r="J88" s="60">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
+        <v>45279</v>
+      </c>
+      <c r="K88" s="72">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>2</v>
+      </c>
+      <c r="L88" s="61" t="s">
+        <v>2218</v>
+      </c>
+      <c r="M88" s="61" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N88" s="62" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O88" s="63">
+        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-20</f>
+        <v>45279</v>
+      </c>
+      <c r="P88" s="60"/>
+      <c r="Q88" s="71" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>Atrasada</v>
+      </c>
+      <c r="R88" s="73"/>
+      <c r="S88" s="80">
+        <v>45299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="74">
+        <v>83</v>
+      </c>
+      <c r="B89" s="75" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C89" s="78" t="s">
+        <v>993</v>
+      </c>
+      <c r="D89" s="76" t="str">
+        <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
+        <v>TIE in 161</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G89" s="18" t="s">
+        <v>2642</v>
+      </c>
+      <c r="H89" s="77">
+        <v>45362</v>
+      </c>
+      <c r="I89" s="79" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Seg 22/04/24 16:18</v>
+      </c>
+      <c r="J89" s="60">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
+        <v>45384</v>
+      </c>
+      <c r="K89" s="72">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>17</v>
+      </c>
+      <c r="L89" s="61" t="s">
+        <v>2218</v>
+      </c>
+      <c r="M89" s="61" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N89" s="62" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O89" s="63">
+        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-20</f>
+        <v>45384</v>
+      </c>
+      <c r="P89" s="60"/>
+      <c r="Q89" s="71" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R89" s="73"/>
+      <c r="S89" s="80">
+        <v>45404</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="74">
+        <v>84</v>
+      </c>
+      <c r="B90" s="75" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C90" s="78" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D90" s="76" t="str">
+        <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
+        <v>Tie in 142</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>2642</v>
+      </c>
+      <c r="H90" s="77">
+        <v>45362</v>
+      </c>
+      <c r="I90" s="79" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Qui 18/04/24 14:18</v>
+      </c>
+      <c r="J90" s="60">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
+        <v>45380</v>
+      </c>
+      <c r="K90" s="72">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>16</v>
+      </c>
+      <c r="L90" s="61" t="s">
+        <v>2218</v>
+      </c>
+      <c r="M90" s="61" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N90" s="62" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O90" s="63">
+        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-20</f>
+        <v>45380</v>
+      </c>
+      <c r="P90" s="60"/>
+      <c r="Q90" s="71" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R90" s="73"/>
+      <c r="S90" s="80">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="74">
+        <v>85</v>
+      </c>
+      <c r="B91" s="75" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C91" s="75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D91" s="76" t="str">
+        <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
+        <v>Tie in 144</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F91" s="17" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G91" s="18" t="s">
+        <v>2642</v>
+      </c>
+      <c r="H91" s="77">
+        <v>45362</v>
+      </c>
+      <c r="I91" s="79" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Sex 19/04/24 15:18</v>
+      </c>
+      <c r="J91" s="60">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
+        <v>45381</v>
+      </c>
+      <c r="K91" s="72">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>16</v>
+      </c>
+      <c r="L91" s="61" t="s">
+        <v>2218</v>
+      </c>
+      <c r="M91" s="61" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N91" s="62" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O91" s="63">
+        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-20</f>
+        <v>45381</v>
+      </c>
+      <c r="P91" s="60"/>
+      <c r="Q91" s="71" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R91" s="73"/>
+      <c r="S91" s="80">
+        <v>45401</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="74">
+        <v>86</v>
+      </c>
+      <c r="B92" s="75" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C92" s="75" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D92" s="76" t="str">
+        <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
+        <v>TIE-IN_139</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>2642</v>
+      </c>
+      <c r="H92" s="77">
+        <v>45362</v>
+      </c>
+      <c r="I92" s="79" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Seg 01/04/24 13:30</v>
+      </c>
+      <c r="J92" s="60">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
+        <v>45363</v>
+      </c>
+      <c r="K92" s="72">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>14</v>
+      </c>
+      <c r="L92" s="61" t="s">
+        <v>2218</v>
+      </c>
+      <c r="M92" s="61" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N92" s="62" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O92" s="63">
+        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-20</f>
+        <v>45363</v>
+      </c>
+      <c r="P92" s="60"/>
+      <c r="Q92" s="71" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R92" s="73"/>
+      <c r="S92" s="80">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="74">
+        <v>87</v>
+      </c>
+      <c r="B93" s="75" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C93" s="78" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D93" s="76" t="str">
+        <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
+        <v>Montagem dos Flash Tanques</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F93" s="17" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>2642</v>
+      </c>
+      <c r="H93" s="77">
+        <v>45362</v>
+      </c>
+      <c r="I93" s="79" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Seg 04/03/24 13:30</v>
+      </c>
+      <c r="J93" s="60">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
+        <v>45335</v>
+      </c>
+      <c r="K93" s="72">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>10</v>
+      </c>
+      <c r="L93" s="61" t="s">
+        <v>2218</v>
+      </c>
+      <c r="M93" s="61" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N93" s="62" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O93" s="63">
+        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-20</f>
+        <v>45335</v>
+      </c>
+      <c r="P93" s="60"/>
+      <c r="Q93" s="71" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>Atrasada</v>
+      </c>
+      <c r="R93" s="73"/>
+      <c r="S93" s="80">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="74">
+        <v>88</v>
+      </c>
+      <c r="B94" s="75" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C94" s="78" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D94" s="76" t="str">
+        <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
+        <v>TIE-IN_115</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>2642</v>
+      </c>
+      <c r="H94" s="77">
+        <v>45362</v>
+      </c>
+      <c r="I94" s="79" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Seg 01/04/24 13:30</v>
+      </c>
+      <c r="J94" s="60">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
+        <v>45363</v>
+      </c>
+      <c r="K94" s="72">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>14</v>
+      </c>
+      <c r="L94" s="61" t="s">
+        <v>2218</v>
+      </c>
+      <c r="M94" s="61" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N94" s="62" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O94" s="63">
+        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-20</f>
+        <v>45363</v>
+      </c>
+      <c r="P94" s="60"/>
+      <c r="Q94" s="71" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R94" s="73"/>
+      <c r="S94" s="80">
+        <v>45383</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C7:C32">
-    <cfRule type="duplicateValues" dxfId="6" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32 C7:C30">
-    <cfRule type="duplicateValues" dxfId="5" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="93"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D78">
-    <cfRule type="duplicateValues" dxfId="4" priority="132"/>
+  <conditionalFormatting sqref="D7:D94">
+    <cfRule type="duplicateValues" dxfId="24" priority="132"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q7:Q78">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="Q7:Q94">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>"Concluída"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
       <formula>"À definir"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
       <formula>"Atrasada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>"No Prazo"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Atividade Impactada" prompt="Fórmula, não há necessidade de preenchimento" sqref="D7:D78" xr:uid="{E680AA44-5F85-4EFF-803C-0597875D8EB8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data de Impacto" prompt="Fórmula, não há necessidade de preenchimento**" sqref="I7:I78" xr:uid="{A69A1786-106F-4AFC-AD5F-6B239B30DD8C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Fórmula, não há necessidade de preenchimento" sqref="Q7:Q78" xr:uid="{ED295417-BECD-49C1-A871-25A5B2CB03C2}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Categoria" prompt="Preencha o campo Categoria com as opções da lista suspensa!" sqref="E7:E78" xr:uid="{DDF1B8A4-511A-4753-BE39-953CE1B85D2D}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Atividade Impactada" prompt="Fórmula, não há necessidade de preenchimento" sqref="D7:D94" xr:uid="{E680AA44-5F85-4EFF-803C-0597875D8EB8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data de Impacto" prompt="Fórmula, não há necessidade de preenchimento**" sqref="I7:I94" xr:uid="{A69A1786-106F-4AFC-AD5F-6B239B30DD8C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Fórmula, não há necessidade de preenchimento" sqref="Q7:Q94" xr:uid="{ED295417-BECD-49C1-A871-25A5B2CB03C2}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Categoria" prompt="Preencha o campo Categoria com as opções da lista suspensa!" sqref="E7:E94" xr:uid="{DDF1B8A4-511A-4753-BE39-953CE1B85D2D}">
       <formula1>"Mão de Obra,Material,Meio Ambiente,Método,Máquina,Medida,HSE,Predecessora,Interface Operação"</formula1>
     </dataValidation>
   </dataValidations>
@@ -39923,6 +41234,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acfac000-05a5-4485-98d1-25ae80f2ac3c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C24875C6C3D6EA45AFCB982D3A0B37CD" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab8229b382e62ca7f68ac387406343b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e7640078-2807-4792-8712-763d4cb58983" xmlns:ns3="acfac000-05a5-4485-98d1-25ae80f2ac3c" xmlns:ns4="601ddd3e-e7e7-4b57-95a9-114b343b906a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f0b2ba43dd082ea35de1bb7fc9953a3" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e7640078-2807-4792-8712-763d4cb58983"/>
@@ -40146,28 +41478,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acfac000-05a5-4485-98d1-25ae80f2ac3c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4F5EE1-56D7-4FFB-B992-DE488B5495B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
+    <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
+    <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43EA2ECA-4B5E-4DC2-9087-8210D1FB9903}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40185,24 +41516,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4F5EE1-56D7-4FFB-B992-DE488B5495B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
-    <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
-    <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/programacao/15 -  Prontidão Médio Prazo.xlsx
+++ b/programacao/15 -  Prontidão Médio Prazo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_4600011662_Utilidades/02.PLANEJAMENTO/01 - Base de dados BI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2272" documentId="13_ncr:1_{CF35CD03-2AB7-44C8-89C3-A37B38273E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FBF8036-07B7-44C0-A3C9-347970BA3DEF}"/>
+  <xr:revisionPtr revIDLastSave="2276" documentId="13_ncr:1_{CF35CD03-2AB7-44C8-89C3-A37B38273E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FBC2AE6-23BC-43D4-90C8-C939757595C7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{32A6E8DD-ACB4-40F1-8D5E-8E9CE1A3868D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{32A6E8DD-ACB4-40F1-8D5E-8E9CE1A3868D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="18" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cronograma'!$B$1:$F$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Prontidão Médio Prazo'!$A$1:$R$112</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Prontidão Médio Prazo'!$A$1:$R$105</definedName>
     <definedName name="dfgvxcbfxcc" hidden="1">{"Avaliação de Cargos (Class Mens Todas)",#N/A,FALSE,"BANCO DE DADOS MENSALISTAS";"Avaliação de Cargos (Class Mens Todas)",#N/A,FALSE,"BANCO DE DADOS MENSALISTAS"}</definedName>
     <definedName name="ECC" hidden="1">{"Avaliação de Cargos (Class Mens Todas)",#N/A,FALSE,"BANCO DE DADOS MENSALISTAS";"Avaliação de Cargos (Class Mens Todas)",#N/A,FALSE,"BANCO DE DADOS MENSALISTAS"}</definedName>
     <definedName name="fdxcgfdgdxc" hidden="1">{#N/A,#N/A,FALSE,"Costo Vendido";#N/A,#N/A,FALSE,"Precio";#N/A,#N/A,FALSE,"Consumo";#N/A,#N/A,FALSE,"GDV";#N/A,#N/A,FALSE,"expestru";#N/A,#N/A,FALSE,"Graficos";#N/A,#N/A,FALSE,"Resumen "}</definedName>
@@ -8671,7 +8671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8895,10 +8895,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="18" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8908,10 +8904,7 @@
     <xf numFmtId="0" fontId="25" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8926,156 +8919,7 @@
     <cellStyle name="Vírgula 3" xfId="7" xr:uid="{AC04EBC1-067B-4DD3-AB12-15BC23D4E125}"/>
     <cellStyle name="Vírgula 6" xfId="5" xr:uid="{CB1685CC-0710-4DF6-A7AD-58305EA87DC0}"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFB3B3B3"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFB3B3B3"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFB3B3B3"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFB3B3B3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFB3B3B3"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFB3B3B3"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFB3B3B3"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFB3B3B3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFB3B3B3"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFB3B3B3"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFB3B3B3"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFB3B3B3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFB3B3B3"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFB3B3B3"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFB3B3B3"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFB3B3B3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <font>
         <color theme="0"/>
@@ -9120,90 +8964,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9530,6 +9290,40 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFB3B3B3"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB3B3B3"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB3B3B3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB3B3B3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="21" formatCode="dd/mmm"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -9662,6 +9456,111 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB3B3B3"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB3B3B3"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB3B3B3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB3B3B3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB3B3B3"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB3B3B3"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB3B3B3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB3B3B3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB3B3B3"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB3B3B3"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB3B3B3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB3B3B3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFB3B3B3"/>
@@ -9714,13 +9613,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FFB3B3B3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -9732,6 +9624,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFB3B3B3"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -10143,7 +10042,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EF2621C-A558-4248-897D-578581E51F6C}" name="Cronograma" displayName="Cronograma" ref="B1:G1154" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EF2621C-A558-4248-897D-578581E51F6C}" name="Cronograma" displayName="Cronograma" ref="B1:G1154" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32">
   <autoFilter ref="B1:G1154" xr:uid="{2EF2621C-A558-4248-897D-578581E51F6C}"/>
   <tableColumns count="6">
     <tableColumn id="2" xr3:uid="{284525CD-76BC-49A7-8C7C-E353A57B6CBC}" name="EDT"/>
@@ -10151,7 +10050,7 @@
     <tableColumn id="6" xr3:uid="{8A316AA5-3F27-4B99-A5FF-08B7675D198A}" name="Duração"/>
     <tableColumn id="12" xr3:uid="{7E09DA88-5D9A-4A6B-96E8-4C36A3FE6CEA}" name="Início da Linha de Base"/>
     <tableColumn id="13" xr3:uid="{C1E2EF24-D9C7-434F-8897-0EFE807E8AB5}" name="Término da linha de base"/>
-    <tableColumn id="1" xr3:uid="{6710B2EE-6C9A-4D88-B5C8-0E1F3CFD5C85}" name="Restrição" dataDxfId="40">
+    <tableColumn id="1" xr3:uid="{6710B2EE-6C9A-4D88-B5C8-0E1F3CFD5C85}" name="Restrição" dataDxfId="30">
       <calculatedColumnFormula>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10160,36 +10059,43 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}" name="Prontidao_MedioPrazo" displayName="Prontidao_MedioPrazo" ref="A6:S105" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" headerRowBorderDxfId="36" tableBorderDxfId="37">
-  <autoFilter ref="A6:S105" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}" name="Prontidao_MedioPrazo" displayName="Prontidao_MedioPrazo" ref="A6:S105" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
+  <autoFilter ref="A6:S105" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}">
+    <filterColumn colId="16">
+      <filters>
+        <filter val="Atrasada"/>
+        <filter val="No Prazo"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{BCE3C5A2-1F72-49EB-BB87-9A92C2B54BB4}" name="ITEM" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{66580C9C-6594-4500-A4D5-A646C365043A}" name="LOCAL" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{72CADBD4-BB10-4819-BD20-5F1FED34D952}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{2ADFA8B7-8EFF-44DC-A62F-3674B062D4A2}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{BCE3C5A2-1F72-49EB-BB87-9A92C2B54BB4}" name="ITEM" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{66580C9C-6594-4500-A4D5-A646C365043A}" name="LOCAL" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{72CADBD4-BB10-4819-BD20-5F1FED34D952}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{2ADFA8B7-8EFF-44DC-A62F-3674B062D4A2}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="22">
       <calculatedColumnFormula>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{10644C3D-33D6-4632-AEDA-8C10BCF893ED}" name="GRUPO" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{2E31625A-C772-4196-9F67-24069F7E96AC}" name="RESTRIÇÃO DETECTADA" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{480343CB-432F-4FEF-BD8B-240D45972277}" name="AÇÃO A SER TOMADA" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{96E10FFD-7709-41D7-989F-D00B08372AB5}" name="DATA DE MAPEAMENTO" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{714BC864-34A3-4792-AA6F-188AABE3C4ED}" name="DATA DE IMPACTO" dataDxfId="30">
+    <tableColumn id="5" xr3:uid="{10644C3D-33D6-4632-AEDA-8C10BCF893ED}" name="GRUPO" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{2E31625A-C772-4196-9F67-24069F7E96AC}" name="RESTRIÇÃO DETECTADA" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{480343CB-432F-4FEF-BD8B-240D45972277}" name="AÇÃO A SER TOMADA" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{96E10FFD-7709-41D7-989F-D00B08372AB5}" name="DATA DE MAPEAMENTO" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{714BC864-34A3-4792-AA6F-188AABE3C4ED}" name="DATA DE IMPACTO" dataDxfId="17">
       <calculatedColumnFormula>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4DC78624-5319-4031-B1C2-493145D03132}" name="TÉRMINO PREV. (BASELINE)" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{4DF93A02-132B-4759-A432-9CA8B6508C90}" name="SEMANA" dataDxfId="29">
+    <tableColumn id="10" xr3:uid="{4DC78624-5319-4031-B1C2-493145D03132}" name="TÉRMINO PREV. (BASELINE)" dataDxfId="16"/>
+    <tableColumn id="18" xr3:uid="{4DF93A02-132B-4759-A432-9CA8B6508C90}" name="SEMANA" dataDxfId="15">
       <calculatedColumnFormula>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C57D6655-5CF4-4B9A-A67C-31241F5DC72D}" name="RESPONSÁVEL" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{D104C09E-C921-4B27-A02D-B5B54E0475C1}" name="DISCIPLINA" dataDxfId="27"/>
-    <tableColumn id="13" xr3:uid="{F0D9B4F9-EBAB-4F73-A8C5-C7D317CF207D}" name="EMPRESA" dataDxfId="26"/>
-    <tableColumn id="14" xr3:uid="{63E49F65-A154-4361-87FC-104A847190DC}" name="TÉRMINO PREVISTO" dataDxfId="25"/>
-    <tableColumn id="15" xr3:uid="{0C1B0E76-8A6B-471B-983E-1BC8BF383DB3}" name="TÉRMINO REAL" dataDxfId="24"/>
-    <tableColumn id="16" xr3:uid="{7E90AD6D-C70F-4E00-A6C8-54C0F9D79A8C}" name="STATUS" dataDxfId="23">
+    <tableColumn id="11" xr3:uid="{C57D6655-5CF4-4B9A-A67C-31241F5DC72D}" name="RESPONSÁVEL" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{D104C09E-C921-4B27-A02D-B5B54E0475C1}" name="DISCIPLINA" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{F0D9B4F9-EBAB-4F73-A8C5-C7D317CF207D}" name="EMPRESA" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{63E49F65-A154-4361-87FC-104A847190DC}" name="TÉRMINO PREVISTO" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{0C1B0E76-8A6B-471B-983E-1BC8BF383DB3}" name="TÉRMINO REAL" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{7E90AD6D-C70F-4E00-A6C8-54C0F9D79A8C}" name="STATUS" dataDxfId="9">
       <calculatedColumnFormula>IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{1DD489EB-9393-4846-8D4D-BEF17D7FA138}" name="OBSERVAÇÕES" dataDxfId="22"/>
-    <tableColumn id="19" xr3:uid="{435CC5A0-634A-4EA9-A219-7FF662FF83FE}" name="Coluna1" dataDxfId="21"/>
+    <tableColumn id="17" xr3:uid="{1DD489EB-9393-4846-8D4D-BEF17D7FA138}" name="OBSERVAÇÕES" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{435CC5A0-634A-4EA9-A219-7FF662FF83FE}" name="Coluna1" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10534,10 +10440,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02774E1-49FA-4464-8972-3A77F673801C}">
   <dimension ref="A1:G1167"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E81" sqref="E81"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1154"/>
+      <selection pane="bottomLeft" activeCell="C346" sqref="C293:C346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -30561,7 +30467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="944" spans="2:7" ht="28.8" x14ac:dyDescent="0.35">
+    <row r="944" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B944" s="48" t="s">
         <v>1049</v>
       </c>
@@ -35072,8 +34978,8 @@
   </sheetPr>
   <dimension ref="A1:AB105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A90" zoomScale="40" zoomScaleNormal="37" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A37" zoomScale="38" zoomScaleNormal="37" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -35087,7 +34993,7 @@
     <col min="7" max="7" width="38.5546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="22" style="3" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="83" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" style="81" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.88671875" style="3" customWidth="1"/>
     <col min="12" max="12" width="17.5546875" style="3" customWidth="1"/>
     <col min="13" max="13" width="14.5546875" style="3" customWidth="1"/>
@@ -35242,7 +35148,7 @@
       <c r="N6" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="O6" s="84" t="s">
+      <c r="O6" s="82" t="s">
         <v>114</v>
       </c>
       <c r="P6" s="22" t="s">
@@ -35268,7 +35174,7 @@
       <c r="C7" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="85" t="str">
+      <c r="D7" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Fabricação de estrutura metálica ( Pataforma/Escada/Guarda corpo )</v>
       </c>
@@ -35288,7 +35194,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 20/02/24 09:30</v>
       </c>
-      <c r="J7" s="82">
+      <c r="J7" s="80">
         <v>45338</v>
       </c>
       <c r="K7" s="65">
@@ -35319,7 +35225,7 @@
         <v>45342</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="21" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="21" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42">
         <v>2</v>
       </c>
@@ -35329,7 +35235,7 @@
       <c r="C8" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="85" t="str">
+      <c r="D8" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Base civil suporte PS1-2900-58-0707</v>
       </c>
@@ -35349,7 +35255,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 26/02/24 10:18</v>
       </c>
-      <c r="J8" s="82">
+      <c r="J8" s="80">
         <v>45343</v>
       </c>
       <c r="K8" s="65">
@@ -35380,7 +35286,7 @@
         <v>45348</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="21" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" s="21" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42">
         <v>3</v>
       </c>
@@ -35390,7 +35296,7 @@
       <c r="C9" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="D9" s="85" t="str">
+      <c r="D9" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 147</v>
       </c>
@@ -35410,7 +35316,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 01/03/24 09:30</v>
       </c>
-      <c r="J9" s="82">
+      <c r="J9" s="80">
         <v>45348</v>
       </c>
       <c r="K9" s="65">
@@ -35446,7 +35352,7 @@
         <v>45168.541666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="21" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" s="21" customFormat="1" ht="52.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="42">
         <v>4</v>
       </c>
@@ -35456,7 +35362,7 @@
       <c r="C10" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="85" t="str">
+      <c r="D10" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 152</v>
       </c>
@@ -35476,7 +35382,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 01/03/24 09:30</v>
       </c>
-      <c r="J10" s="82">
+      <c r="J10" s="80">
         <v>45348</v>
       </c>
       <c r="K10" s="65">
@@ -35509,7 +35415,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="21" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="21" customFormat="1" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="42">
         <v>5</v>
       </c>
@@ -35519,7 +35425,7 @@
       <c r="C11" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="D11" s="85" t="str">
+      <c r="D11" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 153</v>
       </c>
@@ -35539,7 +35445,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 01/03/24 09:30</v>
       </c>
-      <c r="J11" s="82">
+      <c r="J11" s="80">
         <v>45348</v>
       </c>
       <c r="K11" s="65">
@@ -35572,7 +35478,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="21" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="21" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="42">
         <v>6</v>
       </c>
@@ -35582,7 +35488,7 @@
       <c r="C12" s="78" t="s">
         <v>225</v>
       </c>
-      <c r="D12" s="85" t="str">
+      <c r="D12" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 154</v>
       </c>
@@ -35602,7 +35508,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 01/03/24 09:30</v>
       </c>
-      <c r="J12" s="82">
+      <c r="J12" s="80">
         <v>45348</v>
       </c>
       <c r="K12" s="65">
@@ -35635,7 +35541,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="21" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="21" customFormat="1" ht="52.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42">
         <v>7</v>
       </c>
@@ -35645,7 +35551,7 @@
       <c r="C13" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="D13" s="85" t="str">
+      <c r="D13" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 167</v>
       </c>
@@ -35665,7 +35571,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 01/03/24 09:30</v>
       </c>
-      <c r="J13" s="82">
+      <c r="J13" s="80">
         <v>45348</v>
       </c>
       <c r="K13" s="65">
@@ -35698,7 +35604,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="21" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="21" customFormat="1" ht="52.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42">
         <v>8</v>
       </c>
@@ -35708,7 +35614,7 @@
       <c r="C14" s="78" t="s">
         <v>235</v>
       </c>
-      <c r="D14" s="85" t="str">
+      <c r="D14" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 168</v>
       </c>
@@ -35728,7 +35634,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 01/03/24 09:30</v>
       </c>
-      <c r="J14" s="82">
+      <c r="J14" s="80">
         <v>45348</v>
       </c>
       <c r="K14" s="65">
@@ -35761,7 +35667,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="21" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="21" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42">
         <v>9</v>
       </c>
@@ -35771,7 +35677,7 @@
       <c r="C15" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="85" t="str">
+      <c r="D15" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 8"-S3-5389-H - Tie in 172</v>
       </c>
@@ -35791,7 +35697,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 26/02/24 11:30</v>
       </c>
-      <c r="J15" s="82">
+      <c r="J15" s="80">
         <v>45348</v>
       </c>
       <c r="K15" s="65">
@@ -35824,7 +35730,7 @@
         <v>45348</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="21" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" s="21" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42">
         <v>10</v>
       </c>
@@ -35834,7 +35740,7 @@
       <c r="C16" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="D16" s="85" t="str">
+      <c r="D16" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S3-14E-5401-H</v>
       </c>
@@ -35854,7 +35760,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 19/02/24 13:30</v>
       </c>
-      <c r="J16" s="82">
+      <c r="J16" s="80">
         <v>45341</v>
       </c>
       <c r="K16" s="65">
@@ -35887,7 +35793,7 @@
         <v>45341</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="21" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" s="21" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42">
         <v>11</v>
       </c>
@@ -35897,7 +35803,7 @@
       <c r="C17" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="85" t="str">
+      <c r="D17" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S3-14E-5402-H</v>
       </c>
@@ -35917,7 +35823,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 21/02/24 15:30</v>
       </c>
-      <c r="J17" s="82">
+      <c r="J17" s="80">
         <v>45341</v>
       </c>
       <c r="K17" s="65">
@@ -35950,7 +35856,7 @@
         <v>45343</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="21" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" s="21" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="42">
         <v>12</v>
       </c>
@@ -35960,7 +35866,7 @@
       <c r="C18" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="D18" s="85" t="str">
+      <c r="D18" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S3-14E-5399-H</v>
       </c>
@@ -35980,7 +35886,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 26/02/24 09:30</v>
       </c>
-      <c r="J18" s="82">
+      <c r="J18" s="80">
         <v>45341</v>
       </c>
       <c r="K18" s="65">
@@ -36013,7 +35919,7 @@
         <v>45348</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="21" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" s="21" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="42">
         <v>13</v>
       </c>
@@ -36023,7 +35929,7 @@
       <c r="C19" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="D19" s="85" t="str">
+      <c r="D19" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S3-14E-5400-H</v>
       </c>
@@ -36043,7 +35949,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 28/02/24 11:30</v>
       </c>
-      <c r="J19" s="82">
+      <c r="J19" s="80">
         <v>45341</v>
       </c>
       <c r="K19" s="65">
@@ -36076,7 +35982,7 @@
         <v>45350</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="21" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" s="21" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42">
         <v>14</v>
       </c>
@@ -36086,7 +35992,7 @@
       <c r="C20" s="78" t="s">
         <v>310</v>
       </c>
-      <c r="D20" s="85" t="str">
+      <c r="D20" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S3-14E-5397-H</v>
       </c>
@@ -36106,7 +36012,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 01/03/24 14:30</v>
       </c>
-      <c r="J20" s="82">
+      <c r="J20" s="80">
         <v>45341</v>
       </c>
       <c r="K20" s="65">
@@ -36139,7 +36045,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="21" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" s="21" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="42">
         <v>15</v>
       </c>
@@ -36149,7 +36055,7 @@
       <c r="C21" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="D21" s="85" t="str">
+      <c r="D21" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S3-14E-5398-H</v>
       </c>
@@ -36169,7 +36075,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 06/03/24 08:30</v>
       </c>
-      <c r="J21" s="82">
+      <c r="J21" s="80">
         <v>45341</v>
       </c>
       <c r="K21" s="65">
@@ -36212,7 +36118,7 @@
       <c r="C22" s="78" t="s">
         <v>362</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="17" t="s">
         <v>2598</v>
       </c>
       <c r="E22" s="16" t="s">
@@ -36231,7 +36137,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 06/03/24 16:18</v>
       </c>
-      <c r="J22" s="82">
+      <c r="J22" s="80">
         <v>45355</v>
       </c>
       <c r="K22" s="65">
@@ -36272,7 +36178,7 @@
       <c r="C23" s="78" t="s">
         <v>368</v>
       </c>
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="17" t="s">
         <v>2599</v>
       </c>
       <c r="E23" s="16" t="s">
@@ -36291,7 +36197,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 07/03/24 16:06</v>
       </c>
-      <c r="J23" s="82">
+      <c r="J23" s="80">
         <v>45355</v>
       </c>
       <c r="K23" s="65">
@@ -36332,7 +36238,7 @@
       <c r="C24" s="78" t="s">
         <v>1047</v>
       </c>
-      <c r="D24" s="85" t="str">
+      <c r="D24" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Construção civil do prédio (base do desaerador) - HYDRO</v>
       </c>
@@ -36352,7 +36258,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 01/03/24 15:30</v>
       </c>
-      <c r="J24" s="82">
+      <c r="J24" s="80">
         <v>45352</v>
       </c>
       <c r="K24" s="65">
@@ -36383,7 +36289,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="21" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" s="21" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="42">
         <v>19</v>
       </c>
@@ -36393,7 +36299,7 @@
       <c r="C25" s="78" t="s">
         <v>1048</v>
       </c>
-      <c r="D25" s="85" t="str">
+      <c r="D25" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Mobilização e patolamento de guindaste de 300ton</v>
       </c>
@@ -36413,7 +36319,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 01/03/24 15:30</v>
       </c>
-      <c r="J25" s="82">
+      <c r="J25" s="80">
         <v>45352</v>
       </c>
       <c r="K25" s="65">
@@ -36456,7 +36362,7 @@
       <c r="C26" s="78" t="s">
         <v>1054</v>
       </c>
-      <c r="D26" s="85" t="str">
+      <c r="D26" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Bombas do sistema de desaeração</v>
       </c>
@@ -36476,7 +36382,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 01/03/24 15:30</v>
       </c>
-      <c r="J26" s="82">
+      <c r="J26" s="80">
         <v>45352</v>
       </c>
       <c r="K26" s="65">
@@ -36517,7 +36423,7 @@
       <c r="C27" s="78" t="s">
         <v>1163</v>
       </c>
-      <c r="D27" s="85" t="str">
+      <c r="D27" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Construção de base civil ( Hydro)</v>
       </c>
@@ -36537,7 +36443,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 04/03/24 13:30</v>
       </c>
-      <c r="J27" s="82">
+      <c r="J27" s="80">
         <v>45356</v>
       </c>
       <c r="K27" s="65">
@@ -36578,7 +36484,7 @@
       <c r="C28" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="17" t="s">
         <v>2219</v>
       </c>
       <c r="E28" s="16" t="s">
@@ -36597,7 +36503,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 29/02/24 15:30</v>
       </c>
-      <c r="J28" s="82">
+      <c r="J28" s="80">
         <v>45348</v>
       </c>
       <c r="K28" s="65">
@@ -36628,7 +36534,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="21" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" s="21" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="63">
         <v>23</v>
       </c>
@@ -36638,7 +36544,7 @@
       <c r="C29" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="D29" s="85" t="s">
+      <c r="D29" s="17" t="s">
         <v>2600</v>
       </c>
       <c r="E29" s="16" t="s">
@@ -36657,7 +36563,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 15/02/24 09:18</v>
       </c>
-      <c r="J29" s="82">
+      <c r="J29" s="80">
         <v>45337</v>
       </c>
       <c r="K29" s="65">
@@ -36690,7 +36596,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="21" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" s="21" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="63">
         <v>24</v>
       </c>
@@ -36700,7 +36606,7 @@
       <c r="C30" s="78" t="s">
         <v>345</v>
       </c>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="17" t="s">
         <v>2601</v>
       </c>
       <c r="E30" s="16" t="s">
@@ -36719,7 +36625,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 16/02/24 10:18</v>
       </c>
-      <c r="J30" s="82">
+      <c r="J30" s="80">
         <v>45337</v>
       </c>
       <c r="K30" s="65">
@@ -36762,7 +36668,7 @@
       <c r="C31" s="79" t="s">
         <v>270</v>
       </c>
-      <c r="D31" s="85" t="str">
+      <c r="D31" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 14"-S3-14E-5403-H</v>
       </c>
@@ -36782,7 +36688,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 07/03/24 11:30</v>
       </c>
-      <c r="J31" s="82">
+      <c r="J31" s="80">
         <v>45356</v>
       </c>
       <c r="K31" s="65">
@@ -36823,7 +36729,7 @@
       <c r="C32" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="85" t="str">
+      <c r="D32" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 109</v>
       </c>
@@ -36843,7 +36749,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 05/03/24 10:30</v>
       </c>
-      <c r="J32" s="82">
+      <c r="J32" s="80">
         <v>45356</v>
       </c>
       <c r="K32" s="65">
@@ -36874,7 +36780,7 @@
         <v>45356</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="21" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" s="21" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="63">
         <v>27</v>
       </c>
@@ -36884,7 +36790,7 @@
       <c r="C33" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="85" t="str">
+      <c r="D33" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 8"-S3-14E-5333-H</v>
       </c>
@@ -36904,7 +36810,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 19/02/24 11:30</v>
       </c>
-      <c r="J33" s="82">
+      <c r="J33" s="80">
         <v>45343</v>
       </c>
       <c r="K33" s="65">
@@ -36945,7 +36851,7 @@
       <c r="C34" s="79" t="s">
         <v>280</v>
       </c>
-      <c r="D34" s="85" t="str">
+      <c r="D34" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 8"-S3-14E-5336-H</v>
       </c>
@@ -36965,7 +36871,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 27/02/24 09:30</v>
       </c>
-      <c r="J34" s="82">
+      <c r="J34" s="80">
         <v>45349</v>
       </c>
       <c r="K34" s="65">
@@ -37006,7 +36912,7 @@
       <c r="C35" s="79" t="s">
         <v>281</v>
       </c>
-      <c r="D35" s="85" t="str">
+      <c r="D35" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 3"-S3-14E-5371-H</v>
       </c>
@@ -37026,7 +36932,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 07/03/24 08:30</v>
       </c>
-      <c r="J35" s="82">
+      <c r="J35" s="80">
         <v>45356</v>
       </c>
       <c r="K35" s="65">
@@ -37057,7 +36963,7 @@
         <v>45358</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="21" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" s="21" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="63">
         <v>30</v>
       </c>
@@ -37067,7 +36973,7 @@
       <c r="C36" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="D36" s="85" t="str">
+      <c r="D36" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 12"-S3-14E-5321-H</v>
       </c>
@@ -37087,7 +36993,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 05/02/24 14:30</v>
       </c>
-      <c r="J36" s="82">
+      <c r="J36" s="80">
         <v>45327</v>
       </c>
       <c r="K36" s="65">
@@ -37128,7 +37034,7 @@
       <c r="C37" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="85" t="str">
+      <c r="D37" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S3-14E-5300-H</v>
       </c>
@@ -37148,7 +37054,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 27/02/24 11:30</v>
       </c>
-      <c r="J37" s="82">
+      <c r="J37" s="80">
         <v>45349</v>
       </c>
       <c r="K37" s="65">
@@ -37189,7 +37095,7 @@
       <c r="C38" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="85" t="str">
+      <c r="D38" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 8"-S3-14A-5301-H</v>
       </c>
@@ -37209,7 +37115,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 08/03/24 11:30</v>
       </c>
-      <c r="J38" s="82">
+      <c r="J38" s="80">
         <v>45356</v>
       </c>
       <c r="K38" s="65">
@@ -37250,7 +37156,7 @@
       <c r="C39" s="79" t="s">
         <v>374</v>
       </c>
-      <c r="D39" s="85" t="s">
+      <c r="D39" s="17" t="s">
         <v>2603</v>
       </c>
       <c r="E39" s="16" t="s">
@@ -37269,7 +37175,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 12/03/24 10:54</v>
       </c>
-      <c r="J39" s="82">
+      <c r="J39" s="80">
         <v>45357</v>
       </c>
       <c r="K39" s="65">
@@ -37310,7 +37216,7 @@
       <c r="C40" s="79" t="s">
         <v>399</v>
       </c>
-      <c r="D40" s="85" t="s">
+      <c r="D40" s="17" t="s">
         <v>2604</v>
       </c>
       <c r="E40" s="16" t="s">
@@ -37329,7 +37235,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 14/03/24 14:42</v>
       </c>
-      <c r="J40" s="82">
+      <c r="J40" s="80">
         <v>45358</v>
       </c>
       <c r="K40" s="65">
@@ -37370,7 +37276,7 @@
       <c r="C41" s="79" t="s">
         <v>709</v>
       </c>
-      <c r="D41" s="85" t="str">
+      <c r="D41" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 3-S3-14E-5330-H</v>
       </c>
@@ -37390,7 +37296,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 11/01/24 08:30</v>
       </c>
-      <c r="J41" s="82">
+      <c r="J41" s="80">
         <v>45334</v>
       </c>
       <c r="K41" s="65">
@@ -37431,7 +37337,7 @@
       <c r="C42" s="79" t="s">
         <v>718</v>
       </c>
-      <c r="D42" s="85" t="str">
+      <c r="D42" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 3"-S3-14E-5324-H</v>
       </c>
@@ -37451,7 +37357,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 13/11/23 08:30</v>
       </c>
-      <c r="J42" s="82">
+      <c r="J42" s="80">
         <v>45358</v>
       </c>
       <c r="K42" s="65">
@@ -37491,7 +37397,7 @@
       <c r="C43" s="79" t="s">
         <v>726</v>
       </c>
-      <c r="D43" s="85" t="str">
+      <c r="D43" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S3-14E-5322-H</v>
       </c>
@@ -37511,7 +37417,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 23/11/23 08:30</v>
       </c>
-      <c r="J43" s="82">
+      <c r="J43" s="80">
         <v>45358</v>
       </c>
       <c r="K43" s="65">
@@ -37552,7 +37458,7 @@
       <c r="C44" s="79" t="s">
         <v>754</v>
       </c>
-      <c r="D44" s="85" t="str">
+      <c r="D44" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 3"-S3-14E-5310/5327 -H</v>
       </c>
@@ -37572,7 +37478,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 07/12/23 14:30</v>
       </c>
-      <c r="J44" s="82">
+      <c r="J44" s="80">
         <v>45358</v>
       </c>
       <c r="K44" s="65">
@@ -37603,7 +37509,7 @@
         <v>45633</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="21" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" s="21" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="63">
         <v>39</v>
       </c>
@@ -37613,7 +37519,7 @@
       <c r="C45" s="79" t="s">
         <v>945</v>
       </c>
-      <c r="D45" s="85" t="str">
+      <c r="D45" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 20"-S3-14E-5313-H</v>
       </c>
@@ -37633,7 +37539,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 05/12/23 11:30</v>
       </c>
-      <c r="J45" s="82">
+      <c r="J45" s="80">
         <v>45631</v>
       </c>
       <c r="K45" s="65">
@@ -37674,7 +37580,7 @@
       <c r="C46" s="79" t="s">
         <v>1055</v>
       </c>
-      <c r="D46" s="85" t="str">
+      <c r="D46" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Construção das bases civis (Hydro)</v>
       </c>
@@ -37694,7 +37600,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 01/03/24 15:30</v>
       </c>
-      <c r="J46" s="82">
+      <c r="J46" s="80">
         <v>45349</v>
       </c>
       <c r="K46" s="65">
@@ -37735,7 +37641,7 @@
       <c r="C47" s="79" t="s">
         <v>1095</v>
       </c>
-      <c r="D47" s="85" t="s">
+      <c r="D47" s="17" t="s">
         <v>2607</v>
       </c>
       <c r="E47" s="16" t="s">
@@ -37754,7 +37660,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 08/03/24 11:30</v>
       </c>
-      <c r="J47" s="82">
+      <c r="J47" s="80">
         <v>45356</v>
       </c>
       <c r="K47" s="65">
@@ -37795,7 +37701,7 @@
       <c r="C48" s="79" t="s">
         <v>1101</v>
       </c>
-      <c r="D48" s="85" t="s">
+      <c r="D48" s="17" t="s">
         <v>2608</v>
       </c>
       <c r="E48" s="16" t="s">
@@ -37814,7 +37720,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 12/03/24 14:30</v>
       </c>
-      <c r="J48" s="82">
+      <c r="J48" s="80">
         <v>45357</v>
       </c>
       <c r="K48" s="65">
@@ -37855,7 +37761,7 @@
       <c r="C49" s="79" t="s">
         <v>352</v>
       </c>
-      <c r="D49" s="85" t="str">
+      <c r="D49" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Montar e soldar linhas ( 6'' W6-14E-5362/5363) - 2º trecho</v>
       </c>
@@ -37875,7 +37781,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 26/02/24 14:18</v>
       </c>
-      <c r="J49" s="82">
+      <c r="J49" s="80">
         <v>45347</v>
       </c>
       <c r="K49" s="70">
@@ -37916,7 +37822,7 @@
       <c r="C50" s="79" t="s">
         <v>245</v>
       </c>
-      <c r="D50" s="85" t="str">
+      <c r="D50" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 150</v>
       </c>
@@ -37936,7 +37842,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 01/03/24 09:30</v>
       </c>
-      <c r="J50" s="82">
+      <c r="J50" s="80">
         <v>45351</v>
       </c>
       <c r="K50" s="70">
@@ -37967,7 +37873,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="63">
         <v>45</v>
       </c>
@@ -37977,7 +37883,7 @@
       <c r="C51" s="79" t="s">
         <v>260</v>
       </c>
-      <c r="D51" s="85" t="str">
+      <c r="D51" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_124</v>
       </c>
@@ -37997,7 +37903,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 07/02/24 09:30</v>
       </c>
-      <c r="J51" s="82">
+      <c r="J51" s="80">
         <v>45328</v>
       </c>
       <c r="K51" s="70">
@@ -38030,7 +37936,7 @@
         <v>45329</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="63">
         <v>46</v>
       </c>
@@ -38040,7 +37946,7 @@
       <c r="C52" s="79" t="s">
         <v>261</v>
       </c>
-      <c r="D52" s="85" t="str">
+      <c r="D52" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_125</v>
       </c>
@@ -38060,7 +37966,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 07/02/24 14:30</v>
       </c>
-      <c r="J52" s="82">
+      <c r="J52" s="80">
         <v>45328</v>
       </c>
       <c r="K52" s="70">
@@ -38103,7 +38009,7 @@
       <c r="C53" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="85" t="str">
+      <c r="D53" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 14"-S3-5367-H - tie in 108</v>
       </c>
@@ -38123,7 +38029,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 29/02/24 15:30</v>
       </c>
-      <c r="J53" s="82">
+      <c r="J53" s="80">
         <v>45350</v>
       </c>
       <c r="K53" s="70">
@@ -38164,7 +38070,7 @@
       <c r="C54" s="79" t="s">
         <v>271</v>
       </c>
-      <c r="D54" s="85" t="str">
+      <c r="D54" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 14"-S3-14E-5404-H</v>
       </c>
@@ -38184,7 +38090,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 12/03/24 15:30</v>
       </c>
-      <c r="J54" s="82">
+      <c r="J54" s="80">
         <v>45362</v>
       </c>
       <c r="K54" s="70">
@@ -38225,7 +38131,7 @@
       <c r="C55" s="79" t="s">
         <v>272</v>
       </c>
-      <c r="D55" s="85" t="str">
+      <c r="D55" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 20"-S3-14E-5313-H 1º trecho</v>
       </c>
@@ -38245,7 +38151,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 27/11/23 09:30</v>
       </c>
-      <c r="J55" s="82">
+      <c r="J55" s="80">
         <v>45256</v>
       </c>
       <c r="K55" s="70">
@@ -38286,7 +38192,7 @@
       <c r="C56" s="79" t="s">
         <v>275</v>
       </c>
-      <c r="D56" s="85" t="str">
+      <c r="D56" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 24"-S3-14E-5312-H</v>
       </c>
@@ -38306,7 +38212,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 18/03/24 10:30</v>
       </c>
-      <c r="J56" s="82">
+      <c r="J56" s="80">
         <v>45368</v>
       </c>
       <c r="K56" s="70">
@@ -38347,7 +38253,7 @@
       <c r="C57" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="85" t="s">
+      <c r="D57" s="17" t="s">
         <v>2656</v>
       </c>
       <c r="E57" s="16" t="s">
@@ -38366,7 +38272,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 13/03/24 08:30</v>
       </c>
-      <c r="J57" s="82">
+      <c r="J57" s="80">
         <v>45363</v>
       </c>
       <c r="K57" s="70">
@@ -38407,7 +38313,7 @@
       <c r="C58" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="85" t="str">
+      <c r="D58" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 171</v>
       </c>
@@ -38427,7 +38333,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 18/03/24 11:30</v>
       </c>
-      <c r="J58" s="82">
+      <c r="J58" s="80">
         <v>45368</v>
       </c>
       <c r="K58" s="70">
@@ -38468,7 +38374,7 @@
       <c r="C59" s="79" t="s">
         <v>276</v>
       </c>
-      <c r="D59" s="85" t="str">
+      <c r="D59" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 140</v>
       </c>
@@ -38488,7 +38394,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 20/03/24 14:30</v>
       </c>
-      <c r="J59" s="82">
+      <c r="J59" s="80">
         <v>45370</v>
       </c>
       <c r="K59" s="70">
@@ -38529,7 +38435,7 @@
       <c r="C60" s="79" t="s">
         <v>277</v>
       </c>
-      <c r="D60" s="85" t="str">
+      <c r="D60" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 138</v>
       </c>
@@ -38549,7 +38455,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 25/03/24 08:30</v>
       </c>
-      <c r="J60" s="82">
+      <c r="J60" s="80">
         <v>45375</v>
       </c>
       <c r="K60" s="70">
@@ -38590,7 +38496,7 @@
       <c r="C61" s="79" t="s">
         <v>279</v>
       </c>
-      <c r="D61" s="85" t="str">
+      <c r="D61" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 132</v>
       </c>
@@ -38610,7 +38516,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 26/03/24 09:30</v>
       </c>
-      <c r="J61" s="82">
+      <c r="J61" s="80">
         <v>45376</v>
       </c>
       <c r="K61" s="70">
@@ -38651,7 +38557,7 @@
       <c r="C62" s="79" t="s">
         <v>282</v>
       </c>
-      <c r="D62" s="85" t="str">
+      <c r="D62" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 10"-S3-14E-5332-H</v>
       </c>
@@ -38671,7 +38577,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 13/03/24 13:30</v>
       </c>
-      <c r="J62" s="82">
+      <c r="J62" s="80">
         <v>45363</v>
       </c>
       <c r="K62" s="70">
@@ -38712,7 +38618,7 @@
       <c r="C63" s="79" t="s">
         <v>283</v>
       </c>
-      <c r="D63" s="85" t="str">
+      <c r="D63" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 10"-S3-14E-5334-H</v>
       </c>
@@ -38732,7 +38638,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 20/03/24 09:30</v>
       </c>
-      <c r="J63" s="82">
+      <c r="J63" s="80">
         <v>45370</v>
       </c>
       <c r="K63" s="70">
@@ -38773,7 +38679,7 @@
       <c r="C64" s="79" t="s">
         <v>284</v>
       </c>
-      <c r="D64" s="85" t="str">
+      <c r="D64" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 8"-S3-14E-5335-H</v>
       </c>
@@ -38793,7 +38699,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 26/03/24 14:30</v>
       </c>
-      <c r="J64" s="82">
+      <c r="J64" s="80">
         <v>45376</v>
       </c>
       <c r="K64" s="70">
@@ -38834,7 +38740,7 @@
       <c r="C65" s="79" t="s">
         <v>285</v>
       </c>
-      <c r="D65" s="85" t="str">
+      <c r="D65" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S3-14E-5374-H</v>
       </c>
@@ -38854,7 +38760,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 26/03/24 14:30</v>
       </c>
-      <c r="J65" s="82">
+      <c r="J65" s="80">
         <v>45376</v>
       </c>
       <c r="K65" s="70">
@@ -38895,7 +38801,7 @@
       <c r="C66" s="79" t="s">
         <v>295</v>
       </c>
-      <c r="D66" s="85" t="str">
+      <c r="D66" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_164</v>
       </c>
@@ -38915,7 +38821,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 20/03/24 10:30</v>
       </c>
-      <c r="J66" s="82">
+      <c r="J66" s="80">
         <v>45370</v>
       </c>
       <c r="K66" s="70">
@@ -38956,7 +38862,7 @@
       <c r="C67" s="79" t="s">
         <v>296</v>
       </c>
-      <c r="D67" s="85" t="str">
+      <c r="D67" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_172</v>
       </c>
@@ -38976,7 +38882,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 21/03/24 11:30</v>
       </c>
-      <c r="J67" s="82">
+      <c r="J67" s="80">
         <v>45371</v>
       </c>
       <c r="K67" s="70">
@@ -39017,7 +38923,7 @@
       <c r="C68" s="79" t="s">
         <v>297</v>
       </c>
-      <c r="D68" s="85" t="str">
+      <c r="D68" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_174</v>
       </c>
@@ -39037,7 +38943,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 22/03/24 13:30</v>
       </c>
-      <c r="J68" s="82">
+      <c r="J68" s="80">
         <v>45372</v>
       </c>
       <c r="K68" s="70">
@@ -39078,7 +38984,7 @@
       <c r="C69" s="79" t="s">
         <v>298</v>
       </c>
-      <c r="D69" s="85" t="str">
+      <c r="D69" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_175</v>
       </c>
@@ -39098,7 +39004,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 25/03/24 14:30</v>
       </c>
-      <c r="J69" s="82">
+      <c r="J69" s="80">
         <v>45375</v>
       </c>
       <c r="K69" s="70">
@@ -39139,7 +39045,7 @@
       <c r="C70" s="79" t="s">
         <v>299</v>
       </c>
-      <c r="D70" s="85" t="str">
+      <c r="D70" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_116</v>
       </c>
@@ -39159,7 +39065,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 26/03/24 15:30</v>
       </c>
-      <c r="J70" s="82">
+      <c r="J70" s="80">
         <v>45376</v>
       </c>
       <c r="K70" s="70">
@@ -39200,7 +39106,7 @@
       <c r="C71" s="79" t="s">
         <v>300</v>
       </c>
-      <c r="D71" s="85" t="str">
+      <c r="D71" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_117</v>
       </c>
@@ -39220,7 +39126,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 28/03/24 08:30</v>
       </c>
-      <c r="J71" s="82">
+      <c r="J71" s="80">
         <v>45378</v>
       </c>
       <c r="K71" s="70">
@@ -39261,7 +39167,7 @@
       <c r="C72" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="D72" s="85" t="str">
+      <c r="D72" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Vent de 6"-S3-TL-VENT-0001-H do desaerador</v>
       </c>
@@ -39281,7 +39187,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 15/03/24 08:30</v>
       </c>
-      <c r="J72" s="82">
+      <c r="J72" s="80">
         <v>45365</v>
       </c>
       <c r="K72" s="70">
@@ -39322,7 +39228,7 @@
       <c r="C73" s="79" t="s">
         <v>306</v>
       </c>
-      <c r="D73" s="85" t="str">
+      <c r="D73" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S3-14E-5302-H</v>
       </c>
@@ -39342,7 +39248,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 18/03/24 09:30</v>
       </c>
-      <c r="J73" s="82">
+      <c r="J73" s="80">
         <v>45368</v>
       </c>
       <c r="K73" s="70">
@@ -39383,7 +39289,7 @@
       <c r="C74" s="79" t="s">
         <v>307</v>
       </c>
-      <c r="D74" s="85" t="str">
+      <c r="D74" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S3-14E-5305-H</v>
       </c>
@@ -39403,7 +39309,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 20/03/24 11:30</v>
       </c>
-      <c r="J74" s="82">
+      <c r="J74" s="80">
         <v>45370</v>
       </c>
       <c r="K74" s="70">
@@ -39444,7 +39350,7 @@
       <c r="C75" s="79" t="s">
         <v>308</v>
       </c>
-      <c r="D75" s="85" t="str">
+      <c r="D75" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 12"-S3-14E-5306-H</v>
       </c>
@@ -39464,7 +39370,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 22/03/24 14:30</v>
       </c>
-      <c r="J75" s="82">
+      <c r="J75" s="80">
         <v>45372</v>
       </c>
       <c r="K75" s="70">
@@ -39505,7 +39411,7 @@
       <c r="C76" s="79" t="s">
         <v>309</v>
       </c>
-      <c r="D76" s="85" t="str">
+      <c r="D76" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 8"-S3-14E-5307-H</v>
       </c>
@@ -39525,7 +39431,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 01/04/24 10:30</v>
       </c>
-      <c r="J76" s="82">
+      <c r="J76" s="80">
         <v>45380</v>
       </c>
       <c r="K76" s="70">
@@ -39566,7 +39472,7 @@
       <c r="C77" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="D77" s="85" t="str">
+      <c r="D77" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_113</v>
       </c>
@@ -39586,7 +39492,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 26/03/24 09:30</v>
       </c>
-      <c r="J77" s="82">
+      <c r="J77" s="80">
         <v>45376</v>
       </c>
       <c r="K77" s="70">
@@ -39617,7 +39523,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="63">
         <v>72</v>
       </c>
@@ -39627,7 +39533,7 @@
       <c r="C78" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="85" t="str">
+      <c r="D78" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_114</v>
       </c>
@@ -39647,7 +39553,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 27/03/24 10:30</v>
       </c>
-      <c r="J78" s="82">
+      <c r="J78" s="80">
         <v>45377</v>
       </c>
       <c r="K78" s="70">
@@ -39690,7 +39596,7 @@
       <c r="C79" s="79" t="s">
         <v>2576</v>
       </c>
-      <c r="D79" s="86" t="str">
+      <c r="D79" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Plataforma do Mezanino</v>
       </c>
@@ -39710,7 +39616,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 01/04/24 15:30</v>
       </c>
-      <c r="J79" s="82">
+      <c r="J79" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
         <v>45363</v>
       </c>
@@ -39752,7 +39658,7 @@
       <c r="C80" s="79" t="s">
         <v>286</v>
       </c>
-      <c r="D80" s="86" t="str">
+      <c r="D80" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S3-14E-5375-H</v>
       </c>
@@ -39772,7 +39678,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 01/04/24 08:30</v>
       </c>
-      <c r="J80" s="82">
+      <c r="J80" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
         <v>45363</v>
       </c>
@@ -39814,7 +39720,7 @@
       <c r="C81" s="79" t="s">
         <v>301</v>
       </c>
-      <c r="D81" s="86" t="str">
+      <c r="D81" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_118</v>
       </c>
@@ -39834,7 +39740,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 01/04/24 09:30</v>
       </c>
-      <c r="J81" s="82">
+      <c r="J81" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
         <v>45363</v>
       </c>
@@ -39876,7 +39782,7 @@
       <c r="C82" s="79" t="s">
         <v>302</v>
       </c>
-      <c r="D82" s="86" t="str">
+      <c r="D82" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_119</v>
       </c>
@@ -39896,7 +39802,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 02/04/24 10:30</v>
       </c>
-      <c r="J82" s="82">
+      <c r="J82" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
         <v>45364</v>
       </c>
@@ -39938,7 +39844,7 @@
       <c r="C83" s="79" t="s">
         <v>303</v>
       </c>
-      <c r="D83" s="86" t="str">
+      <c r="D83" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_121</v>
       </c>
@@ -39958,7 +39864,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 03/04/24 11:30</v>
       </c>
-      <c r="J83" s="82">
+      <c r="J83" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
         <v>45365</v>
       </c>
@@ -40000,7 +39906,7 @@
       <c r="C84" s="79" t="s">
         <v>304</v>
       </c>
-      <c r="D84" s="86" t="str">
+      <c r="D84" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_122</v>
       </c>
@@ -40020,7 +39926,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 04/04/24 13:30</v>
       </c>
-      <c r="J84" s="82">
+      <c r="J84" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
         <v>45366</v>
       </c>
@@ -40062,7 +39968,7 @@
       <c r="C85" s="79" t="s">
         <v>424</v>
       </c>
-      <c r="D85" s="86" t="str">
+      <c r="D85" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Montagem da palataforma, escada e guarda corpo do tanque</v>
       </c>
@@ -40082,7 +39988,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 19/03/24 14:30</v>
       </c>
-      <c r="J85" s="82">
+      <c r="J85" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
         <v>45350</v>
       </c>
@@ -40124,7 +40030,7 @@
       <c r="C86" s="79" t="s">
         <v>599</v>
       </c>
-      <c r="D86" s="86" t="str">
+      <c r="D86" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Construção das bases civis das bombas</v>
       </c>
@@ -40144,7 +40050,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 01/04/24 16:25</v>
       </c>
-      <c r="J86" s="82">
+      <c r="J86" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
         <v>45363</v>
       </c>
@@ -40186,7 +40092,7 @@
       <c r="C87" s="79" t="s">
         <v>797</v>
       </c>
-      <c r="D87" s="86" t="str">
+      <c r="D87" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 8'' -S3-14E-5355/5356/5357-H</v>
       </c>
@@ -40206,7 +40112,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 05/03/24 09:30</v>
       </c>
-      <c r="J87" s="82">
+      <c r="J87" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
         <v>45336</v>
       </c>
@@ -40248,7 +40154,7 @@
       <c r="C88" s="79" t="s">
         <v>765</v>
       </c>
-      <c r="D88" s="86" t="str">
+      <c r="D88" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 10"-S1-14E-5385-H</v>
       </c>
@@ -40268,7 +40174,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 08/01/24 11:30</v>
       </c>
-      <c r="J88" s="82">
+      <c r="J88" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
         <v>45279</v>
       </c>
@@ -40310,7 +40216,7 @@
       <c r="C89" s="79" t="s">
         <v>993</v>
       </c>
-      <c r="D89" s="86" t="str">
+      <c r="D89" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE in 161</v>
       </c>
@@ -40330,7 +40236,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 22/04/24 16:18</v>
       </c>
-      <c r="J89" s="82">
+      <c r="J89" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
         <v>45384</v>
       </c>
@@ -40372,7 +40278,7 @@
       <c r="C90" s="79" t="s">
         <v>1011</v>
       </c>
-      <c r="D90" s="86" t="str">
+      <c r="D90" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 142</v>
       </c>
@@ -40392,7 +40298,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 18/04/24 14:18</v>
       </c>
-      <c r="J90" s="82">
+      <c r="J90" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
         <v>45380</v>
       </c>
@@ -40434,7 +40340,7 @@
       <c r="C91" s="79" t="s">
         <v>1017</v>
       </c>
-      <c r="D91" s="86" t="str">
+      <c r="D91" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 144</v>
       </c>
@@ -40454,7 +40360,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 19/04/24 15:18</v>
       </c>
-      <c r="J91" s="82">
+      <c r="J91" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
         <v>45381</v>
       </c>
@@ -40496,7 +40402,7 @@
       <c r="C92" s="79" t="s">
         <v>1029</v>
       </c>
-      <c r="D92" s="86" t="str">
+      <c r="D92" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_139</v>
       </c>
@@ -40516,7 +40422,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 01/04/24 13:30</v>
       </c>
-      <c r="J92" s="82">
+      <c r="J92" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
         <v>45363</v>
       </c>
@@ -40558,7 +40464,7 @@
       <c r="C93" s="79" t="s">
         <v>1171</v>
       </c>
-      <c r="D93" s="86" t="str">
+      <c r="D93" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Fornecimento de FT (Hydro)</v>
       </c>
@@ -40578,7 +40484,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 10/04/24 15:30</v>
       </c>
-      <c r="J93" s="82">
+      <c r="J93" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
         <v>45335</v>
       </c>
@@ -40610,7 +40516,7 @@
         <v>45355</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="72">
         <v>88</v>
       </c>
@@ -40620,7 +40526,7 @@
       <c r="C94" s="79" t="s">
         <v>1246</v>
       </c>
-      <c r="D94" s="86" t="str">
+      <c r="D94" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_115</v>
       </c>
@@ -40640,7 +40546,7 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 01/04/24 13:30</v>
       </c>
-      <c r="J94" s="82">
+      <c r="J94" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]</f>
         <v>45363</v>
       </c>
@@ -40684,7 +40590,7 @@
       <c r="C95" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="D95" s="86" t="str">
+      <c r="D95" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 108</v>
       </c>
@@ -40700,11 +40606,11 @@
       <c r="H95" s="74">
         <v>45349</v>
       </c>
-      <c r="I95" s="80" t="str">
+      <c r="I95" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 13/03/24 08:30</v>
       </c>
-      <c r="J95" s="82">
+      <c r="J95" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-7</f>
         <v>45357</v>
       </c>
@@ -40730,7 +40636,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R95" s="71"/>
-      <c r="S95" s="81">
+      <c r="S95" s="68">
         <v>45364</v>
       </c>
     </row>
@@ -40744,7 +40650,7 @@
       <c r="C96" s="79" t="s">
         <v>287</v>
       </c>
-      <c r="D96" s="86" t="str">
+      <c r="D96" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S3-14E-5376-H</v>
       </c>
@@ -40760,11 +40666,11 @@
       <c r="H96" s="74">
         <v>45349</v>
       </c>
-      <c r="I96" s="80" t="str">
+      <c r="I96" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 03/04/24 10:30</v>
       </c>
-      <c r="J96" s="82">
+      <c r="J96" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-7</f>
         <v>45378</v>
       </c>
@@ -40790,7 +40696,7 @@
         <v>No Prazo</v>
       </c>
       <c r="R96" s="71"/>
-      <c r="S96" s="81">
+      <c r="S96" s="68">
         <v>45385</v>
       </c>
     </row>
@@ -40804,7 +40710,7 @@
       <c r="C97" s="79" t="s">
         <v>288</v>
       </c>
-      <c r="D97" s="86" t="str">
+      <c r="D97" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S3-14E-5377-H</v>
       </c>
@@ -40820,11 +40726,11 @@
       <c r="H97" s="74">
         <v>45363</v>
       </c>
-      <c r="I97" s="80" t="str">
+      <c r="I97" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 05/04/24 13:30</v>
       </c>
-      <c r="J97" s="82">
+      <c r="J97" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-7</f>
         <v>45380</v>
       </c>
@@ -40850,7 +40756,7 @@
         <v>No Prazo</v>
       </c>
       <c r="R97" s="71"/>
-      <c r="S97" s="81">
+      <c r="S97" s="68">
         <v>45387</v>
       </c>
     </row>
@@ -40864,7 +40770,7 @@
       <c r="C98" s="79" t="s">
         <v>289</v>
       </c>
-      <c r="D98" s="86" t="str">
+      <c r="D98" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S3-14E-5378-H</v>
       </c>
@@ -40880,11 +40786,11 @@
       <c r="H98" s="74">
         <v>45370</v>
       </c>
-      <c r="I98" s="80" t="str">
+      <c r="I98" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 09/04/24 15:30</v>
       </c>
-      <c r="J98" s="82">
+      <c r="J98" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-7</f>
         <v>45384</v>
       </c>
@@ -40910,7 +40816,7 @@
         <v>No Prazo</v>
       </c>
       <c r="R98" s="71"/>
-      <c r="S98" s="81">
+      <c r="S98" s="68">
         <v>45391</v>
       </c>
     </row>
@@ -40924,7 +40830,7 @@
       <c r="C99" s="79" t="s">
         <v>290</v>
       </c>
-      <c r="D99" s="86" t="str">
+      <c r="D99" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S3-14E-5379-H</v>
       </c>
@@ -40940,11 +40846,11 @@
       <c r="H99" s="74">
         <v>45370</v>
       </c>
-      <c r="I99" s="80" t="str">
+      <c r="I99" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 12/04/24 09:30</v>
       </c>
-      <c r="J99" s="82">
+      <c r="J99" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-7</f>
         <v>45387</v>
       </c>
@@ -40970,7 +40876,7 @@
         <v>No Prazo</v>
       </c>
       <c r="R99" s="71"/>
-      <c r="S99" s="81">
+      <c r="S99" s="68">
         <v>45394</v>
       </c>
     </row>
@@ -40984,7 +40890,7 @@
       <c r="C100" s="79" t="s">
         <v>438</v>
       </c>
-      <c r="D100" s="86" t="str">
+      <c r="D100" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 3"-S1-14E-5346-H</v>
       </c>
@@ -41000,11 +40906,11 @@
       <c r="H100" s="74">
         <v>45370</v>
       </c>
-      <c r="I100" s="80" t="str">
+      <c r="I100" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 23/01/24 10:30</v>
       </c>
-      <c r="J100" s="82">
+      <c r="J100" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-7</f>
         <v>45307</v>
       </c>
@@ -41030,7 +40936,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R100" s="71"/>
-      <c r="S100" s="81">
+      <c r="S100" s="68">
         <v>45314</v>
       </c>
     </row>
@@ -41044,7 +40950,7 @@
       <c r="C101" s="79" t="s">
         <v>466</v>
       </c>
-      <c r="D101" s="86" t="str">
+      <c r="D101" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S1-14E-5345-H</v>
       </c>
@@ -41060,11 +40966,11 @@
       <c r="H101" s="74">
         <v>45342</v>
       </c>
-      <c r="I101" s="80" t="str">
+      <c r="I101" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 29/02/24 09:30</v>
       </c>
-      <c r="J101" s="82">
+      <c r="J101" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-7</f>
         <v>45344</v>
       </c>
@@ -41090,7 +40996,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R101" s="71"/>
-      <c r="S101" s="81">
+      <c r="S101" s="68">
         <v>45351</v>
       </c>
     </row>
@@ -41104,7 +41010,7 @@
       <c r="C102" s="79" t="s">
         <v>733</v>
       </c>
-      <c r="D102" s="86" t="str">
+      <c r="D102" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S3-14E-5328-H</v>
       </c>
@@ -41120,11 +41026,11 @@
       <c r="H102" s="74">
         <v>45269</v>
       </c>
-      <c r="I102" s="80" t="str">
+      <c r="I102" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 12/12/23 13:30</v>
       </c>
-      <c r="J102" s="82">
+      <c r="J102" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-7</f>
         <v>45265</v>
       </c>
@@ -41150,7 +41056,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R102" s="71"/>
-      <c r="S102" s="81">
+      <c r="S102" s="68">
         <v>45272</v>
       </c>
     </row>
@@ -41164,7 +41070,7 @@
       <c r="C103" s="79" t="s">
         <v>956</v>
       </c>
-      <c r="D103" s="86" t="str">
+      <c r="D103" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 14"-S3-14E-5314-H</v>
       </c>
@@ -41180,11 +41086,11 @@
       <c r="H103" s="74">
         <v>45295</v>
       </c>
-      <c r="I103" s="80" t="str">
+      <c r="I103" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Dom 24/09/23 09:30</v>
       </c>
-      <c r="J103" s="82">
+      <c r="J103" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-7</f>
         <v>45186</v>
       </c>
@@ -41210,7 +41116,7 @@
         <v>Atrasada</v>
       </c>
       <c r="R103" s="71"/>
-      <c r="S103" s="81">
+      <c r="S103" s="68">
         <v>45193</v>
       </c>
     </row>
@@ -41224,7 +41130,7 @@
       <c r="C104" s="79" t="s">
         <v>1227</v>
       </c>
-      <c r="D104" s="86" t="str">
+      <c r="D104" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE IN_110/111 Desaerador_E-14A-02B</v>
       </c>
@@ -41240,11 +41146,11 @@
       <c r="H104" s="74">
         <v>45370</v>
       </c>
-      <c r="I104" s="80" t="str">
+      <c r="I104" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 12/04/24 13:30</v>
       </c>
-      <c r="J104" s="82">
+      <c r="J104" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-7</f>
         <v>45387</v>
       </c>
@@ -41270,7 +41176,7 @@
         <v>No Prazo</v>
       </c>
       <c r="R104" s="71"/>
-      <c r="S104" s="81">
+      <c r="S104" s="68">
         <v>45394</v>
       </c>
     </row>
@@ -41284,7 +41190,7 @@
       <c r="C105" s="79" t="s">
         <v>1233</v>
       </c>
-      <c r="D105" s="86" t="str">
+      <c r="D105" s="83" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE IN_112/114 Desaerador_E-14A-02A</v>
       </c>
@@ -41300,11 +41206,11 @@
       <c r="H105" s="74">
         <v>45370</v>
       </c>
-      <c r="I105" s="80" t="str">
+      <c r="I105" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 10/04/24 10:30</v>
       </c>
-      <c r="J105" s="82">
+      <c r="J105" s="80">
         <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-7</f>
         <v>45385</v>
       </c>
@@ -41330,33 +41236,33 @@
         <v>No Prazo</v>
       </c>
       <c r="R105" s="71"/>
-      <c r="S105" s="81">
+      <c r="S105" s="68">
         <v>45392</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C7:C32">
-    <cfRule type="duplicateValues" dxfId="20" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32 C7:C30">
-    <cfRule type="duplicateValues" dxfId="19" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D105">
+    <cfRule type="duplicateValues" dxfId="4" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7:Q105">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Concluída"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"À definir"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"Atrasada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"No Prazo"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D105">
-    <cfRule type="duplicateValues" dxfId="14" priority="133"/>
   </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Atividade Impactada" prompt="Fórmula, não há necessidade de preenchimento" sqref="D7:D105" xr:uid="{E680AA44-5F85-4EFF-803C-0597875D8EB8}"/>
@@ -41920,6 +41826,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acfac000-05a5-4485-98d1-25ae80f2ac3c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C24875C6C3D6EA45AFCB982D3A0B37CD" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab8229b382e62ca7f68ac387406343b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e7640078-2807-4792-8712-763d4cb58983" xmlns:ns3="acfac000-05a5-4485-98d1-25ae80f2ac3c" xmlns:ns4="601ddd3e-e7e7-4b57-95a9-114b343b906a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f0b2ba43dd082ea35de1bb7fc9953a3" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e7640078-2807-4792-8712-763d4cb58983"/>
@@ -42143,28 +42070,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acfac000-05a5-4485-98d1-25ae80f2ac3c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4F5EE1-56D7-4FFB-B992-DE488B5495B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
+    <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
+    <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43EA2ECA-4B5E-4DC2-9087-8210D1FB9903}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42182,24 +42108,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4F5EE1-56D7-4FFB-B992-DE488B5495B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
-    <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
-    <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/programacao/15 -  Prontidão Médio Prazo.xlsx
+++ b/programacao/15 -  Prontidão Médio Prazo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_4600011662_Utilidades/02.PLANEJAMENTO/01 - Base de dados BI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2543" documentId="13_ncr:1_{CF35CD03-2AB7-44C8-89C3-A37B38273E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41F9B327-06F9-4CA5-970E-87982DFE3343}"/>
+  <xr:revisionPtr revIDLastSave="2843" documentId="13_ncr:1_{CF35CD03-2AB7-44C8-89C3-A37B38273E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87399EC9-E4A8-461A-AF79-C8101EF72E0D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{32A6E8DD-ACB4-40F1-8D5E-8E9CE1A3868D}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cronograma'!$B$1:$F$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Prontidão Médio Prazo'!$A$1:$R$102</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Prontidão Médio Prazo'!$A$1:$R$140</definedName>
     <definedName name="dfgvxcbfxcc" hidden="1">{"Avaliação de Cargos (Class Mens Todas)",#N/A,FALSE,"BANCO DE DADOS MENSALISTAS";"Avaliação de Cargos (Class Mens Todas)",#N/A,FALSE,"BANCO DE DADOS MENSALISTAS"}</definedName>
     <definedName name="ECC" hidden="1">{"Avaliação de Cargos (Class Mens Todas)",#N/A,FALSE,"BANCO DE DADOS MENSALISTAS";"Avaliação de Cargos (Class Mens Todas)",#N/A,FALSE,"BANCO DE DADOS MENSALISTAS"}</definedName>
     <definedName name="fdxcgfdgdxc" hidden="1">{#N/A,#N/A,FALSE,"Costo Vendido";#N/A,#N/A,FALSE,"Precio";#N/A,#N/A,FALSE,"Consumo";#N/A,#N/A,FALSE,"GDV";#N/A,#N/A,FALSE,"expestru";#N/A,#N/A,FALSE,"Graficos";#N/A,#N/A,FALSE,"Resumen "}</definedName>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6816" uniqueCount="2667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7217" uniqueCount="2731">
   <si>
     <t>Status</t>
   </si>
@@ -8165,6 +8165,198 @@
   </si>
   <si>
     <t>Aguardando material de montagem para conclusão</t>
+  </si>
+  <si>
+    <t>Concluída</t>
+  </si>
+  <si>
+    <t>Linha 6"-S2-14E-5350-H</t>
+  </si>
+  <si>
+    <t>Seg 15/04/24</t>
+  </si>
+  <si>
+    <t>Sex 19/04/24</t>
+  </si>
+  <si>
+    <t>Linha 4"-S2-14E-5342-H</t>
+  </si>
+  <si>
+    <t>Qui 25/04/24</t>
+  </si>
+  <si>
+    <t>Linha 3''-S2-14E-5354-H</t>
+  </si>
+  <si>
+    <t>Ter 30/04/24</t>
+  </si>
+  <si>
+    <t>TIE-IN_126</t>
+  </si>
+  <si>
+    <t>TIE-IN_136</t>
+  </si>
+  <si>
+    <t>TIE-IN_127</t>
+  </si>
+  <si>
+    <t>TIE-IN_131</t>
+  </si>
+  <si>
+    <t>TIE-IN_137</t>
+  </si>
+  <si>
+    <t>Qui 18/04/24</t>
+  </si>
+  <si>
+    <t>Seg 22/04/24</t>
+  </si>
+  <si>
+    <t>Ter 23/04/24</t>
+  </si>
+  <si>
+    <t>Sex 26/04/24</t>
+  </si>
+  <si>
+    <t>Linha 16-S3-14E-5393-H</t>
+  </si>
+  <si>
+    <t>Linha 6"-S3-14E-5392-H</t>
+  </si>
+  <si>
+    <t>Linha 8"-S3-14E-5315-H</t>
+  </si>
+  <si>
+    <t>Linha 6"-S3-14E-5317-H</t>
+  </si>
+  <si>
+    <t>Linha 3"-S3-14E-5316-H</t>
+  </si>
+  <si>
+    <t>Linha 8"-S3-14E-5318-H</t>
+  </si>
+  <si>
+    <t>Ter 16/04/24</t>
+  </si>
+  <si>
+    <t>Seg 29/04/24</t>
+  </si>
+  <si>
+    <t>3"-S1-14E-5346-H</t>
+  </si>
+  <si>
+    <t>Seg 08/04/24</t>
+  </si>
+  <si>
+    <t>Linha 3"-S1-14E-5347-H</t>
+  </si>
+  <si>
+    <t>Fornecimento de carretéis (Hydro)</t>
+  </si>
+  <si>
+    <t>Linha 3"-S3-14E-5371-H</t>
+  </si>
+  <si>
+    <t>Sistema de controle, retorno e transferencia de condensado</t>
+  </si>
+  <si>
+    <t>Seg 20/05/24</t>
+  </si>
+  <si>
+    <t>Linha 8"-S3-14E-5335-H</t>
+  </si>
+  <si>
+    <t>Sex 07/06/24</t>
+  </si>
+  <si>
+    <t>Linha 6"-S3-14E-5377-H</t>
+  </si>
+  <si>
+    <t>Seg 06/05/24</t>
+  </si>
+  <si>
+    <t>Linha 6"-S3-14E-5378-H</t>
+  </si>
+  <si>
+    <t>Linha 6"-S3-14E-5379-H</t>
+  </si>
+  <si>
+    <t>Linha 8"-S3-14E-5395-H</t>
+  </si>
+  <si>
+    <t>Linha 10"-S3-14E-5396-H</t>
+  </si>
+  <si>
+    <t>Linha 12"-S3-14E-5381-H</t>
+  </si>
+  <si>
+    <t>Qua 08/05/24</t>
+  </si>
+  <si>
+    <t>Qui 09/05/24</t>
+  </si>
+  <si>
+    <t>Seg 13/05/24</t>
+  </si>
+  <si>
+    <t>Qua 15/05/24</t>
+  </si>
+  <si>
+    <t>Ter 04/06/24</t>
+  </si>
+  <si>
+    <t>Linha 14"-S3-14E-5404-H</t>
+  </si>
+  <si>
+    <t>Seg 27/05/24</t>
+  </si>
+  <si>
+    <t>Tie in 109</t>
+  </si>
+  <si>
+    <t>Tie in 108</t>
+  </si>
+  <si>
+    <t>TIE in 161</t>
+  </si>
+  <si>
+    <t>Tie in 171</t>
+  </si>
+  <si>
+    <t>Tie in 140</t>
+  </si>
+  <si>
+    <t>Qua 24/04/24</t>
+  </si>
+  <si>
+    <t>Linha 6"-S3-14E-5302-H</t>
+  </si>
+  <si>
+    <t>Linha 6"-S3-14E-5304-H</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sistema de desaeração e água de alimentação das Caldeiras</t>
+  </si>
+  <si>
+    <t>Seg 10/06/24</t>
+  </si>
+  <si>
+    <t>Linha 8"-S3-14E-5307-H</t>
+  </si>
+  <si>
+    <t>Linha 6"-S3-14E-5341-H</t>
+  </si>
+  <si>
+    <t>Linha 16''-S3-14E-5393-H</t>
+  </si>
+  <si>
+    <t>Qua 26/06/24</t>
+  </si>
+  <si>
+    <t>Ter 02/07/24</t>
+  </si>
+  <si>
+    <t>Sex 31/05/24</t>
   </si>
 </sst>
 </file>
@@ -8175,7 +8367,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8356,6 +8548,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -8669,7 +8867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8899,26 +9097,17 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -8933,16 +9122,6 @@
     <cellStyle name="Vírgula 6" xfId="5" xr:uid="{CB1685CC-0710-4DF6-A7AD-58305EA87DC0}"/>
   </cellStyles>
   <dxfs count="35">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -8977,6 +9156,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10082,8 +10271,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}" name="Prontidao_MedioPrazo" displayName="Prontidao_MedioPrazo" ref="A6:S102" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
-  <autoFilter ref="A6:S102" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}" name="Prontidao_MedioPrazo" displayName="Prontidao_MedioPrazo" ref="A6:S140" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
+  <autoFilter ref="A6:S140" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}">
     <filterColumn colId="16">
       <filters>
         <filter val="Atrasada"/>
@@ -10464,9 +10653,9 @@
   <dimension ref="A1:G1167"/>
   <sheetViews>
     <sheetView zoomScale="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1137" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E81" sqref="E81"/>
-      <selection pane="bottomLeft" activeCell="B1159" sqref="B1159"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -12414,7 +12603,7 @@
       </c>
       <c r="G88" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -12436,7 +12625,7 @@
       </c>
       <c r="G89" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -12458,7 +12647,7 @@
       </c>
       <c r="G90" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -12568,7 +12757,7 @@
       </c>
       <c r="G95" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -12590,7 +12779,7 @@
       </c>
       <c r="G96" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -12656,7 +12845,7 @@
       </c>
       <c r="G99" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -12678,7 +12867,7 @@
       </c>
       <c r="G100" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
@@ -12700,7 +12889,7 @@
       </c>
       <c r="G101" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -14482,7 +14671,7 @@
       </c>
       <c r="G182" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
@@ -14504,7 +14693,7 @@
       </c>
       <c r="G183" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
@@ -14526,7 +14715,7 @@
       </c>
       <c r="G184" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
@@ -14548,7 +14737,7 @@
       </c>
       <c r="G185" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
@@ -14570,7 +14759,7 @@
       </c>
       <c r="G186" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
@@ -14592,7 +14781,7 @@
       </c>
       <c r="G187" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
@@ -17488,7 +17677,7 @@
       </c>
       <c r="G324" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.35">
@@ -17614,7 +17803,7 @@
       </c>
       <c r="G330" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="2:7" x14ac:dyDescent="0.35">
@@ -19021,7 +19210,7 @@
       </c>
       <c r="G397" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="2:7" x14ac:dyDescent="0.35">
@@ -24607,7 +24796,7 @@
       </c>
       <c r="G663" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="2:7" x14ac:dyDescent="0.35">
@@ -24964,7 +25153,7 @@
       </c>
       <c r="G680" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="2:7" x14ac:dyDescent="0.35">
@@ -25657,7 +25846,7 @@
       </c>
       <c r="G713" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="2:7" x14ac:dyDescent="0.35">
@@ -25762,7 +25951,7 @@
       </c>
       <c r="G718" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="2:7" x14ac:dyDescent="0.35">
@@ -25867,7 +26056,7 @@
       </c>
       <c r="G723" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="2:7" x14ac:dyDescent="0.35">
@@ -25972,7 +26161,7 @@
       </c>
       <c r="G728" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="2:7" x14ac:dyDescent="0.35">
@@ -26077,7 +26266,7 @@
       </c>
       <c r="G733" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="2:7" x14ac:dyDescent="0.35">
@@ -26182,7 +26371,7 @@
       </c>
       <c r="G738" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="2:7" x14ac:dyDescent="0.35">
@@ -28744,7 +28933,7 @@
       </c>
       <c r="G860" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="2:7" x14ac:dyDescent="0.35">
@@ -29038,7 +29227,7 @@
       </c>
       <c r="G874" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="2:7" x14ac:dyDescent="0.35">
@@ -29185,7 +29374,7 @@
       </c>
       <c r="G881" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="2:7" x14ac:dyDescent="0.35">
@@ -29311,7 +29500,7 @@
       </c>
       <c r="G887" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="2:7" x14ac:dyDescent="0.35">
@@ -29416,7 +29605,7 @@
       </c>
       <c r="G892" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="2:7" x14ac:dyDescent="0.35">
@@ -29563,7 +29752,7 @@
       </c>
       <c r="G899" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="2:7" x14ac:dyDescent="0.35">
@@ -31768,7 +31957,7 @@
       </c>
       <c r="G1004" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005" spans="2:7" x14ac:dyDescent="0.35">
@@ -31894,7 +32083,7 @@
       </c>
       <c r="G1010" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011" spans="2:7" x14ac:dyDescent="0.35">
@@ -32251,7 +32440,7 @@
       </c>
       <c r="G1027" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028" spans="2:7" x14ac:dyDescent="0.35">
@@ -32377,7 +32566,7 @@
       </c>
       <c r="G1033" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="2:7" x14ac:dyDescent="0.35">
@@ -32629,7 +32818,7 @@
       </c>
       <c r="G1045" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046" spans="2:7" x14ac:dyDescent="0.35">
@@ -32734,7 +32923,7 @@
       </c>
       <c r="G1050" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="2:7" x14ac:dyDescent="0.35">
@@ -35003,10 +35192,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB102"/>
+  <dimension ref="A1:AB140"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScale="54" zoomScaleNormal="37" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A131" zoomScale="54" zoomScaleNormal="37" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -36248,7 +36437,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R23" s="82" t="s">
+      <c r="R23" s="43" t="s">
         <v>2643</v>
       </c>
       <c r="S23" s="68">
@@ -36309,7 +36498,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R24" s="83" t="s">
+      <c r="R24" s="64" t="s">
         <v>2640</v>
       </c>
       <c r="S24" s="68">
@@ -37110,7 +37299,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R37" s="84" t="s">
+      <c r="R37" s="82" t="s">
         <v>2652</v>
       </c>
       <c r="S37" s="68">
@@ -37291,7 +37480,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R40" s="83" t="s">
+      <c r="R40" s="64" t="s">
         <v>2657</v>
       </c>
       <c r="S40" s="68">
@@ -37414,7 +37603,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Concluída</v>
       </c>
-      <c r="R42" s="83"/>
+      <c r="R42" s="64"/>
       <c r="S42" s="68">
         <v>45609</v>
       </c>
@@ -37656,7 +37845,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>No Prazo</v>
       </c>
-      <c r="R46" s="83" t="s">
+      <c r="R46" s="64" t="s">
         <v>2629</v>
       </c>
       <c r="S46" s="68">
@@ -37778,7 +37967,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R48" s="83" t="s">
+      <c r="R48" s="64" t="s">
         <v>2657</v>
       </c>
       <c r="S48" s="68">
@@ -38087,7 +38276,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R53" s="85" t="s">
+      <c r="R53" s="83" t="s">
         <v>2632</v>
       </c>
       <c r="S53" s="68">
@@ -38757,7 +38946,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R64" s="86" t="s">
+      <c r="R64" s="71" t="s">
         <v>2631</v>
       </c>
       <c r="S64" s="68">
@@ -38818,7 +39007,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R65" s="86" t="s">
+      <c r="R65" s="71" t="s">
         <v>2631</v>
       </c>
       <c r="S65" s="68">
@@ -38879,7 +39068,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R66" s="86" t="s">
+      <c r="R66" s="71" t="s">
         <v>2631</v>
       </c>
       <c r="S66" s="68">
@@ -39062,7 +39251,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R69" s="83" t="s">
+      <c r="R69" s="64" t="s">
         <v>2632</v>
       </c>
       <c r="S69" s="68">
@@ -39184,7 +39373,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R71" s="83" t="s">
+      <c r="R71" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S71" s="68">
@@ -39245,7 +39434,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R72" s="83" t="s">
+      <c r="R72" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S72" s="68">
@@ -39306,14 +39495,14 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R73" s="83" t="s">
+      <c r="R73" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S73" s="68">
         <v>45383</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="63">
         <v>71</v>
       </c>
@@ -39363,11 +39552,10 @@
         <v>45356</v>
       </c>
       <c r="P74" s="59"/>
-      <c r="Q74" s="69" t="str">
-        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>Atrasada</v>
-      </c>
-      <c r="R74" s="83" t="s">
+      <c r="Q74" s="69" t="s">
+        <v>2667</v>
+      </c>
+      <c r="R74" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S74" s="68">
@@ -39492,7 +39680,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R76" s="86" t="s">
+      <c r="R76" s="71" t="s">
         <v>2635</v>
       </c>
       <c r="S76" s="68">
@@ -39554,7 +39742,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R77" s="83" t="s">
+      <c r="R77" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S77" s="68">
@@ -39616,7 +39804,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R78" s="83" t="s">
+      <c r="R78" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S78" s="68">
@@ -39678,7 +39866,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R79" s="83" t="s">
+      <c r="R79" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S79" s="68">
@@ -39740,7 +39928,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R80" s="83" t="s">
+      <c r="R80" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S80" s="68">
@@ -39802,7 +39990,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R81" s="83" t="s">
+      <c r="R81" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S81" s="68">
@@ -39864,7 +40052,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R82" s="86" t="s">
+      <c r="R82" s="71" t="s">
         <v>2635</v>
       </c>
       <c r="S82" s="68">
@@ -39926,7 +40114,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>No Prazo</v>
       </c>
-      <c r="R83" s="83" t="s">
+      <c r="R83" s="64" t="s">
         <v>2664</v>
       </c>
       <c r="S83" s="68">
@@ -39937,7 +40125,7 @@
       <c r="A84" s="72">
         <v>81</v>
       </c>
-      <c r="B84" s="87" t="s">
+      <c r="B84" s="73" t="s">
         <v>2594</v>
       </c>
       <c r="C84" s="77" t="s">
@@ -39988,7 +40176,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R84" s="83" t="s">
+      <c r="R84" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S84" s="68">
@@ -40050,7 +40238,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R85" s="83" t="s">
+      <c r="R85" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S85" s="68">
@@ -40067,7 +40255,7 @@
       <c r="C86" s="77" t="s">
         <v>993</v>
       </c>
-      <c r="D86" s="88" t="str">
+      <c r="D86" s="81" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE in 161</v>
       </c>
@@ -40110,16 +40298,16 @@
       <c r="P86" s="59"/>
       <c r="Q86" s="69" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
-      </c>
-      <c r="R86" s="83" t="s">
+        <v>Atrasada</v>
+      </c>
+      <c r="R86" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S86" s="68">
         <v>45404</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="72">
         <v>84</v>
       </c>
@@ -40129,7 +40317,7 @@
       <c r="C87" s="77" t="s">
         <v>1011</v>
       </c>
-      <c r="D87" s="88" t="str">
+      <c r="D87" s="81" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 142</v>
       </c>
@@ -40170,18 +40358,17 @@
         <v>45380</v>
       </c>
       <c r="P87" s="59"/>
-      <c r="Q87" s="69" t="str">
-        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
-      </c>
-      <c r="R87" s="83" t="s">
+      <c r="Q87" s="69" t="s">
+        <v>2667</v>
+      </c>
+      <c r="R87" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S87" s="68">
         <v>45400</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="72">
         <v>85</v>
       </c>
@@ -40191,7 +40378,7 @@
       <c r="C88" s="77" t="s">
         <v>1017</v>
       </c>
-      <c r="D88" s="88" t="str">
+      <c r="D88" s="81" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 144</v>
       </c>
@@ -40232,11 +40419,10 @@
         <v>45381</v>
       </c>
       <c r="P88" s="59"/>
-      <c r="Q88" s="69" t="str">
-        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
-      </c>
-      <c r="R88" s="83" t="s">
+      <c r="Q88" s="69" t="s">
+        <v>2667</v>
+      </c>
+      <c r="R88" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S88" s="68">
@@ -40253,7 +40439,7 @@
       <c r="C89" s="77" t="s">
         <v>1029</v>
       </c>
-      <c r="D89" s="88" t="str">
+      <c r="D89" s="81" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_139</v>
       </c>
@@ -40298,7 +40484,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R89" s="83" t="s">
+      <c r="R89" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S89" s="68">
@@ -40315,7 +40501,7 @@
       <c r="C90" s="77" t="s">
         <v>1171</v>
       </c>
-      <c r="D90" s="88" t="str">
+      <c r="D90" s="81" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Fornecimento de FT (Hydro)</v>
       </c>
@@ -40360,7 +40546,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R90" s="83" t="s">
+      <c r="R90" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S90" s="68">
@@ -40441,7 +40627,7 @@
       <c r="C92" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="D92" s="88" t="str">
+      <c r="D92" s="81" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 108</v>
       </c>
@@ -40486,7 +40672,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R92" s="83" t="s">
+      <c r="R92" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S92" s="68">
@@ -40503,7 +40689,7 @@
       <c r="C93" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="D93" s="88" t="str">
+      <c r="D93" s="81" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S3-14E-5376-H</v>
       </c>
@@ -40548,7 +40734,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R93" s="83" t="s">
+      <c r="R93" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S93" s="68">
@@ -40565,7 +40751,7 @@
       <c r="C94" s="77" t="s">
         <v>288</v>
       </c>
-      <c r="D94" s="88" t="str">
+      <c r="D94" s="81" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S3-14E-5377-H</v>
       </c>
@@ -40608,9 +40794,9 @@
       <c r="P94" s="59"/>
       <c r="Q94" s="69" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
-      </c>
-      <c r="R94" s="83" t="s">
+        <v>Atrasada</v>
+      </c>
+      <c r="R94" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S94" s="68">
@@ -40627,7 +40813,7 @@
       <c r="C95" s="77" t="s">
         <v>289</v>
       </c>
-      <c r="D95" s="88" t="str">
+      <c r="D95" s="81" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S3-14E-5378-H</v>
       </c>
@@ -40670,9 +40856,9 @@
       <c r="P95" s="59"/>
       <c r="Q95" s="69" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
-      </c>
-      <c r="R95" s="83" t="s">
+        <v>Atrasada</v>
+      </c>
+      <c r="R95" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S95" s="68">
@@ -40689,7 +40875,7 @@
       <c r="C96" s="77" t="s">
         <v>290</v>
       </c>
-      <c r="D96" s="88" t="str">
+      <c r="D96" s="81" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S3-14E-5379-H</v>
       </c>
@@ -40732,9 +40918,9 @@
       <c r="P96" s="59"/>
       <c r="Q96" s="69" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
-      </c>
-      <c r="R96" s="83" t="s">
+        <v>Atrasada</v>
+      </c>
+      <c r="R96" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S96" s="68">
@@ -40751,7 +40937,7 @@
       <c r="C97" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="D97" s="88" t="str">
+      <c r="D97" s="81" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 3"-S1-14E-5346-H</v>
       </c>
@@ -40796,7 +40982,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R97" s="83" t="s">
+      <c r="R97" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S97" s="68">
@@ -40813,7 +40999,7 @@
       <c r="C98" s="77" t="s">
         <v>466</v>
       </c>
-      <c r="D98" s="88" t="str">
+      <c r="D98" s="81" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S1-14E-5345-H</v>
       </c>
@@ -40858,7 +41044,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R98" s="83" t="s">
+      <c r="R98" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S98" s="68">
@@ -40875,7 +41061,7 @@
       <c r="C99" s="77" t="s">
         <v>733</v>
       </c>
-      <c r="D99" s="88" t="str">
+      <c r="D99" s="81" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 6"-S3-14E-5328-H</v>
       </c>
@@ -40920,7 +41106,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R99" s="83" t="s">
+      <c r="R99" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S99" s="68">
@@ -40937,7 +41123,7 @@
       <c r="C100" s="77" t="s">
         <v>956</v>
       </c>
-      <c r="D100" s="88" t="str">
+      <c r="D100" s="81" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 14"-S3-14E-5314-H</v>
       </c>
@@ -40982,14 +41168,14 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>Atrasada</v>
       </c>
-      <c r="R100" s="83" t="s">
+      <c r="R100" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S100" s="68">
         <v>45193</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="72">
         <v>98</v>
       </c>
@@ -40999,7 +41185,7 @@
       <c r="C101" s="77" t="s">
         <v>1227</v>
       </c>
-      <c r="D101" s="88" t="str">
+      <c r="D101" s="81" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE IN_110/111 Desaerador_E-14A-02B</v>
       </c>
@@ -41039,12 +41225,14 @@
       <c r="O101" s="62">
         <v>45387</v>
       </c>
-      <c r="P101" s="59"/>
+      <c r="P101" s="59">
+        <v>45387</v>
+      </c>
       <c r="Q101" s="69" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
-      </c>
-      <c r="R101" s="83" t="s">
+        <v>Concluída</v>
+      </c>
+      <c r="R101" s="64" t="s">
         <v>2642</v>
       </c>
       <c r="S101" s="68">
@@ -41056,14 +41244,13 @@
         <v>99</v>
       </c>
       <c r="B102" s="73" t="s">
-        <v>2201</v>
+        <v>126</v>
       </c>
       <c r="C102" s="77" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D102" s="88" t="str">
-        <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
-        <v>TIE IN_112/114 Desaerador_E-14A-02A</v>
+        <v>34</v>
+      </c>
+      <c r="D102" s="81" t="s">
+        <v>2668</v>
       </c>
       <c r="E102" s="16" t="s">
         <v>124</v>
@@ -41075,19 +41262,16 @@
         <v>2623</v>
       </c>
       <c r="H102" s="74">
-        <v>45370</v>
-      </c>
-      <c r="I102" s="19" t="str">
-        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
-        <v>Qua 10/04/24 10:30</v>
-      </c>
-      <c r="J102" s="78">
-        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-7</f>
-        <v>45385</v>
+        <v>45390</v>
+      </c>
+      <c r="I102" s="19" t="s">
+        <v>2669</v>
+      </c>
+      <c r="J102" s="78" t="s">
+        <v>2670</v>
       </c>
       <c r="K102" s="70">
-        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L102" s="60" t="s">
         <v>2637</v>
@@ -41098,57 +41282,2199 @@
       <c r="N102" s="61" t="s">
         <v>2193</v>
       </c>
-      <c r="O102" s="62">
-        <v>45385</v>
+      <c r="O102" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Sex 19/04/24</v>
       </c>
       <c r="P102" s="59"/>
       <c r="Q102" s="69" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>No Prazo</v>
       </c>
-      <c r="R102" s="83" t="s">
+      <c r="R102" s="64" t="s">
         <v>2642</v>
       </c>
-      <c r="S102" s="68">
+      <c r="S102" s="68"/>
+    </row>
+    <row r="103" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="72">
+        <v>100</v>
+      </c>
+      <c r="B103" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" s="84" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G103" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H103" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I103" s="85" t="s">
+        <v>2670</v>
+      </c>
+      <c r="J103" s="78" t="s">
+        <v>2672</v>
+      </c>
+      <c r="K103" s="65">
+        <v>16</v>
+      </c>
+      <c r="L103" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M103" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N103" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O103" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Qui 25/04/24</v>
+      </c>
+      <c r="P103" s="59"/>
+      <c r="Q103" s="69" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R103" s="64"/>
+      <c r="S103" s="68"/>
+    </row>
+    <row r="104" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="72">
+        <v>101</v>
+      </c>
+      <c r="B104" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>2673</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F104" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G104" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H104" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I104" s="85" t="s">
+        <v>2672</v>
+      </c>
+      <c r="J104" s="78" t="s">
+        <v>2674</v>
+      </c>
+      <c r="K104" s="65">
+        <v>17</v>
+      </c>
+      <c r="L104" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M104" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N104" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O104" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Ter 30/04/24</v>
+      </c>
+      <c r="P104" s="59"/>
+      <c r="Q104" s="69" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R104" s="64"/>
+      <c r="S104" s="68"/>
+    </row>
+    <row r="105" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="72">
+        <v>102</v>
+      </c>
+      <c r="B105" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D105" s="84" t="s">
+        <v>2675</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F105" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G105" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H105" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I105" s="85" t="s">
+        <v>2680</v>
+      </c>
+      <c r="J105" s="78" t="s">
+        <v>2670</v>
+      </c>
+      <c r="K105" s="65">
+        <v>16</v>
+      </c>
+      <c r="L105" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M105" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N105" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O105" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Sex 19/04/24</v>
+      </c>
+      <c r="P105" s="59"/>
+      <c r="Q105" s="69" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R105" s="64"/>
+      <c r="S105" s="68"/>
+    </row>
+    <row r="106" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="72">
+        <v>103</v>
+      </c>
+      <c r="B106" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D106" s="84" t="s">
+        <v>2676</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G106" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H106" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I106" s="85" t="s">
+        <v>2670</v>
+      </c>
+      <c r="J106" s="78" t="s">
+        <v>2682</v>
+      </c>
+      <c r="K106" s="65">
+        <v>16</v>
+      </c>
+      <c r="L106" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M106" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N106" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O106" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Ter 23/04/24</v>
+      </c>
+      <c r="P106" s="59"/>
+      <c r="Q106" s="69" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R106" s="64"/>
+      <c r="S106" s="68"/>
+    </row>
+    <row r="107" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="72">
+        <v>104</v>
+      </c>
+      <c r="B107" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D107" s="84" t="s">
+        <v>2677</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F107" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G107" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H107" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I107" s="85" t="s">
+        <v>2669</v>
+      </c>
+      <c r="J107" s="78" t="s">
+        <v>2680</v>
+      </c>
+      <c r="K107" s="65">
+        <v>16</v>
+      </c>
+      <c r="L107" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M107" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N107" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O107" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Qui 18/04/24</v>
+      </c>
+      <c r="P107" s="59"/>
+      <c r="Q107" s="69" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R107" s="64"/>
+      <c r="S107" s="68"/>
+    </row>
+    <row r="108" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="72">
+        <v>105</v>
+      </c>
+      <c r="B108" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D108" s="84" t="s">
+        <v>2678</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G108" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H108" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I108" s="85" t="s">
+        <v>2680</v>
+      </c>
+      <c r="J108" s="78" t="s">
+        <v>2681</v>
+      </c>
+      <c r="K108" s="65">
+        <v>16</v>
+      </c>
+      <c r="L108" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M108" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N108" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O108" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Seg 22/04/24</v>
+      </c>
+      <c r="P108" s="59"/>
+      <c r="Q108" s="69" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R108" s="64"/>
+      <c r="S108" s="68"/>
+    </row>
+    <row r="109" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="72">
+        <v>106</v>
+      </c>
+      <c r="B109" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="D109" s="84" t="s">
+        <v>2679</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F109" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H109" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I109" s="85" t="s">
+        <v>2681</v>
+      </c>
+      <c r="J109" s="78" t="s">
+        <v>2683</v>
+      </c>
+      <c r="K109" s="65">
+        <v>17</v>
+      </c>
+      <c r="L109" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M109" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N109" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O109" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Sex 26/04/24</v>
+      </c>
+      <c r="P109" s="59"/>
+      <c r="Q109" s="69" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R109" s="64"/>
+      <c r="S109" s="68"/>
+    </row>
+    <row r="110" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="72">
+        <v>107</v>
+      </c>
+      <c r="B110" s="73" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D110" s="84" t="s">
+        <v>2684</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H110" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I110" s="85" t="s">
+        <v>2690</v>
+      </c>
+      <c r="J110" s="78" t="s">
+        <v>2680</v>
+      </c>
+      <c r="K110" s="65">
+        <v>16</v>
+      </c>
+      <c r="L110" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M110" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N110" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O110" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Qui 18/04/24</v>
+      </c>
+      <c r="P110" s="59"/>
+      <c r="Q110" s="69" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R110" s="64"/>
+      <c r="S110" s="68"/>
+    </row>
+    <row r="111" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="72">
+        <v>108</v>
+      </c>
+      <c r="B111" s="73" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D111" s="84" t="s">
+        <v>2685</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F111" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G111" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H111" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I111" s="85" t="s">
+        <v>2680</v>
+      </c>
+      <c r="J111" s="78" t="s">
+        <v>2670</v>
+      </c>
+      <c r="K111" s="65">
+        <v>16</v>
+      </c>
+      <c r="L111" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M111" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N111" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O111" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Sex 19/04/24</v>
+      </c>
+      <c r="P111" s="59"/>
+      <c r="Q111" s="69" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R111" s="64"/>
+      <c r="S111" s="68"/>
+    </row>
+    <row r="112" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="72">
+        <v>109</v>
+      </c>
+      <c r="B112" s="73" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D112" s="84" t="s">
+        <v>2686</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F112" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H112" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I112" s="85" t="s">
+        <v>2670</v>
+      </c>
+      <c r="J112" s="78" t="s">
+        <v>2672</v>
+      </c>
+      <c r="K112" s="65">
+        <v>16</v>
+      </c>
+      <c r="L112" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M112" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N112" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O112" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Qui 25/04/24</v>
+      </c>
+      <c r="P112" s="59"/>
+      <c r="Q112" s="69" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R112" s="64"/>
+      <c r="S112" s="68"/>
+    </row>
+    <row r="113" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="72">
+        <v>110</v>
+      </c>
+      <c r="B113" s="73" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D113" s="84" t="s">
+        <v>2687</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F113" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G113" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H113" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I113" s="85" t="s">
+        <v>2670</v>
+      </c>
+      <c r="J113" s="78" t="s">
+        <v>2672</v>
+      </c>
+      <c r="K113" s="65">
+        <v>16</v>
+      </c>
+      <c r="L113" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M113" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N113" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O113" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Qui 25/04/24</v>
+      </c>
+      <c r="P113" s="59"/>
+      <c r="Q113" s="69" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R113" s="64"/>
+      <c r="S113" s="68"/>
+    </row>
+    <row r="114" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="72">
+        <v>111</v>
+      </c>
+      <c r="B114" s="73" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D114" s="84" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F114" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H114" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I114" s="85" t="s">
+        <v>2672</v>
+      </c>
+      <c r="J114" s="78" t="s">
+        <v>2691</v>
+      </c>
+      <c r="K114" s="65">
+        <v>17</v>
+      </c>
+      <c r="L114" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M114" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N114" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O114" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Seg 29/04/24</v>
+      </c>
+      <c r="P114" s="59"/>
+      <c r="Q114" s="69" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R114" s="64"/>
+      <c r="S114" s="68"/>
+    </row>
+    <row r="115" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="72">
+        <v>112</v>
+      </c>
+      <c r="B115" s="73" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="D115" s="84" t="s">
+        <v>2689</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F115" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G115" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H115" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I115" s="85" t="s">
+        <v>2672</v>
+      </c>
+      <c r="J115" s="78" t="s">
+        <v>2674</v>
+      </c>
+      <c r="K115" s="65">
+        <v>17</v>
+      </c>
+      <c r="L115" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M115" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N115" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O115" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Ter 30/04/24</v>
+      </c>
+      <c r="P115" s="59"/>
+      <c r="Q115" s="69" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R115" s="64"/>
+      <c r="S115" s="68"/>
+    </row>
+    <row r="116" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="72">
+        <v>113</v>
+      </c>
+      <c r="B116" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="D116" s="84" t="s">
+        <v>2692</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F116" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G116" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H116" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I116" s="85" t="s">
+        <v>2693</v>
+      </c>
+      <c r="J116" s="78" t="s">
+        <v>2672</v>
+      </c>
+      <c r="K116" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L116" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M116" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N116" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O116" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Qui 25/04/24</v>
+      </c>
+      <c r="P116" s="59"/>
+      <c r="Q116" s="69" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R116" s="64"/>
+      <c r="S116" s="68"/>
+    </row>
+    <row r="117" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="72">
+        <v>114</v>
+      </c>
+      <c r="B117" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="D117" s="84" t="s">
+        <v>2694</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F117" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G117" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H117" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I117" s="85" t="s">
+        <v>2683</v>
+      </c>
+      <c r="J117" s="78" t="s">
+        <v>2674</v>
+      </c>
+      <c r="K117" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L117" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M117" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N117" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O117" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Ter 30/04/24</v>
+      </c>
+      <c r="P117" s="59"/>
+      <c r="Q117" s="69" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R117" s="64"/>
+      <c r="S117" s="68"/>
+    </row>
+    <row r="118" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="72">
+        <v>115</v>
+      </c>
+      <c r="B118" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="D118" s="84" t="s">
+        <v>2695</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F118" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H118" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I118" s="85" t="s">
+        <v>2681</v>
+      </c>
+      <c r="J118" s="78" t="s">
+        <v>2681</v>
+      </c>
+      <c r="K118" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L118" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M118" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N118" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O118" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Seg 22/04/24</v>
+      </c>
+      <c r="P118" s="59"/>
+      <c r="Q118" s="69" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R118" s="64"/>
+      <c r="S118" s="68"/>
+    </row>
+    <row r="119" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="72">
+        <v>116</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="D119" s="84" t="s">
+        <v>2696</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F119" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G119" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H119" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I119" s="85" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Qui 18/04/24 08:30</v>
+      </c>
+      <c r="J119" s="78" t="s">
+        <v>2698</v>
+      </c>
+      <c r="K119" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L119" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M119" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N119" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O119" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Seg 20/05/24</v>
+      </c>
+      <c r="P119" s="59"/>
+      <c r="Q119" s="69" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R119" s="64"/>
+      <c r="S119" s="68"/>
+    </row>
+    <row r="120" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="72">
+        <v>117</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="D120" s="84" t="s">
+        <v>2699</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F120" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G120" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H120" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I120" s="85" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Qui 18/04/24 08:30</v>
+      </c>
+      <c r="J120" s="78" t="s">
+        <v>2700</v>
+      </c>
+      <c r="K120" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L120" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M120" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N120" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O120" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Sex 07/06/24</v>
+      </c>
+      <c r="P120" s="59"/>
+      <c r="Q120" s="69" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R120" s="64"/>
+      <c r="S120" s="68"/>
+    </row>
+    <row r="121" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="72">
+        <v>118</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>824</v>
+      </c>
+      <c r="D121" s="84" t="s">
+        <v>2701</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F121" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G121" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H121" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I121" s="85" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Seg 15/04/24 09:30</v>
+      </c>
+      <c r="J121" s="78" t="s">
+        <v>2702</v>
+      </c>
+      <c r="K121" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L121" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M121" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N121" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O121" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Seg 06/05/24</v>
+      </c>
+      <c r="P121" s="59"/>
+      <c r="Q121" s="69" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R121" s="64"/>
+      <c r="S121" s="68"/>
+    </row>
+    <row r="122" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="72">
+        <v>119</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D122" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F122" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G122" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H122" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I122" s="85" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Início da Linha de Base</v>
+      </c>
+      <c r="J122" s="78" t="s">
+        <v>2216</v>
+      </c>
+      <c r="K122" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L122" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M122" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N122" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O122" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Término da linha de base</v>
+      </c>
+      <c r="P122" s="59"/>
+      <c r="Q122" s="20" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R122" s="64"/>
+      <c r="S122" s="68"/>
+    </row>
+    <row r="123" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="72">
+        <v>120</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>829</v>
+      </c>
+      <c r="D123" s="84" t="s">
+        <v>2703</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F123" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G123" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H123" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I123" s="85" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Ter 16/04/24 10:30</v>
+      </c>
+      <c r="J123" s="78" t="s">
+        <v>2708</v>
+      </c>
+      <c r="K123" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L123" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M123" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N123" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O123" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Qua 08/05/24</v>
+      </c>
+      <c r="P123" s="59"/>
+      <c r="Q123" s="20" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R123" s="64"/>
+      <c r="S123" s="68"/>
+    </row>
+    <row r="124" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="72">
+        <v>121</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>834</v>
+      </c>
+      <c r="D124" s="84" t="s">
+        <v>2704</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F124" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G124" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H124" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I124" s="85" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Qua 17/04/24 14:30</v>
+      </c>
+      <c r="J124" s="78" t="s">
+        <v>2709</v>
+      </c>
+      <c r="K124" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L124" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M124" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N124" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O124" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Qui 09/05/24</v>
+      </c>
+      <c r="P124" s="59"/>
+      <c r="Q124" s="20" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R124" s="64"/>
+      <c r="S124" s="68"/>
+    </row>
+    <row r="125" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="72">
+        <v>122</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>839</v>
+      </c>
+      <c r="D125" s="84" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F125" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G125" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H125" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I125" s="85" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Sex 19/04/24 09:30</v>
+      </c>
+      <c r="J125" s="78" t="s">
+        <v>2710</v>
+      </c>
+      <c r="K125" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L125" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M125" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N125" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O125" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Seg 13/05/24</v>
+      </c>
+      <c r="P125" s="59"/>
+      <c r="Q125" s="20" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R125" s="64"/>
+      <c r="S125" s="68"/>
+    </row>
+    <row r="126" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="72">
+        <v>123</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>844</v>
+      </c>
+      <c r="D126" s="84" t="s">
+        <v>2706</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F126" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G126" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H126" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I126" s="85" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Seg 22/04/24 11:30</v>
+      </c>
+      <c r="J126" s="78" t="s">
+        <v>2711</v>
+      </c>
+      <c r="K126" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L126" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M126" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N126" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O126" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Qua 15/05/24</v>
+      </c>
+      <c r="P126" s="59"/>
+      <c r="Q126" s="20" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R126" s="64"/>
+      <c r="S126" s="68"/>
+    </row>
+    <row r="127" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="72">
+        <v>124</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>849</v>
+      </c>
+      <c r="D127" s="84" t="s">
+        <v>2707</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F127" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G127" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H127" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I127" s="85" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Ter 23/04/24 14:30</v>
+      </c>
+      <c r="J127" s="78" t="s">
+        <v>2712</v>
+      </c>
+      <c r="K127" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L127" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M127" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N127" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O127" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Ter 04/06/24</v>
+      </c>
+      <c r="P127" s="59"/>
+      <c r="Q127" s="20" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R127" s="64"/>
+      <c r="S127" s="68"/>
+    </row>
+    <row r="128" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="72">
+        <v>125</v>
+      </c>
+      <c r="B128" s="73" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="D128" s="84" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F128" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G128" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H128" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I128" s="85" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Qui 25/04/24 10:18</v>
+      </c>
+      <c r="J128" s="78" t="s">
+        <v>2714</v>
+      </c>
+      <c r="K128" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L128" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M128" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N128" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O128" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Seg 27/05/24</v>
+      </c>
+      <c r="P128" s="59"/>
+      <c r="Q128" s="20" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R128" s="64"/>
+      <c r="S128" s="68"/>
+    </row>
+    <row r="129" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="72">
+        <v>126</v>
+      </c>
+      <c r="B129" s="73" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>980</v>
+      </c>
+      <c r="D129" s="84" t="s">
+        <v>2715</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F129" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H129" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I129" s="85" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Seg 22/04/24 16:18</v>
+      </c>
+      <c r="J129" s="78" t="s">
+        <v>2720</v>
+      </c>
+      <c r="K129" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L129" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M129" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N129" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O129" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Qua 24/04/24</v>
+      </c>
+      <c r="P129" s="59"/>
+      <c r="Q129" s="20" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R129" s="64"/>
+      <c r="S129" s="68"/>
+    </row>
+    <row r="130" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="72">
+        <v>127</v>
+      </c>
+      <c r="B130" s="73" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>987</v>
+      </c>
+      <c r="D130" s="84" t="s">
+        <v>2716</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F130" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G130" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H130" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I130" s="85" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Seg 22/04/24 16:18</v>
+      </c>
+      <c r="J130" s="78" t="s">
+        <v>2682</v>
+      </c>
+      <c r="K130" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L130" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M130" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N130" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O130" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Ter 23/04/24</v>
+      </c>
+      <c r="P130" s="59"/>
+      <c r="Q130" s="20" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R130" s="64"/>
+      <c r="S130" s="68"/>
+    </row>
+    <row r="131" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="72">
+        <v>128</v>
+      </c>
+      <c r="B131" s="73" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="D131" s="84" t="s">
+        <v>2717</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F131" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G131" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H131" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I131" s="85" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Seg 22/04/24 16:18</v>
+      </c>
+      <c r="J131" s="78" t="s">
+        <v>2682</v>
+      </c>
+      <c r="K131" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L131" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M131" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N131" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O131" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Ter 23/04/24</v>
+      </c>
+      <c r="P131" s="59"/>
+      <c r="Q131" s="20" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R131" s="64"/>
+      <c r="S131" s="68"/>
+    </row>
+    <row r="132" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="72">
+        <v>129</v>
+      </c>
+      <c r="B132" s="73" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="D132" s="84" t="s">
+        <v>2718</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F132" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G132" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H132" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I132" s="85" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Qua 24/04/24 10:18</v>
+      </c>
+      <c r="J132" s="78" t="s">
+        <v>2720</v>
+      </c>
+      <c r="K132" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L132" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M132" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N132" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O132" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Qua 24/04/24</v>
+      </c>
+      <c r="P132" s="59"/>
+      <c r="Q132" s="20" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R132" s="64"/>
+      <c r="S132" s="68"/>
+    </row>
+    <row r="133" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="72">
+        <v>130</v>
+      </c>
+      <c r="B133" s="73" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D133" s="84" t="s">
+        <v>2719</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F133" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G133" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H133" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I133" s="85" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Qua 17/04/24 13:18</v>
+      </c>
+      <c r="J133" s="78" t="s">
+        <v>2680</v>
+      </c>
+      <c r="K133" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L133" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M133" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N133" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O133" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Qui 18/04/24</v>
+      </c>
+      <c r="P133" s="59"/>
+      <c r="Q133" s="20" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R133" s="64"/>
+      <c r="S133" s="68"/>
+    </row>
+    <row r="134" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="72">
+        <v>133</v>
+      </c>
+      <c r="B134" s="73" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D134" s="84" t="s">
+        <v>2721</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F134" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G134" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H134" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I134" s="85" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Sex 15/03/24 08:30</v>
+      </c>
+      <c r="J134" s="78" t="s">
+        <v>2712</v>
+      </c>
+      <c r="K134" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L134" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M134" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N134" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O134" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Ter 04/06/24</v>
+      </c>
+      <c r="P134" s="59"/>
+      <c r="Q134" s="20" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R134" s="64"/>
+      <c r="S134" s="68"/>
+    </row>
+    <row r="135" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="72">
+        <v>134</v>
+      </c>
+      <c r="B135" s="73" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D135" s="84" t="s">
+        <v>2722</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F135" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G135" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H135" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I135" s="85" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Seg 15/04/24 13:30</v>
+      </c>
+      <c r="J135" s="78" t="s">
+        <v>2724</v>
+      </c>
+      <c r="K135" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L135" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M135" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N135" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O135" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Seg 10/06/24</v>
+      </c>
+      <c r="P135" s="59"/>
+      <c r="Q135" s="20" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R135" s="64"/>
+      <c r="S135" s="68"/>
+    </row>
+    <row r="136" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="72">
+        <v>135</v>
+      </c>
+      <c r="B136" s="73" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D136" s="84" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F136" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G136" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H136" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I136" s="85" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Seg 15/04/24 13:30</v>
+      </c>
+      <c r="J136" s="78" t="s">
+        <v>2728</v>
+      </c>
+      <c r="K136" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L136" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M136" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N136" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O136" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Qua 26/06/24</v>
+      </c>
+      <c r="P136" s="59"/>
+      <c r="Q136" s="20" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R136" s="64"/>
+      <c r="S136" s="68"/>
+    </row>
+    <row r="137" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="72">
+        <v>136</v>
+      </c>
+      <c r="B137" s="73" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D137" s="84" t="s">
+        <v>2726</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F137" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G137" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H137" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I137" s="85" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Qua 24/04/24 11:30</v>
+      </c>
+      <c r="J137" s="78" t="s">
+        <v>2729</v>
+      </c>
+      <c r="K137" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L137" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M137" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N137" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O137" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Ter 02/07/24</v>
+      </c>
+      <c r="P137" s="59"/>
+      <c r="Q137" s="20" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R137" s="64"/>
+      <c r="S137" s="68"/>
+    </row>
+    <row r="138" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="72">
+        <v>137</v>
+      </c>
+      <c r="B138" s="73" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D138" s="84" t="s">
+        <v>2727</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F138" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G138" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H138" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I138" s="85" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Qui 18/04/24 14:30</v>
+      </c>
+      <c r="J138" s="78" t="s">
+        <v>2714</v>
+      </c>
+      <c r="K138" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L138" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M138" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N138" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O138" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Seg 27/05/24</v>
+      </c>
+      <c r="P138" s="59"/>
+      <c r="Q138" s="20" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R138" s="64"/>
+      <c r="S138" s="68"/>
+    </row>
+    <row r="139" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="72">
+        <v>138</v>
+      </c>
+      <c r="B139" s="73" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D139" s="84" t="s">
+        <v>2685</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F139" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G139" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H139" s="18">
+        <v>45390</v>
+      </c>
+      <c r="I139" s="85" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Sex 19/04/24 15:30</v>
+      </c>
+      <c r="J139" s="78" t="s">
+        <v>2730</v>
+      </c>
+      <c r="K139" s="65">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>0</v>
+      </c>
+      <c r="L139" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M139" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N139" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O139" s="62" t="str">
+        <f>Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREV. (BASELINE)]]</f>
+        <v>Sex 31/05/24</v>
+      </c>
+      <c r="P139" s="59"/>
+      <c r="Q139" s="20" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>No Prazo</v>
+      </c>
+      <c r="R139" s="64"/>
+      <c r="S139" s="68"/>
+    </row>
+    <row r="140" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="72">
+        <v>139</v>
+      </c>
+      <c r="B140" s="73" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C140" s="77" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D140" s="81" t="str">
+        <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
+        <v>TIE IN_112/114 Desaerador_E-14A-02A</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F140" s="16" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G140" s="16" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H140" s="74">
+        <v>45370</v>
+      </c>
+      <c r="I140" s="19" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Qua 10/04/24 10:30</v>
+      </c>
+      <c r="J140" s="78">
+        <f>Prontidao_MedioPrazo[[#This Row],[Coluna1]]-7</f>
+        <v>45385</v>
+      </c>
+      <c r="K140" s="70">
+        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
+        <v>15</v>
+      </c>
+      <c r="L140" s="60" t="s">
+        <v>2637</v>
+      </c>
+      <c r="M140" s="60" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N140" s="61" t="s">
+        <v>2193</v>
+      </c>
+      <c r="O140" s="62">
+        <v>45385</v>
+      </c>
+      <c r="P140" s="59"/>
+      <c r="Q140" s="69" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>Atrasada</v>
+      </c>
+      <c r="R140" s="64" t="s">
+        <v>2642</v>
+      </c>
+      <c r="S140" s="68">
         <v>45392</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="C7:C32">
     <cfRule type="duplicateValues" dxfId="6" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32 C7:C30">
     <cfRule type="duplicateValues" dxfId="5" priority="93"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q7:Q102">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+  <conditionalFormatting sqref="D140 D7:D103">
+    <cfRule type="duplicateValues" dxfId="4" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7:Q140">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Concluída"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"À definir"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"Atrasada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"No Prazo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D102">
-    <cfRule type="duplicateValues" dxfId="0" priority="152"/>
-  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Atividade Impactada" prompt="Fórmula, não há necessidade de preenchimento" sqref="D7:D102" xr:uid="{E680AA44-5F85-4EFF-803C-0597875D8EB8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data de Impacto" prompt="Fórmula, não há necessidade de preenchimento**" sqref="I7:I102" xr:uid="{A69A1786-106F-4AFC-AD5F-6B239B30DD8C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Fórmula, não há necessidade de preenchimento" sqref="Q7:Q102" xr:uid="{ED295417-BECD-49C1-A871-25A5B2CB03C2}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Categoria" prompt="Preencha o campo Categoria com as opções da lista suspensa!" sqref="E7:E102" xr:uid="{DDF1B8A4-511A-4753-BE39-953CE1B85D2D}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Atividade Impactada" prompt="Fórmula, não há necessidade de preenchimento" sqref="D7:D103 D140" xr:uid="{E680AA44-5F85-4EFF-803C-0597875D8EB8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data de Impacto" prompt="Fórmula, não há necessidade de preenchimento**" sqref="I7:I140" xr:uid="{A69A1786-106F-4AFC-AD5F-6B239B30DD8C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Fórmula, não há necessidade de preenchimento" sqref="Q7:Q140" xr:uid="{ED295417-BECD-49C1-A871-25A5B2CB03C2}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Categoria" prompt="Preencha o campo Categoria com as opções da lista suspensa!" sqref="E7:E140" xr:uid="{DDF1B8A4-511A-4753-BE39-953CE1B85D2D}">
       <formula1>"Mão de Obra,Material,Meio Ambiente,Método,Máquina,Medida,HSE,Predecessora,Interface Operação"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="31" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="30" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D22 D24:D27 D29:D46 D51:D102 D47:D50" calculatedColumn="1"/>
+    <ignoredError sqref="D22 D24:D27 D140 D29:D101" calculatedColumn="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/programacao/15 -  Prontidão Médio Prazo.xlsx
+++ b/programacao/15 -  Prontidão Médio Prazo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_4600011662_Utilidades/02.PLANEJAMENTO/01 - Base de dados BI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2843" documentId="13_ncr:1_{CF35CD03-2AB7-44C8-89C3-A37B38273E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87399EC9-E4A8-461A-AF79-C8101EF72E0D}"/>
+  <xr:revisionPtr revIDLastSave="2844" documentId="13_ncr:1_{CF35CD03-2AB7-44C8-89C3-A37B38273E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADD14917-3D4C-46CA-B177-BEC271D8C86A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{32A6E8DD-ACB4-40F1-8D5E-8E9CE1A3868D}"/>
   </bookViews>
@@ -8867,7 +8867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9102,12 +9102,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -10653,9 +10647,9 @@
   <dimension ref="A1:G1167"/>
   <sheetViews>
     <sheetView zoomScale="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E81" sqref="E81"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="E311" sqref="E311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -35194,8 +35188,8 @@
   </sheetPr>
   <dimension ref="A1:AB140"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A131" zoomScale="54" zoomScaleNormal="37" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="54" zoomScaleNormal="37" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -41306,7 +41300,7 @@
       <c r="C103" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D103" s="84" t="s">
+      <c r="D103" s="17" t="s">
         <v>2671</v>
       </c>
       <c r="E103" s="16" t="s">
@@ -41321,7 +41315,7 @@
       <c r="H103" s="18">
         <v>45390</v>
       </c>
-      <c r="I103" s="85" t="s">
+      <c r="I103" s="19" t="s">
         <v>2670</v>
       </c>
       <c r="J103" s="78" t="s">
@@ -41376,7 +41370,7 @@
       <c r="H104" s="18">
         <v>45390</v>
       </c>
-      <c r="I104" s="85" t="s">
+      <c r="I104" s="19" t="s">
         <v>2672</v>
       </c>
       <c r="J104" s="78" t="s">
@@ -41416,7 +41410,7 @@
       <c r="C105" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D105" s="84" t="s">
+      <c r="D105" s="17" t="s">
         <v>2675</v>
       </c>
       <c r="E105" s="16" t="s">
@@ -41431,7 +41425,7 @@
       <c r="H105" s="18">
         <v>45390</v>
       </c>
-      <c r="I105" s="85" t="s">
+      <c r="I105" s="19" t="s">
         <v>2680</v>
       </c>
       <c r="J105" s="78" t="s">
@@ -41471,7 +41465,7 @@
       <c r="C106" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D106" s="84" t="s">
+      <c r="D106" s="17" t="s">
         <v>2676</v>
       </c>
       <c r="E106" s="16" t="s">
@@ -41486,7 +41480,7 @@
       <c r="H106" s="18">
         <v>45390</v>
       </c>
-      <c r="I106" s="85" t="s">
+      <c r="I106" s="19" t="s">
         <v>2670</v>
       </c>
       <c r="J106" s="78" t="s">
@@ -41526,7 +41520,7 @@
       <c r="C107" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="D107" s="84" t="s">
+      <c r="D107" s="17" t="s">
         <v>2677</v>
       </c>
       <c r="E107" s="16" t="s">
@@ -41541,7 +41535,7 @@
       <c r="H107" s="18">
         <v>45390</v>
       </c>
-      <c r="I107" s="85" t="s">
+      <c r="I107" s="19" t="s">
         <v>2669</v>
       </c>
       <c r="J107" s="78" t="s">
@@ -41581,7 +41575,7 @@
       <c r="C108" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="D108" s="84" t="s">
+      <c r="D108" s="17" t="s">
         <v>2678</v>
       </c>
       <c r="E108" s="16" t="s">
@@ -41596,7 +41590,7 @@
       <c r="H108" s="18">
         <v>45390</v>
       </c>
-      <c r="I108" s="85" t="s">
+      <c r="I108" s="19" t="s">
         <v>2680</v>
       </c>
       <c r="J108" s="78" t="s">
@@ -41636,7 +41630,7 @@
       <c r="C109" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="D109" s="84" t="s">
+      <c r="D109" s="17" t="s">
         <v>2679</v>
       </c>
       <c r="E109" s="16" t="s">
@@ -41651,7 +41645,7 @@
       <c r="H109" s="18">
         <v>45390</v>
       </c>
-      <c r="I109" s="85" t="s">
+      <c r="I109" s="19" t="s">
         <v>2681</v>
       </c>
       <c r="J109" s="78" t="s">
@@ -41691,7 +41685,7 @@
       <c r="C110" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="D110" s="84" t="s">
+      <c r="D110" s="17" t="s">
         <v>2684</v>
       </c>
       <c r="E110" s="16" t="s">
@@ -41706,7 +41700,7 @@
       <c r="H110" s="18">
         <v>45390</v>
       </c>
-      <c r="I110" s="85" t="s">
+      <c r="I110" s="19" t="s">
         <v>2690</v>
       </c>
       <c r="J110" s="78" t="s">
@@ -41746,7 +41740,7 @@
       <c r="C111" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="D111" s="84" t="s">
+      <c r="D111" s="17" t="s">
         <v>2685</v>
       </c>
       <c r="E111" s="16" t="s">
@@ -41761,7 +41755,7 @@
       <c r="H111" s="18">
         <v>45390</v>
       </c>
-      <c r="I111" s="85" t="s">
+      <c r="I111" s="19" t="s">
         <v>2680</v>
       </c>
       <c r="J111" s="78" t="s">
@@ -41801,7 +41795,7 @@
       <c r="C112" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="D112" s="84" t="s">
+      <c r="D112" s="17" t="s">
         <v>2686</v>
       </c>
       <c r="E112" s="16" t="s">
@@ -41816,7 +41810,7 @@
       <c r="H112" s="18">
         <v>45390</v>
       </c>
-      <c r="I112" s="85" t="s">
+      <c r="I112" s="19" t="s">
         <v>2670</v>
       </c>
       <c r="J112" s="78" t="s">
@@ -41856,7 +41850,7 @@
       <c r="C113" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="D113" s="84" t="s">
+      <c r="D113" s="17" t="s">
         <v>2687</v>
       </c>
       <c r="E113" s="16" t="s">
@@ -41871,7 +41865,7 @@
       <c r="H113" s="18">
         <v>45390</v>
       </c>
-      <c r="I113" s="85" t="s">
+      <c r="I113" s="19" t="s">
         <v>2670</v>
       </c>
       <c r="J113" s="78" t="s">
@@ -41911,7 +41905,7 @@
       <c r="C114" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="D114" s="84" t="s">
+      <c r="D114" s="17" t="s">
         <v>2688</v>
       </c>
       <c r="E114" s="16" t="s">
@@ -41926,7 +41920,7 @@
       <c r="H114" s="18">
         <v>45390</v>
       </c>
-      <c r="I114" s="85" t="s">
+      <c r="I114" s="19" t="s">
         <v>2672</v>
       </c>
       <c r="J114" s="78" t="s">
@@ -41966,7 +41960,7 @@
       <c r="C115" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="D115" s="84" t="s">
+      <c r="D115" s="17" t="s">
         <v>2689</v>
       </c>
       <c r="E115" s="16" t="s">
@@ -41981,7 +41975,7 @@
       <c r="H115" s="18">
         <v>45390</v>
       </c>
-      <c r="I115" s="85" t="s">
+      <c r="I115" s="19" t="s">
         <v>2672</v>
       </c>
       <c r="J115" s="78" t="s">
@@ -42021,7 +42015,7 @@
       <c r="C116" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="D116" s="84" t="s">
+      <c r="D116" s="17" t="s">
         <v>2692</v>
       </c>
       <c r="E116" s="16" t="s">
@@ -42036,7 +42030,7 @@
       <c r="H116" s="18">
         <v>45390</v>
       </c>
-      <c r="I116" s="85" t="s">
+      <c r="I116" s="19" t="s">
         <v>2693</v>
       </c>
       <c r="J116" s="78" t="s">
@@ -42077,7 +42071,7 @@
       <c r="C117" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="D117" s="84" t="s">
+      <c r="D117" s="17" t="s">
         <v>2694</v>
       </c>
       <c r="E117" s="16" t="s">
@@ -42092,7 +42086,7 @@
       <c r="H117" s="18">
         <v>45390</v>
       </c>
-      <c r="I117" s="85" t="s">
+      <c r="I117" s="19" t="s">
         <v>2683</v>
       </c>
       <c r="J117" s="78" t="s">
@@ -42133,7 +42127,7 @@
       <c r="C118" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="D118" s="84" t="s">
+      <c r="D118" s="17" t="s">
         <v>2695</v>
       </c>
       <c r="E118" s="16" t="s">
@@ -42148,7 +42142,7 @@
       <c r="H118" s="18">
         <v>45390</v>
       </c>
-      <c r="I118" s="85" t="s">
+      <c r="I118" s="19" t="s">
         <v>2681</v>
       </c>
       <c r="J118" s="78" t="s">
@@ -42189,7 +42183,7 @@
       <c r="C119" s="16" t="s">
         <v>774</v>
       </c>
-      <c r="D119" s="84" t="s">
+      <c r="D119" s="17" t="s">
         <v>2696</v>
       </c>
       <c r="E119" s="16" t="s">
@@ -42204,7 +42198,7 @@
       <c r="H119" s="18">
         <v>45390</v>
       </c>
-      <c r="I119" s="85" t="str">
+      <c r="I119" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 18/04/24 08:30</v>
       </c>
@@ -42246,7 +42240,7 @@
       <c r="C120" s="16" t="s">
         <v>791</v>
       </c>
-      <c r="D120" s="84" t="s">
+      <c r="D120" s="17" t="s">
         <v>2699</v>
       </c>
       <c r="E120" s="16" t="s">
@@ -42261,7 +42255,7 @@
       <c r="H120" s="18">
         <v>45390</v>
       </c>
-      <c r="I120" s="85" t="str">
+      <c r="I120" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 18/04/24 08:30</v>
       </c>
@@ -42303,7 +42297,7 @@
       <c r="C121" s="16" t="s">
         <v>824</v>
       </c>
-      <c r="D121" s="84" t="s">
+      <c r="D121" s="17" t="s">
         <v>2701</v>
       </c>
       <c r="E121" s="16" t="s">
@@ -42318,7 +42312,7 @@
       <c r="H121" s="18">
         <v>45390</v>
       </c>
-      <c r="I121" s="85" t="str">
+      <c r="I121" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 15/04/24 09:30</v>
       </c>
@@ -42360,7 +42354,7 @@
       <c r="C122" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D122" s="84" t="s">
+      <c r="D122" s="17" t="s">
         <v>128</v>
       </c>
       <c r="E122" s="16" t="s">
@@ -42375,7 +42369,7 @@
       <c r="H122" s="18">
         <v>45390</v>
       </c>
-      <c r="I122" s="85" t="str">
+      <c r="I122" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Início da Linha de Base</v>
       </c>
@@ -42417,7 +42411,7 @@
       <c r="C123" s="16" t="s">
         <v>829</v>
       </c>
-      <c r="D123" s="84" t="s">
+      <c r="D123" s="17" t="s">
         <v>2703</v>
       </c>
       <c r="E123" s="16" t="s">
@@ -42432,7 +42426,7 @@
       <c r="H123" s="18">
         <v>45390</v>
       </c>
-      <c r="I123" s="85" t="str">
+      <c r="I123" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 16/04/24 10:30</v>
       </c>
@@ -42474,7 +42468,7 @@
       <c r="C124" s="16" t="s">
         <v>834</v>
       </c>
-      <c r="D124" s="84" t="s">
+      <c r="D124" s="17" t="s">
         <v>2704</v>
       </c>
       <c r="E124" s="16" t="s">
@@ -42489,7 +42483,7 @@
       <c r="H124" s="18">
         <v>45390</v>
       </c>
-      <c r="I124" s="85" t="str">
+      <c r="I124" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 17/04/24 14:30</v>
       </c>
@@ -42531,7 +42525,7 @@
       <c r="C125" s="16" t="s">
         <v>839</v>
       </c>
-      <c r="D125" s="84" t="s">
+      <c r="D125" s="17" t="s">
         <v>2705</v>
       </c>
       <c r="E125" s="16" t="s">
@@ -42546,7 +42540,7 @@
       <c r="H125" s="18">
         <v>45390</v>
       </c>
-      <c r="I125" s="85" t="str">
+      <c r="I125" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 19/04/24 09:30</v>
       </c>
@@ -42588,7 +42582,7 @@
       <c r="C126" s="16" t="s">
         <v>844</v>
       </c>
-      <c r="D126" s="84" t="s">
+      <c r="D126" s="17" t="s">
         <v>2706</v>
       </c>
       <c r="E126" s="16" t="s">
@@ -42603,7 +42597,7 @@
       <c r="H126" s="18">
         <v>45390</v>
       </c>
-      <c r="I126" s="85" t="str">
+      <c r="I126" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 22/04/24 11:30</v>
       </c>
@@ -42645,7 +42639,7 @@
       <c r="C127" s="16" t="s">
         <v>849</v>
       </c>
-      <c r="D127" s="84" t="s">
+      <c r="D127" s="17" t="s">
         <v>2707</v>
       </c>
       <c r="E127" s="16" t="s">
@@ -42660,7 +42654,7 @@
       <c r="H127" s="18">
         <v>45390</v>
       </c>
-      <c r="I127" s="85" t="str">
+      <c r="I127" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 23/04/24 14:30</v>
       </c>
@@ -42702,7 +42696,7 @@
       <c r="C128" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="D128" s="84" t="s">
+      <c r="D128" s="17" t="s">
         <v>2713</v>
       </c>
       <c r="E128" s="16" t="s">
@@ -42717,7 +42711,7 @@
       <c r="H128" s="18">
         <v>45390</v>
       </c>
-      <c r="I128" s="85" t="str">
+      <c r="I128" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 25/04/24 10:18</v>
       </c>
@@ -42759,7 +42753,7 @@
       <c r="C129" s="16" t="s">
         <v>980</v>
       </c>
-      <c r="D129" s="84" t="s">
+      <c r="D129" s="17" t="s">
         <v>2715</v>
       </c>
       <c r="E129" s="16" t="s">
@@ -42774,7 +42768,7 @@
       <c r="H129" s="18">
         <v>45390</v>
       </c>
-      <c r="I129" s="85" t="str">
+      <c r="I129" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 22/04/24 16:18</v>
       </c>
@@ -42816,7 +42810,7 @@
       <c r="C130" s="16" t="s">
         <v>987</v>
       </c>
-      <c r="D130" s="84" t="s">
+      <c r="D130" s="17" t="s">
         <v>2716</v>
       </c>
       <c r="E130" s="16" t="s">
@@ -42831,7 +42825,7 @@
       <c r="H130" s="18">
         <v>45390</v>
       </c>
-      <c r="I130" s="85" t="str">
+      <c r="I130" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 22/04/24 16:18</v>
       </c>
@@ -42873,7 +42867,7 @@
       <c r="C131" s="16" t="s">
         <v>993</v>
       </c>
-      <c r="D131" s="84" t="s">
+      <c r="D131" s="17" t="s">
         <v>2717</v>
       </c>
       <c r="E131" s="16" t="s">
@@ -42888,7 +42882,7 @@
       <c r="H131" s="18">
         <v>45390</v>
       </c>
-      <c r="I131" s="85" t="str">
+      <c r="I131" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 22/04/24 16:18</v>
       </c>
@@ -42930,7 +42924,7 @@
       <c r="C132" s="16" t="s">
         <v>998</v>
       </c>
-      <c r="D132" s="84" t="s">
+      <c r="D132" s="17" t="s">
         <v>2718</v>
       </c>
       <c r="E132" s="16" t="s">
@@ -42945,7 +42939,7 @@
       <c r="H132" s="18">
         <v>45390</v>
       </c>
-      <c r="I132" s="85" t="str">
+      <c r="I132" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 24/04/24 10:18</v>
       </c>
@@ -42987,7 +42981,7 @@
       <c r="C133" s="16" t="s">
         <v>1005</v>
       </c>
-      <c r="D133" s="84" t="s">
+      <c r="D133" s="17" t="s">
         <v>2719</v>
       </c>
       <c r="E133" s="16" t="s">
@@ -43002,7 +42996,7 @@
       <c r="H133" s="18">
         <v>45390</v>
       </c>
-      <c r="I133" s="85" t="str">
+      <c r="I133" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 17/04/24 13:18</v>
       </c>
@@ -43044,7 +43038,7 @@
       <c r="C134" s="16" t="s">
         <v>1109</v>
       </c>
-      <c r="D134" s="84" t="s">
+      <c r="D134" s="17" t="s">
         <v>2721</v>
       </c>
       <c r="E134" s="16" t="s">
@@ -43059,7 +43053,7 @@
       <c r="H134" s="18">
         <v>45390</v>
       </c>
-      <c r="I134" s="85" t="str">
+      <c r="I134" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 15/03/24 08:30</v>
       </c>
@@ -43101,7 +43095,7 @@
       <c r="C135" s="16" t="s">
         <v>1115</v>
       </c>
-      <c r="D135" s="84" t="s">
+      <c r="D135" s="17" t="s">
         <v>2722</v>
       </c>
       <c r="E135" s="16" t="s">
@@ -43116,7 +43110,7 @@
       <c r="H135" s="18">
         <v>45390</v>
       </c>
-      <c r="I135" s="85" t="str">
+      <c r="I135" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 15/04/24 13:30</v>
       </c>
@@ -43158,7 +43152,7 @@
       <c r="C136" s="16" t="s">
         <v>1132</v>
       </c>
-      <c r="D136" s="84" t="s">
+      <c r="D136" s="17" t="s">
         <v>2725</v>
       </c>
       <c r="E136" s="16" t="s">
@@ -43173,7 +43167,7 @@
       <c r="H136" s="18">
         <v>45390</v>
       </c>
-      <c r="I136" s="85" t="str">
+      <c r="I136" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 15/04/24 13:30</v>
       </c>
@@ -43215,7 +43209,7 @@
       <c r="C137" s="16" t="s">
         <v>1138</v>
       </c>
-      <c r="D137" s="84" t="s">
+      <c r="D137" s="17" t="s">
         <v>2726</v>
       </c>
       <c r="E137" s="16" t="s">
@@ -43230,7 +43224,7 @@
       <c r="H137" s="18">
         <v>45390</v>
       </c>
-      <c r="I137" s="85" t="str">
+      <c r="I137" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 24/04/24 11:30</v>
       </c>
@@ -43272,7 +43266,7 @@
       <c r="C138" s="16" t="s">
         <v>1150</v>
       </c>
-      <c r="D138" s="84" t="s">
+      <c r="D138" s="17" t="s">
         <v>2727</v>
       </c>
       <c r="E138" s="16" t="s">
@@ -43287,7 +43281,7 @@
       <c r="H138" s="18">
         <v>45390</v>
       </c>
-      <c r="I138" s="85" t="str">
+      <c r="I138" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 18/04/24 14:30</v>
       </c>
@@ -43329,7 +43323,7 @@
       <c r="C139" s="16" t="s">
         <v>1155</v>
       </c>
-      <c r="D139" s="84" t="s">
+      <c r="D139" s="17" t="s">
         <v>2685</v>
       </c>
       <c r="E139" s="16" t="s">
@@ -43344,7 +43338,7 @@
       <c r="H139" s="18">
         <v>45390</v>
       </c>
-      <c r="I139" s="85" t="str">
+      <c r="I139" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 19/04/24 15:30</v>
       </c>
@@ -44028,6 +44022,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acfac000-05a5-4485-98d1-25ae80f2ac3c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C24875C6C3D6EA45AFCB982D3A0B37CD" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab8229b382e62ca7f68ac387406343b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e7640078-2807-4792-8712-763d4cb58983" xmlns:ns3="acfac000-05a5-4485-98d1-25ae80f2ac3c" xmlns:ns4="601ddd3e-e7e7-4b57-95a9-114b343b906a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f0b2ba43dd082ea35de1bb7fc9953a3" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e7640078-2807-4792-8712-763d4cb58983"/>
@@ -44251,7 +44257,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -44260,19 +44266,19 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acfac000-05a5-4485-98d1-25ae80f2ac3c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4F5EE1-56D7-4FFB-B992-DE488B5495B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
+    <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
+    <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43EA2ECA-4B5E-4DC2-9087-8210D1FB9903}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44292,22 +44298,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4F5EE1-56D7-4FFB-B992-DE488B5495B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
-    <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
-    <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/programacao/15 -  Prontidão Médio Prazo.xlsx
+++ b/programacao/15 -  Prontidão Médio Prazo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_4600011662_Utilidades/02.PLANEJAMENTO/01 - Base de dados BI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2955" documentId="13_ncr:1_{CF35CD03-2AB7-44C8-89C3-A37B38273E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{164A9A48-7A03-44E4-B402-7B4001C45F64}"/>
+  <xr:revisionPtr revIDLastSave="3023" documentId="13_ncr:1_{CF35CD03-2AB7-44C8-89C3-A37B38273E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7711DBC-A566-4BC2-BB4B-3F4E89153300}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{32A6E8DD-ACB4-40F1-8D5E-8E9CE1A3868D}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cronograma'!$B$1:$F$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Prontidão Médio Prazo'!$A$1:$R$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Prontidão Médio Prazo'!$A$1:$R$19</definedName>
     <definedName name="dfgvxcbfxcc" hidden="1">{"Avaliação de Cargos (Class Mens Todas)",#N/A,FALSE,"BANCO DE DADOS MENSALISTAS";"Avaliação de Cargos (Class Mens Todas)",#N/A,FALSE,"BANCO DE DADOS MENSALISTAS"}</definedName>
     <definedName name="ECC" hidden="1">{"Avaliação de Cargos (Class Mens Todas)",#N/A,FALSE,"BANCO DE DADOS MENSALISTAS";"Avaliação de Cargos (Class Mens Todas)",#N/A,FALSE,"BANCO DE DADOS MENSALISTAS"}</definedName>
     <definedName name="fdxcgfdgdxc" hidden="1">{#N/A,#N/A,FALSE,"Costo Vendido";#N/A,#N/A,FALSE,"Precio";#N/A,#N/A,FALSE,"Consumo";#N/A,#N/A,FALSE,"GDV";#N/A,#N/A,FALSE,"expestru";#N/A,#N/A,FALSE,"Graficos";#N/A,#N/A,FALSE,"Resumen "}</definedName>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6479" uniqueCount="2395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6514" uniqueCount="2399">
   <si>
     <t>Status</t>
   </si>
@@ -7321,15 +7321,9 @@
     <t>Hydro</t>
   </si>
   <si>
-    <t xml:space="preserve">Realizar os comentários </t>
-  </si>
-  <si>
     <t>Tanque de condensado</t>
   </si>
   <si>
-    <t xml:space="preserve">Faltam os comentários de HSE e Eng. no fluxograma enviado </t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
@@ -7349,6 +7343,24 @@
   </si>
   <si>
     <t>Material de fabricação</t>
+  </si>
+  <si>
+    <t>Realizar revisão</t>
+  </si>
+  <si>
+    <t>Montisol</t>
+  </si>
+  <si>
+    <t>Cézar</t>
+  </si>
+  <si>
+    <t>Revisão do documento</t>
+  </si>
+  <si>
+    <t>Sistema de vapor</t>
+  </si>
+  <si>
+    <t>Suporte mola e Junta de dilatação</t>
   </si>
 </sst>
 </file>
@@ -7584,7 +7596,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -7773,6 +7785,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB3B3B3"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB3B3B3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB3B3B3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7787,7 +7812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7984,11 +8009,8 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8005,6 +8027,15 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8020,78 +8051,33 @@
   <dxfs count="35">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFB3B3B3"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFB3B3B3"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFB3B3B3"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFB3B3B3"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFB3B3B3"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFB3B3B3"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFB3B3B3"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFB3B3B3"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -8139,69 +8125,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFB3B3B3"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFB3B3B3"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFB3B3B3"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFB3B3B3"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -8464,6 +8387,48 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFB3B3B3"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB3B3B3"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB3B3B3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB3B3B3"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -8596,6 +8561,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB3B3B3"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB3B3B3"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB3B3B3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB3B3B3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -8636,6 +8634,39 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB3B3B3"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB3B3B3"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB3B3B3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB3B3B3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFB3B3B3"/>
@@ -9167,36 +9198,36 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}" name="Prontidao_MedioPrazo" displayName="Prontidao_MedioPrazo" ref="A6:S17" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
-  <autoFilter ref="A6:S17" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}" name="Prontidao_MedioPrazo" displayName="Prontidao_MedioPrazo" ref="A6:S19" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
+  <autoFilter ref="A6:S19" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{BCE3C5A2-1F72-49EB-BB87-9A92C2B54BB4}" name="ITEM" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{66580C9C-6594-4500-A4D5-A646C365043A}" name="LOCAL" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{72CADBD4-BB10-4819-BD20-5F1FED34D952}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{2ADFA8B7-8EFF-44DC-A62F-3674B062D4A2}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="24">
+    <tableColumn id="3" xr3:uid="{72CADBD4-BB10-4819-BD20-5F1FED34D952}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{2ADFA8B7-8EFF-44DC-A62F-3674B062D4A2}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="23">
       <calculatedColumnFormula>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{10644C3D-33D6-4632-AEDA-8C10BCF893ED}" name="GRUPO" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{2E31625A-C772-4196-9F67-24069F7E96AC}" name="RESTRIÇÃO DETECTADA" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{480343CB-432F-4FEF-BD8B-240D45972277}" name="AÇÃO A SER TOMADA" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{96E10FFD-7709-41D7-989F-D00B08372AB5}" name="DATA DE MAPEAMENTO" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{714BC864-34A3-4792-AA6F-188AABE3C4ED}" name="DATA DE IMPACTO" dataDxfId="20">
+    <tableColumn id="5" xr3:uid="{10644C3D-33D6-4632-AEDA-8C10BCF893ED}" name="GRUPO" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{2E31625A-C772-4196-9F67-24069F7E96AC}" name="RESTRIÇÃO DETECTADA" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{480343CB-432F-4FEF-BD8B-240D45972277}" name="AÇÃO A SER TOMADA" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{96E10FFD-7709-41D7-989F-D00B08372AB5}" name="DATA DE MAPEAMENTO" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{714BC864-34A3-4792-AA6F-188AABE3C4ED}" name="DATA DE IMPACTO" dataDxfId="18">
       <calculatedColumnFormula>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4DC78624-5319-4031-B1C2-493145D03132}" name="TÉRMINO PREV. (BASELINE)" dataDxfId="19"/>
-    <tableColumn id="18" xr3:uid="{4DF93A02-132B-4759-A432-9CA8B6508C90}" name="SEMANA" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{4DC78624-5319-4031-B1C2-493145D03132}" name="TÉRMINO PREV. (BASELINE)" dataDxfId="17"/>
+    <tableColumn id="18" xr3:uid="{4DF93A02-132B-4759-A432-9CA8B6508C90}" name="SEMANA" dataDxfId="16">
       <calculatedColumnFormula>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C57D6655-5CF4-4B9A-A67C-31241F5DC72D}" name="RESPONSÁVEL" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{D104C09E-C921-4B27-A02D-B5B54E0475C1}" name="DISCIPLINA" dataDxfId="17"/>
-    <tableColumn id="13" xr3:uid="{F0D9B4F9-EBAB-4F73-A8C5-C7D317CF207D}" name="EMPRESA" dataDxfId="16"/>
-    <tableColumn id="14" xr3:uid="{63E49F65-A154-4361-87FC-104A847190DC}" name="TÉRMINO PREVISTO" dataDxfId="15"/>
-    <tableColumn id="15" xr3:uid="{0C1B0E76-8A6B-471B-983E-1BC8BF383DB3}" name="TÉRMINO REAL" dataDxfId="14"/>
-    <tableColumn id="16" xr3:uid="{7E90AD6D-C70F-4E00-A6C8-54C0F9D79A8C}" name="STATUS" dataDxfId="13">
+    <tableColumn id="11" xr3:uid="{C57D6655-5CF4-4B9A-A67C-31241F5DC72D}" name="RESPONSÁVEL" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{D104C09E-C921-4B27-A02D-B5B54E0475C1}" name="DISCIPLINA" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{F0D9B4F9-EBAB-4F73-A8C5-C7D317CF207D}" name="EMPRESA" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{63E49F65-A154-4361-87FC-104A847190DC}" name="TÉRMINO PREVISTO" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{0C1B0E76-8A6B-471B-983E-1BC8BF383DB3}" name="TÉRMINO REAL" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{7E90AD6D-C70F-4E00-A6C8-54C0F9D79A8C}" name="STATUS" dataDxfId="10">
       <calculatedColumnFormula>IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{1DD489EB-9393-4846-8D4D-BEF17D7FA138}" name="OBSERVAÇÕES" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{435CC5A0-634A-4EA9-A219-7FF662FF83FE}" name="Coluna1" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{1DD489EB-9393-4846-8D4D-BEF17D7FA138}" name="OBSERVAÇÕES" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{435CC5A0-634A-4EA9-A219-7FF662FF83FE}" name="Coluna1" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9542,9 +9573,9 @@
   <dimension ref="A1:G1284"/>
   <sheetViews>
     <sheetView zoomScale="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A938" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E81" sqref="E81"/>
-      <selection pane="bottomLeft" activeCell="B949" sqref="B949"/>
+      <selection pane="bottomLeft" activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -24861,7 +24892,7 @@
       </c>
       <c r="G719" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="2:7" x14ac:dyDescent="0.35">
@@ -24987,7 +25018,7 @@
       </c>
       <c r="G725" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="2:7" x14ac:dyDescent="0.35">
@@ -28746,7 +28777,7 @@
       </c>
       <c r="G904" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="2:7" x14ac:dyDescent="0.35">
@@ -29019,7 +29050,7 @@
       </c>
       <c r="G917" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="2:7" x14ac:dyDescent="0.35">
@@ -34013,7 +34044,7 @@
       <c r="F1155" s="48" t="s">
         <v>2074</v>
       </c>
-      <c r="G1155" s="72">
+      <c r="G1155" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34032,7 +34063,7 @@
       <c r="F1156" s="48" t="s">
         <v>2086</v>
       </c>
-      <c r="G1156" s="72">
+      <c r="G1156" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34051,7 +34082,7 @@
       <c r="F1157" s="48" t="s">
         <v>2081</v>
       </c>
-      <c r="G1157" s="72">
+      <c r="G1157" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34070,7 +34101,7 @@
       <c r="F1158" s="48" t="s">
         <v>2134</v>
       </c>
-      <c r="G1158" s="72">
+      <c r="G1158" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34089,7 +34120,7 @@
       <c r="F1159" s="45" t="s">
         <v>2157</v>
       </c>
-      <c r="G1159" s="72">
+      <c r="G1159" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34108,7 +34139,7 @@
       <c r="F1160" s="48" t="s">
         <v>2081</v>
       </c>
-      <c r="G1160" s="72">
+      <c r="G1160" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34127,7 +34158,7 @@
       <c r="F1161" s="48" t="s">
         <v>2134</v>
       </c>
-      <c r="G1161" s="72">
+      <c r="G1161" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34146,7 +34177,7 @@
       <c r="F1162" s="48" t="s">
         <v>2092</v>
       </c>
-      <c r="G1162" s="72">
+      <c r="G1162" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34165,7 +34196,7 @@
       <c r="F1163" s="48" t="s">
         <v>2078</v>
       </c>
-      <c r="G1163" s="72">
+      <c r="G1163" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34184,7 +34215,7 @@
       <c r="F1164" s="48" t="s">
         <v>2157</v>
       </c>
-      <c r="G1164" s="72">
+      <c r="G1164" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34203,7 +34234,7 @@
       <c r="F1165" s="45" t="s">
         <v>2063</v>
       </c>
-      <c r="G1165" s="72">
+      <c r="G1165" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34222,7 +34253,7 @@
       <c r="F1166" s="48" t="s">
         <v>2157</v>
       </c>
-      <c r="G1166" s="72">
+      <c r="G1166" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34241,7 +34272,7 @@
       <c r="F1167" s="48" t="s">
         <v>2158</v>
       </c>
-      <c r="G1167" s="72">
+      <c r="G1167" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34260,7 +34291,7 @@
       <c r="F1168" s="48" t="s">
         <v>2063</v>
       </c>
-      <c r="G1168" s="72">
+      <c r="G1168" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34279,7 +34310,7 @@
       <c r="F1169" s="48" t="s">
         <v>2075</v>
       </c>
-      <c r="G1169" s="72">
+      <c r="G1169" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34298,7 +34329,7 @@
       <c r="F1170" s="48" t="s">
         <v>2147</v>
       </c>
-      <c r="G1170" s="72">
+      <c r="G1170" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34317,7 +34348,7 @@
       <c r="F1171" s="45" t="s">
         <v>2144</v>
       </c>
-      <c r="G1171" s="72">
+      <c r="G1171" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34336,7 +34367,7 @@
       <c r="F1172" s="48" t="s">
         <v>2146</v>
       </c>
-      <c r="G1172" s="72">
+      <c r="G1172" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34355,7 +34386,7 @@
       <c r="F1173" s="48" t="s">
         <v>2143</v>
       </c>
-      <c r="G1173" s="72">
+      <c r="G1173" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34374,7 +34405,7 @@
       <c r="F1174" s="48" t="s">
         <v>2144</v>
       </c>
-      <c r="G1174" s="72">
+      <c r="G1174" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34393,7 +34424,7 @@
       <c r="F1175" s="45" t="s">
         <v>2151</v>
       </c>
-      <c r="G1175" s="72">
+      <c r="G1175" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34412,7 +34443,7 @@
       <c r="F1176" s="48" t="s">
         <v>2136</v>
       </c>
-      <c r="G1176" s="72">
+      <c r="G1176" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34431,7 +34462,7 @@
       <c r="F1177" s="48" t="s">
         <v>2106</v>
       </c>
-      <c r="G1177" s="72">
+      <c r="G1177" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34450,7 +34481,7 @@
       <c r="F1178" s="48" t="s">
         <v>2151</v>
       </c>
-      <c r="G1178" s="72">
+      <c r="G1178" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34469,7 +34500,7 @@
       <c r="F1179" s="45" t="s">
         <v>2156</v>
       </c>
-      <c r="G1179" s="72">
+      <c r="G1179" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34488,7 +34519,7 @@
       <c r="F1180" s="48" t="s">
         <v>2148</v>
       </c>
-      <c r="G1180" s="72">
+      <c r="G1180" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34507,7 +34538,7 @@
       <c r="F1181" s="48" t="s">
         <v>2152</v>
       </c>
-      <c r="G1181" s="72">
+      <c r="G1181" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34526,7 +34557,7 @@
       <c r="F1182" s="48" t="s">
         <v>2156</v>
       </c>
-      <c r="G1182" s="72">
+      <c r="G1182" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34545,7 +34576,7 @@
       <c r="F1183" s="45" t="s">
         <v>2154</v>
       </c>
-      <c r="G1183" s="72">
+      <c r="G1183" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34564,7 +34595,7 @@
       <c r="F1184" s="45" t="s">
         <v>2154</v>
       </c>
-      <c r="G1184" s="72">
+      <c r="G1184" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34583,7 +34614,7 @@
       <c r="F1185" s="48" t="s">
         <v>2156</v>
       </c>
-      <c r="G1185" s="72">
+      <c r="G1185" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34602,7 +34633,7 @@
       <c r="F1186" s="48" t="s">
         <v>2051</v>
       </c>
-      <c r="G1186" s="72">
+      <c r="G1186" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34621,7 +34652,7 @@
       <c r="F1187" s="48" t="s">
         <v>2153</v>
       </c>
-      <c r="G1187" s="72">
+      <c r="G1187" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34640,7 +34671,7 @@
       <c r="F1188" s="48" t="s">
         <v>2154</v>
       </c>
-      <c r="G1188" s="72">
+      <c r="G1188" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34659,7 +34690,7 @@
       <c r="F1189" s="48" t="s">
         <v>2154</v>
       </c>
-      <c r="G1189" s="72">
+      <c r="G1189" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34678,7 +34709,7 @@
       <c r="F1190" s="45" t="s">
         <v>2015</v>
       </c>
-      <c r="G1190" s="72">
+      <c r="G1190" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34697,7 +34728,7 @@
       <c r="F1191" s="48" t="s">
         <v>1937</v>
       </c>
-      <c r="G1191" s="72">
+      <c r="G1191" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34716,7 +34747,7 @@
       <c r="F1192" s="48" t="s">
         <v>1996</v>
       </c>
-      <c r="G1192" s="72">
+      <c r="G1192" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34735,7 +34766,7 @@
       <c r="F1193" s="48" t="s">
         <v>1972</v>
       </c>
-      <c r="G1193" s="72">
+      <c r="G1193" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34754,7 +34785,7 @@
       <c r="F1194" s="48" t="s">
         <v>2015</v>
       </c>
-      <c r="G1194" s="72">
+      <c r="G1194" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34773,7 +34804,7 @@
       <c r="F1195" s="48" t="s">
         <v>2015</v>
       </c>
-      <c r="G1195" s="72">
+      <c r="G1195" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34792,7 +34823,7 @@
       <c r="F1196" s="45" t="s">
         <v>1969</v>
       </c>
-      <c r="G1196" s="72">
+      <c r="G1196" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34811,7 +34842,7 @@
       <c r="F1197" s="48" t="s">
         <v>2026</v>
       </c>
-      <c r="G1197" s="72">
+      <c r="G1197" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34830,7 +34861,7 @@
       <c r="F1198" s="48" t="s">
         <v>1998</v>
       </c>
-      <c r="G1198" s="72">
+      <c r="G1198" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34849,7 +34880,7 @@
       <c r="F1199" s="48" t="s">
         <v>1969</v>
       </c>
-      <c r="G1199" s="72">
+      <c r="G1199" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34868,7 +34899,7 @@
       <c r="F1200" s="48" t="s">
         <v>1937</v>
       </c>
-      <c r="G1200" s="72">
+      <c r="G1200" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34887,7 +34918,7 @@
       <c r="F1201" s="48" t="s">
         <v>1937</v>
       </c>
-      <c r="G1201" s="72">
+      <c r="G1201" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34906,7 +34937,7 @@
       <c r="F1202" s="45" t="s">
         <v>2127</v>
       </c>
-      <c r="G1202" s="72">
+      <c r="G1202" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34925,7 +34956,7 @@
       <c r="F1203" s="48" t="s">
         <v>2124</v>
       </c>
-      <c r="G1203" s="72">
+      <c r="G1203" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34944,7 +34975,7 @@
       <c r="F1204" s="48" t="s">
         <v>2124</v>
       </c>
-      <c r="G1204" s="72">
+      <c r="G1204" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34963,7 +34994,7 @@
       <c r="F1205" s="48" t="s">
         <v>2127</v>
       </c>
-      <c r="G1205" s="72">
+      <c r="G1205" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -34982,7 +35013,7 @@
       <c r="F1206" s="48" t="s">
         <v>2127</v>
       </c>
-      <c r="G1206" s="72">
+      <c r="G1206" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35001,7 +35032,7 @@
       <c r="F1207" s="48" t="s">
         <v>2127</v>
       </c>
-      <c r="G1207" s="72">
+      <c r="G1207" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35020,7 +35051,7 @@
       <c r="F1208" s="48" t="s">
         <v>2127</v>
       </c>
-      <c r="G1208" s="72">
+      <c r="G1208" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35039,7 +35070,7 @@
       <c r="F1209" s="45" t="s">
         <v>2127</v>
       </c>
-      <c r="G1209" s="72">
+      <c r="G1209" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35058,7 +35089,7 @@
       <c r="F1210" s="48" t="s">
         <v>2124</v>
       </c>
-      <c r="G1210" s="72">
+      <c r="G1210" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35077,7 +35108,7 @@
       <c r="F1211" s="48" t="s">
         <v>2124</v>
       </c>
-      <c r="G1211" s="72">
+      <c r="G1211" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35096,7 +35127,7 @@
       <c r="F1212" s="48" t="s">
         <v>2127</v>
       </c>
-      <c r="G1212" s="72">
+      <c r="G1212" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35115,7 +35146,7 @@
       <c r="F1213" s="48" t="s">
         <v>2127</v>
       </c>
-      <c r="G1213" s="72">
+      <c r="G1213" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35134,7 +35165,7 @@
       <c r="F1214" s="45" t="s">
         <v>2122</v>
       </c>
-      <c r="G1214" s="72">
+      <c r="G1214" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35153,7 +35184,7 @@
       <c r="F1215" s="48" t="s">
         <v>2124</v>
       </c>
-      <c r="G1215" s="72">
+      <c r="G1215" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35172,7 +35203,7 @@
       <c r="F1216" s="48" t="s">
         <v>2127</v>
       </c>
-      <c r="G1216" s="72">
+      <c r="G1216" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35191,7 +35222,7 @@
       <c r="F1217" s="48" t="s">
         <v>2127</v>
       </c>
-      <c r="G1217" s="72">
+      <c r="G1217" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35210,7 +35241,7 @@
       <c r="F1218" s="48" t="s">
         <v>2127</v>
       </c>
-      <c r="G1218" s="72">
+      <c r="G1218" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35229,7 +35260,7 @@
       <c r="F1219" s="48" t="s">
         <v>2122</v>
       </c>
-      <c r="G1219" s="72">
+      <c r="G1219" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35248,7 +35279,7 @@
       <c r="F1220" s="48" t="s">
         <v>2122</v>
       </c>
-      <c r="G1220" s="72">
+      <c r="G1220" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35267,7 +35298,7 @@
       <c r="F1221" s="45" t="s">
         <v>2122</v>
       </c>
-      <c r="G1221" s="72">
+      <c r="G1221" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35286,7 +35317,7 @@
       <c r="F1222" s="48" t="s">
         <v>2124</v>
       </c>
-      <c r="G1222" s="72">
+      <c r="G1222" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35305,7 +35336,7 @@
       <c r="F1223" s="48" t="s">
         <v>2127</v>
       </c>
-      <c r="G1223" s="72">
+      <c r="G1223" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35324,7 +35355,7 @@
       <c r="F1224" s="48" t="s">
         <v>2127</v>
       </c>
-      <c r="G1224" s="72">
+      <c r="G1224" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35343,7 +35374,7 @@
       <c r="F1225" s="48" t="s">
         <v>2127</v>
       </c>
-      <c r="G1225" s="72">
+      <c r="G1225" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35362,7 +35393,7 @@
       <c r="F1226" s="48" t="s">
         <v>2122</v>
       </c>
-      <c r="G1226" s="72">
+      <c r="G1226" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35381,7 +35412,7 @@
       <c r="F1227" s="48" t="s">
         <v>2122</v>
       </c>
-      <c r="G1227" s="72">
+      <c r="G1227" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35400,7 +35431,7 @@
       <c r="F1228" s="45" t="s">
         <v>2122</v>
       </c>
-      <c r="G1228" s="72">
+      <c r="G1228" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35419,7 +35450,7 @@
       <c r="F1229" s="48" t="s">
         <v>2127</v>
       </c>
-      <c r="G1229" s="72">
+      <c r="G1229" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35438,7 +35469,7 @@
       <c r="F1230" s="48" t="s">
         <v>2127</v>
       </c>
-      <c r="G1230" s="72">
+      <c r="G1230" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35457,7 +35488,7 @@
       <c r="F1231" s="48" t="s">
         <v>2127</v>
       </c>
-      <c r="G1231" s="72">
+      <c r="G1231" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35476,7 +35507,7 @@
       <c r="F1232" s="48" t="s">
         <v>2122</v>
       </c>
-      <c r="G1232" s="72">
+      <c r="G1232" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35495,7 +35526,7 @@
       <c r="F1233" s="48" t="s">
         <v>2122</v>
       </c>
-      <c r="G1233" s="72">
+      <c r="G1233" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35514,7 +35545,7 @@
       <c r="F1234" s="48" t="s">
         <v>2122</v>
       </c>
-      <c r="G1234" s="72">
+      <c r="G1234" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35533,7 +35564,7 @@
       <c r="F1235" s="45" t="s">
         <v>2125</v>
       </c>
-      <c r="G1235" s="72">
+      <c r="G1235" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35552,7 +35583,7 @@
       <c r="F1236" s="48" t="s">
         <v>2139</v>
       </c>
-      <c r="G1236" s="72">
+      <c r="G1236" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35571,7 +35602,7 @@
       <c r="F1237" s="48" t="s">
         <v>2139</v>
       </c>
-      <c r="G1237" s="72">
+      <c r="G1237" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35590,7 +35621,7 @@
       <c r="F1238" s="48" t="s">
         <v>2139</v>
       </c>
-      <c r="G1238" s="72">
+      <c r="G1238" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35609,7 +35640,7 @@
       <c r="F1239" s="48" t="s">
         <v>2139</v>
       </c>
-      <c r="G1239" s="72">
+      <c r="G1239" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35628,7 +35659,7 @@
       <c r="F1240" s="48" t="s">
         <v>2125</v>
       </c>
-      <c r="G1240" s="72">
+      <c r="G1240" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35647,7 +35678,7 @@
       <c r="F1241" s="48" t="s">
         <v>2125</v>
       </c>
-      <c r="G1241" s="72">
+      <c r="G1241" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35666,7 +35697,7 @@
       <c r="F1242" s="45" t="s">
         <v>2112</v>
       </c>
-      <c r="G1242" s="72">
+      <c r="G1242" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35685,7 +35716,7 @@
       <c r="F1243" s="48" t="s">
         <v>2125</v>
       </c>
-      <c r="G1243" s="72">
+      <c r="G1243" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35704,7 +35735,7 @@
       <c r="F1244" s="48" t="s">
         <v>2155</v>
       </c>
-      <c r="G1244" s="72">
+      <c r="G1244" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35723,7 +35754,7 @@
       <c r="F1245" s="48" t="s">
         <v>2155</v>
       </c>
-      <c r="G1245" s="72">
+      <c r="G1245" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35742,7 +35773,7 @@
       <c r="F1246" s="48" t="s">
         <v>2155</v>
       </c>
-      <c r="G1246" s="72">
+      <c r="G1246" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35761,7 +35792,7 @@
       <c r="F1247" s="48" t="s">
         <v>2155</v>
       </c>
-      <c r="G1247" s="72">
+      <c r="G1247" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35780,7 +35811,7 @@
       <c r="F1248" s="48" t="s">
         <v>2112</v>
       </c>
-      <c r="G1248" s="72">
+      <c r="G1248" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35799,7 +35830,7 @@
       <c r="F1249" s="45" t="s">
         <v>2066</v>
       </c>
-      <c r="G1249" s="72">
+      <c r="G1249" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35818,7 +35849,7 @@
       <c r="F1250" s="48" t="s">
         <v>2112</v>
       </c>
-      <c r="G1250" s="72">
+      <c r="G1250" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35837,7 +35868,7 @@
       <c r="F1251" s="48" t="s">
         <v>2112</v>
       </c>
-      <c r="G1251" s="72">
+      <c r="G1251" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35856,7 +35887,7 @@
       <c r="F1252" s="48" t="s">
         <v>2066</v>
       </c>
-      <c r="G1252" s="72">
+      <c r="G1252" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35875,7 +35906,7 @@
       <c r="F1253" s="48" t="s">
         <v>2066</v>
       </c>
-      <c r="G1253" s="72">
+      <c r="G1253" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35894,7 +35925,7 @@
       <c r="F1254" s="48" t="s">
         <v>2066</v>
       </c>
-      <c r="G1254" s="72">
+      <c r="G1254" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35913,7 +35944,7 @@
       <c r="F1255" s="48" t="s">
         <v>2066</v>
       </c>
-      <c r="G1255" s="72">
+      <c r="G1255" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35932,7 +35963,7 @@
       <c r="F1256" s="45" t="s">
         <v>2068</v>
       </c>
-      <c r="G1256" s="72">
+      <c r="G1256" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35951,7 +35982,7 @@
       <c r="F1257" s="48" t="s">
         <v>2067</v>
       </c>
-      <c r="G1257" s="72">
+      <c r="G1257" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35970,7 +36001,7 @@
       <c r="F1258" s="48" t="s">
         <v>2067</v>
       </c>
-      <c r="G1258" s="72">
+      <c r="G1258" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -35989,7 +36020,7 @@
       <c r="F1259" s="48" t="s">
         <v>2067</v>
       </c>
-      <c r="G1259" s="72">
+      <c r="G1259" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -36008,7 +36039,7 @@
       <c r="F1260" s="48" t="s">
         <v>2068</v>
       </c>
-      <c r="G1260" s="72">
+      <c r="G1260" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -36027,7 +36058,7 @@
       <c r="F1261" s="48" t="s">
         <v>2068</v>
       </c>
-      <c r="G1261" s="72">
+      <c r="G1261" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -36046,7 +36077,7 @@
       <c r="F1262" s="48" t="s">
         <v>2068</v>
       </c>
-      <c r="G1262" s="72">
+      <c r="G1262" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -36065,7 +36096,7 @@
       <c r="F1263" s="45" t="s">
         <v>2036</v>
       </c>
-      <c r="G1263" s="72">
+      <c r="G1263" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -36084,7 +36115,7 @@
       <c r="F1264" s="48" t="s">
         <v>2160</v>
       </c>
-      <c r="G1264" s="72">
+      <c r="G1264" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -36103,7 +36134,7 @@
       <c r="F1265" s="48" t="s">
         <v>2036</v>
       </c>
-      <c r="G1265" s="72">
+      <c r="G1265" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -36122,7 +36153,7 @@
       <c r="F1266" s="45" t="s">
         <v>2161</v>
       </c>
-      <c r="G1266" s="72">
+      <c r="G1266" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -36141,7 +36172,7 @@
       <c r="F1267" s="48" t="s">
         <v>2162</v>
       </c>
-      <c r="G1267" s="72">
+      <c r="G1267" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -36160,7 +36191,7 @@
       <c r="F1268" s="48" t="s">
         <v>2161</v>
       </c>
-      <c r="G1268" s="72">
+      <c r="G1268" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -36179,7 +36210,7 @@
       <c r="F1269" s="45" t="s">
         <v>1925</v>
       </c>
-      <c r="G1269" s="72">
+      <c r="G1269" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -36198,7 +36229,7 @@
       <c r="F1270" s="48" t="s">
         <v>1925</v>
       </c>
-      <c r="G1270" s="72">
+      <c r="G1270" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -36217,7 +36248,7 @@
       <c r="F1271" s="48" t="s">
         <v>1925</v>
       </c>
-      <c r="G1271" s="72">
+      <c r="G1271" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -36265,7 +36296,7 @@
   </sheetData>
   <sheetProtection autoFilter="0"/>
   <conditionalFormatting sqref="B1272:B1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -36305,17 +36336,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="54" zoomScaleNormal="37" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="54" zoomScaleNormal="37" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" style="77" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" style="76" customWidth="1"/>
     <col min="4" max="4" width="46" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.5546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="50.33203125" style="4" customWidth="1"/>
@@ -36337,7 +36368,7 @@
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
-      <c r="C1" s="74"/>
+      <c r="C1" s="73"/>
       <c r="D1" s="27"/>
       <c r="E1" s="26"/>
       <c r="F1" s="27"/>
@@ -36357,7 +36388,7 @@
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
       <c r="B2" s="31"/>
-      <c r="C2" s="75"/>
+      <c r="C2" s="74"/>
       <c r="D2" s="32"/>
       <c r="E2" s="31"/>
       <c r="F2" s="32"/>
@@ -36377,7 +36408,7 @@
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
-      <c r="C3" s="75"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="32"/>
       <c r="E3" s="31"/>
       <c r="F3" s="32"/>
@@ -36397,7 +36428,7 @@
     <row r="4" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
       <c r="B4" s="31"/>
-      <c r="C4" s="75"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="32"/>
       <c r="E4" s="31"/>
       <c r="F4" s="32"/>
@@ -36417,7 +36448,7 @@
     <row r="5" spans="1:28" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="35"/>
-      <c r="C5" s="76"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="36"/>
       <c r="E5" s="35"/>
       <c r="F5" s="36"/>
@@ -36498,7 +36529,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>713</v>
@@ -36511,10 +36542,10 @@
         <v>2382</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>2387</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>2385</v>
+        <v>2396</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>2393</v>
       </c>
       <c r="H7" s="18">
         <v>45418</v>
@@ -36523,25 +36554,24 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 24/08/23</v>
       </c>
-      <c r="J7" s="68">
-        <v>45166</v>
-      </c>
-      <c r="K7" s="63">
-        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
-        <v>8</v>
-      </c>
-      <c r="L7" s="60"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="60" t="s">
+        <v>2395</v>
+      </c>
       <c r="M7" s="60" t="s">
         <v>2383</v>
       </c>
       <c r="N7" s="61" t="s">
-        <v>2384</v>
-      </c>
-      <c r="O7" s="62"/>
+        <v>2394</v>
+      </c>
+      <c r="O7" s="62">
+        <v>45425</v>
+      </c>
       <c r="P7" s="59"/>
       <c r="Q7" s="20" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>À definir</v>
+        <v>No Prazo</v>
       </c>
       <c r="R7" s="43"/>
       <c r="S7" s="66">
@@ -36553,9 +36583,9 @@
         <v>2</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>2386</v>
-      </c>
-      <c r="C8" s="73" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C8" s="72" t="s">
         <v>721</v>
       </c>
       <c r="D8" s="17" t="str">
@@ -36566,10 +36596,10 @@
         <v>2382</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>2387</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>2385</v>
+        <v>2396</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>2393</v>
       </c>
       <c r="H8" s="18">
         <v>45418</v>
@@ -36578,25 +36608,24 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 28/08/23</v>
       </c>
-      <c r="J8" s="68">
-        <v>45168</v>
-      </c>
-      <c r="K8" s="63">
-        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
-        <v>9</v>
-      </c>
-      <c r="L8" s="60"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="60" t="s">
+        <v>2395</v>
+      </c>
       <c r="M8" s="60" t="s">
         <v>2383</v>
       </c>
       <c r="N8" s="61" t="s">
-        <v>2384</v>
-      </c>
-      <c r="O8" s="62"/>
+        <v>2394</v>
+      </c>
+      <c r="O8" s="62">
+        <v>45425</v>
+      </c>
       <c r="P8" s="59"/>
       <c r="Q8" s="20" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>À definir</v>
+        <v>No Prazo</v>
       </c>
       <c r="R8" s="43"/>
       <c r="S8" s="66">
@@ -36608,7 +36637,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>728</v>
@@ -36621,10 +36650,10 @@
         <v>2382</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>2387</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>2385</v>
+        <v>2396</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>2393</v>
       </c>
       <c r="H9" s="18">
         <v>45418</v>
@@ -36633,25 +36662,24 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qua 30/08/23</v>
       </c>
-      <c r="J9" s="68">
-        <v>45170</v>
-      </c>
-      <c r="K9" s="63">
-        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
-        <v>9</v>
-      </c>
-      <c r="L9" s="60"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="60" t="s">
+        <v>2395</v>
+      </c>
       <c r="M9" s="60" t="s">
         <v>2383</v>
       </c>
       <c r="N9" s="61" t="s">
-        <v>2384</v>
-      </c>
-      <c r="O9" s="62"/>
+        <v>2394</v>
+      </c>
+      <c r="O9" s="62">
+        <v>45425</v>
+      </c>
       <c r="P9" s="59"/>
       <c r="Q9" s="20" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>À definir</v>
+        <v>No Prazo</v>
       </c>
       <c r="R9" s="43"/>
       <c r="S9" s="66">
@@ -36666,9 +36694,9 @@
         <v>4</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>2386</v>
-      </c>
-      <c r="C10" s="73" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C10" s="72" t="s">
         <v>735</v>
       </c>
       <c r="D10" s="17" t="str">
@@ -36676,13 +36704,13 @@
         <v>Linha 8"-S3-14E-5333-H</v>
       </c>
       <c r="E10" s="16" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>2387</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>2388</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>2389</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>2390</v>
       </c>
       <c r="H10" s="18">
         <v>45418</v>
@@ -36691,15 +36719,10 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 01/01/24</v>
       </c>
-      <c r="J10" s="68">
-        <v>45414</v>
-      </c>
-      <c r="K10" s="63">
-        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
-        <v>9</v>
-      </c>
+      <c r="J10" s="68"/>
+      <c r="K10" s="63"/>
       <c r="L10" s="60" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="M10" s="60" t="s">
         <v>2383</v>
@@ -36723,9 +36746,9 @@
         <v>5</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>2386</v>
-      </c>
-      <c r="C11" s="73" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C11" s="72" t="s">
         <v>742</v>
       </c>
       <c r="D11" s="17" t="str">
@@ -36733,13 +36756,13 @@
         <v>Linha 8"-S3-14E-5336-H</v>
       </c>
       <c r="E11" s="16" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>2387</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>2388</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>2389</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>2390</v>
       </c>
       <c r="H11" s="18">
         <v>45418</v>
@@ -36748,15 +36771,10 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 04/01/24</v>
       </c>
-      <c r="J11" s="68">
-        <v>45418</v>
-      </c>
-      <c r="K11" s="63">
-        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
-        <v>9</v>
-      </c>
+      <c r="J11" s="68"/>
+      <c r="K11" s="63"/>
       <c r="L11" s="60" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="M11" s="60" t="s">
         <v>2383</v>
@@ -36780,9 +36798,9 @@
         <v>6</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>2386</v>
-      </c>
-      <c r="C12" s="73" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C12" s="72" t="s">
         <v>792</v>
       </c>
       <c r="D12" s="17" t="str">
@@ -36790,13 +36808,13 @@
         <v>Linha 8'' -S3-14E-5355/5356/5357-H</v>
       </c>
       <c r="E12" s="16" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>2388</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>2392</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>2390</v>
       </c>
       <c r="H12" s="18">
         <v>45418</v>
@@ -36805,15 +36823,10 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Seg 08/04/24</v>
       </c>
-      <c r="J12" s="68">
-        <v>45408</v>
-      </c>
-      <c r="K12" s="63">
-        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
-        <v>9</v>
-      </c>
+      <c r="J12" s="68"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="60" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="M12" s="60" t="s">
         <v>2383</v>
@@ -36837,9 +36850,9 @@
         <v>7</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>2393</v>
-      </c>
-      <c r="C13" s="73" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C13" s="72" t="s">
         <v>530</v>
       </c>
       <c r="D13" s="17" t="str">
@@ -36847,13 +36860,13 @@
         <v>TIE-IN_133</v>
       </c>
       <c r="E13" s="16" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>2392</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>2388</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>2394</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>2390</v>
       </c>
       <c r="H13" s="18">
         <v>45418</v>
@@ -36862,15 +36875,10 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Ter 14/05/24</v>
       </c>
-      <c r="J13" s="68">
-        <v>45426</v>
-      </c>
-      <c r="K13" s="63">
-        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
-        <v>9</v>
-      </c>
+      <c r="J13" s="68"/>
+      <c r="K13" s="63"/>
       <c r="L13" s="60" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="M13" s="60" t="s">
         <v>2383</v>
@@ -36894,9 +36902,9 @@
         <v>8</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>2393</v>
-      </c>
-      <c r="C14" s="73" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C14" s="72" t="s">
         <v>982</v>
       </c>
       <c r="D14" s="17" t="str">
@@ -36904,13 +36912,13 @@
         <v>Tie in 108</v>
       </c>
       <c r="E14" s="16" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>2392</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>2388</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>2394</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>2390</v>
       </c>
       <c r="H14" s="18">
         <v>45418</v>
@@ -36919,15 +36927,10 @@
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Sex 17/05/24</v>
       </c>
-      <c r="J14" s="68">
-        <v>45432</v>
-      </c>
-      <c r="K14" s="63">
-        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
-        <v>9</v>
-      </c>
+      <c r="J14" s="68"/>
+      <c r="K14" s="63"/>
       <c r="L14" s="60" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="M14" s="60" t="s">
         <v>2383</v>
@@ -36950,33 +36953,48 @@
       <c r="A15" s="42">
         <v>9</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="73"/>
+      <c r="B15" s="16" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>951</v>
+      </c>
       <c r="D15" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
-        <v/>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="18"/>
+        <v>Linha 14"-S3-14E-5314-H</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>2387</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>2388</v>
+      </c>
+      <c r="H15" s="18">
+        <v>45425</v>
+      </c>
       <c r="I15" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
-        <v/>
+        <v>Dom 24/09/23</v>
       </c>
       <c r="J15" s="68"/>
-      <c r="K15" s="63">
-        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
-        <v>9</v>
-      </c>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="61"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="60" t="s">
+        <v>2389</v>
+      </c>
+      <c r="M15" s="60" t="s">
+        <v>2383</v>
+      </c>
+      <c r="N15" s="61" t="s">
+        <v>2384</v>
+      </c>
       <c r="O15" s="62"/>
       <c r="P15" s="59"/>
       <c r="Q15" s="20" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v/>
+        <v>À definir</v>
       </c>
       <c r="R15" s="43"/>
       <c r="S15" s="66">
@@ -36987,33 +37005,48 @@
       <c r="A16" s="42">
         <v>10</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="73"/>
+      <c r="B16" s="16" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>940</v>
+      </c>
       <c r="D16" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
-        <v/>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="18"/>
+        <v>Linha 20"-S3-14E-5313-H</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>2387</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>2388</v>
+      </c>
+      <c r="H16" s="18">
+        <v>45425</v>
+      </c>
       <c r="I16" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
-        <v/>
+        <v>Ter 05/12/23</v>
       </c>
       <c r="J16" s="68"/>
-      <c r="K16" s="63">
-        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
-        <v>8</v>
-      </c>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="60" t="s">
+        <v>2389</v>
+      </c>
+      <c r="M16" s="60" t="s">
+        <v>2383</v>
+      </c>
+      <c r="N16" s="61" t="s">
+        <v>2384</v>
+      </c>
       <c r="O16" s="62"/>
       <c r="P16" s="59"/>
       <c r="Q16" s="20" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v/>
+        <v>À definir</v>
       </c>
       <c r="R16" s="43"/>
       <c r="S16" s="66">
@@ -37024,67 +37057,164 @@
       <c r="A17" s="42">
         <v>11</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="73"/>
+      <c r="B17" s="16" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>780</v>
+      </c>
       <c r="D17" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
-        <v/>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="18"/>
+        <v>Linha 10"-S3-14E-5334-H</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>2398</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>2388</v>
+      </c>
+      <c r="H17" s="18">
+        <v>45425</v>
+      </c>
       <c r="I17" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
-        <v/>
+        <v>Qua 17/04/24</v>
       </c>
       <c r="J17" s="68"/>
-      <c r="K17" s="63">
-        <f>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</f>
-        <v>8</v>
-      </c>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="61"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="60" t="s">
+        <v>2389</v>
+      </c>
+      <c r="M17" s="60" t="s">
+        <v>2383</v>
+      </c>
+      <c r="N17" s="61" t="s">
+        <v>2384</v>
+      </c>
       <c r="O17" s="62"/>
       <c r="P17" s="59"/>
       <c r="Q17" s="20" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v/>
+        <v>À definir</v>
       </c>
       <c r="R17" s="43"/>
       <c r="S17" s="66">
         <v>45343</v>
       </c>
     </row>
+    <row r="18" spans="1:19" s="21" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="42">
+        <v>12</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="D18" s="77" t="str">
+        <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
+        <v>Linha 10"-S3-14E-5332-H</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>2398</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>2388</v>
+      </c>
+      <c r="H18" s="18">
+        <v>45425</v>
+      </c>
+      <c r="I18" s="78" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v>Qui 11/04/24</v>
+      </c>
+      <c r="J18" s="68"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="60" t="s">
+        <v>2389</v>
+      </c>
+      <c r="M18" s="60" t="s">
+        <v>2383</v>
+      </c>
+      <c r="N18" s="61" t="s">
+        <v>2384</v>
+      </c>
+      <c r="O18" s="62"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="20" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v>À definir</v>
+      </c>
+      <c r="R18" s="79"/>
+      <c r="S18" s="66"/>
+    </row>
+    <row r="19" spans="1:19" s="21" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="42">
+        <v>13</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="77" t="str">
+        <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
+        <v/>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="78" t="str">
+        <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
+        <v/>
+      </c>
+      <c r="J19" s="68"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="20" t="str">
+        <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
+        <v/>
+      </c>
+      <c r="R19" s="79"/>
+      <c r="S19" s="66"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
-  <conditionalFormatting sqref="C10:C17 C8">
-    <cfRule type="duplicateValues" dxfId="8" priority="153"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="154"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D17">
-    <cfRule type="duplicateValues" dxfId="6" priority="155"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q7:Q17">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+  <conditionalFormatting sqref="Q7:Q19">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Concluída"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"À definir"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Atrasada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"No Prazo"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C8 C10:C19">
+    <cfRule type="duplicateValues" dxfId="2" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="160"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D19">
+    <cfRule type="duplicateValues" dxfId="0" priority="163"/>
+  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Atividade Impactada" prompt="Fórmula, não há necessidade de preenchimento" sqref="D7:D17" xr:uid="{E680AA44-5F85-4EFF-803C-0597875D8EB8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data de Impacto" prompt="Fórmula, não há necessidade de preenchimento**" sqref="I7:I17" xr:uid="{A69A1786-106F-4AFC-AD5F-6B239B30DD8C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Fórmula, não há necessidade de preenchimento" sqref="Q7:Q17" xr:uid="{ED295417-BECD-49C1-A871-25A5B2CB03C2}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Categoria" prompt="Preencha o campo Categoria com as opções da lista suspensa!" sqref="E7:E17" xr:uid="{DDF1B8A4-511A-4753-BE39-953CE1B85D2D}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Atividade Impactada" prompt="Fórmula, não há necessidade de preenchimento" sqref="D7:D19" xr:uid="{E680AA44-5F85-4EFF-803C-0597875D8EB8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data de Impacto" prompt="Fórmula, não há necessidade de preenchimento**" sqref="I7:I19" xr:uid="{A69A1786-106F-4AFC-AD5F-6B239B30DD8C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Fórmula, não há necessidade de preenchimento" sqref="Q7:Q19" xr:uid="{ED295417-BECD-49C1-A871-25A5B2CB03C2}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Categoria" prompt="Preencha o campo Categoria com as opções da lista suspensa!" sqref="E7:E19" xr:uid="{DDF1B8A4-511A-4753-BE39-953CE1B85D2D}">
       <formula1>"Mão de Obra,Material,Meio Ambiente,Método,Máquina,Medida,HSE,Predecessora,Interface Operação"</formula1>
     </dataValidation>
   </dataValidations>
@@ -37642,6 +37772,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acfac000-05a5-4485-98d1-25ae80f2ac3c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C24875C6C3D6EA45AFCB982D3A0B37CD" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab8229b382e62ca7f68ac387406343b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e7640078-2807-4792-8712-763d4cb58983" xmlns:ns3="acfac000-05a5-4485-98d1-25ae80f2ac3c" xmlns:ns4="601ddd3e-e7e7-4b57-95a9-114b343b906a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f0b2ba43dd082ea35de1bb7fc9953a3" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e7640078-2807-4792-8712-763d4cb58983"/>
@@ -37865,28 +38016,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4F5EE1-56D7-4FFB-B992-DE488B5495B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
+    <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
+    <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acfac000-05a5-4485-98d1-25ae80f2ac3c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43EA2ECA-4B5E-4DC2-9087-8210D1FB9903}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37904,24 +38054,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4F5EE1-56D7-4FFB-B992-DE488B5495B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
-    <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
-    <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/programacao/15 -  Prontidão Médio Prazo.xlsx
+++ b/programacao/15 -  Prontidão Médio Prazo.xlsx
@@ -7812,7 +7812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8027,12 +8027,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8049,36 +8043,6 @@
     <cellStyle name="Vírgula 6" xfId="5" xr:uid="{CB1685CC-0710-4DF6-A7AD-58305EA87DC0}"/>
   </cellStyles>
   <dxfs count="35">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -8113,6 +8077,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -36571,7 +36565,7 @@
       <c r="P7" s="59"/>
       <c r="Q7" s="20" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
+        <v>Atrasada</v>
       </c>
       <c r="R7" s="43"/>
       <c r="S7" s="66">
@@ -36625,7 +36619,7 @@
       <c r="P8" s="59"/>
       <c r="Q8" s="20" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
+        <v>Atrasada</v>
       </c>
       <c r="R8" s="43"/>
       <c r="S8" s="66">
@@ -36679,7 +36673,7 @@
       <c r="P9" s="59"/>
       <c r="Q9" s="20" t="str">
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
-        <v>No Prazo</v>
+        <v>Atrasada</v>
       </c>
       <c r="R9" s="43"/>
       <c r="S9" s="66">
@@ -37115,7 +37109,7 @@
       <c r="C18" s="16" t="s">
         <v>774</v>
       </c>
-      <c r="D18" s="77" t="str">
+      <c r="D18" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 10"-S3-14E-5332-H</v>
       </c>
@@ -37131,7 +37125,7 @@
       <c r="H18" s="18">
         <v>45425</v>
       </c>
-      <c r="I18" s="78" t="str">
+      <c r="I18" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>Qui 11/04/24</v>
       </c>
@@ -37152,7 +37146,7 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v>À definir</v>
       </c>
-      <c r="R18" s="79"/>
+      <c r="R18" s="77"/>
       <c r="S18" s="66"/>
     </row>
     <row r="19" spans="1:19" s="21" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -37161,7 +37155,7 @@
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="77" t="str">
+      <c r="D19" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v/>
       </c>
@@ -37169,7 +37163,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="78" t="str">
+      <c r="I19" s="19" t="str">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v/>
       </c>
@@ -37184,31 +37178,31 @@
         <f ca="1">IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</f>
         <v/>
       </c>
-      <c r="R19" s="79"/>
+      <c r="R19" s="77"/>
       <c r="S19" s="66"/>
     </row>
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
+  <conditionalFormatting sqref="C8 C10:C19">
+    <cfRule type="duplicateValues" dxfId="6" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="160"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D19">
+    <cfRule type="duplicateValues" dxfId="4" priority="163"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q7:Q19">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Concluída"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"À definir"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"Atrasada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"No Prazo"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8 C10:C19">
-    <cfRule type="duplicateValues" dxfId="2" priority="159"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="160"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D19">
-    <cfRule type="duplicateValues" dxfId="0" priority="163"/>
   </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Atividade Impactada" prompt="Fórmula, não há necessidade de preenchimento" sqref="D7:D19" xr:uid="{E680AA44-5F85-4EFF-803C-0597875D8EB8}"/>
@@ -37772,27 +37766,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acfac000-05a5-4485-98d1-25ae80f2ac3c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C24875C6C3D6EA45AFCB982D3A0B37CD" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab8229b382e62ca7f68ac387406343b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e7640078-2807-4792-8712-763d4cb58983" xmlns:ns3="acfac000-05a5-4485-98d1-25ae80f2ac3c" xmlns:ns4="601ddd3e-e7e7-4b57-95a9-114b343b906a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f0b2ba43dd082ea35de1bb7fc9953a3" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e7640078-2807-4792-8712-763d4cb58983"/>
@@ -38016,27 +37989,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4F5EE1-56D7-4FFB-B992-DE488B5495B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
-    <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
-    <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="601ddd3e-e7e7-4b57-95a9-114b343b906a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acfac000-05a5-4485-98d1-25ae80f2ac3c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <DocumentCategory xmlns="e7640078-2807-4792-8712-763d4cb58983" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43EA2ECA-4B5E-4DC2-9087-8210D1FB9903}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38054,4 +38028,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1CA883-11A7-4649-9521-EA04A9666402}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4F5EE1-56D7-4FFB-B992-DE488B5495B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="601ddd3e-e7e7-4b57-95a9-114b343b906a"/>
+    <ds:schemaRef ds:uri="acfac000-05a5-4485-98d1-25ae80f2ac3c"/>
+    <ds:schemaRef ds:uri="e7640078-2807-4792-8712-763d4cb58983"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/programacao/15 -  Prontidão Médio Prazo.xlsx
+++ b/programacao/15 -  Prontidão Médio Prazo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -7724,7 +7724,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7948,22 +7948,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="20" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7972,7 +7963,7 @@
     <xf numFmtId="14" fontId="22" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7991,36 +7982,6 @@
     <cellStyle name="Vírgula 6" xfId="5" xr:uid="{CB1685CC-0710-4DF6-A7AD-58305EA87DC0}"/>
   </cellStyles>
   <dxfs count="36">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -8070,63 +8031,33 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFB3B3B3"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFB3B3B3"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFB3B3B3"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFB3B3B3"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -8563,6 +8494,40 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFB3B3B3"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB3B3B3"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB3B3B3"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB3B3B3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -8814,6 +8779,32 @@
         </bottom>
       </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -9158,8 +9149,8 @@
     <tableColumn id="6" xr3:uid="{8A316AA5-3F27-4B99-A5FF-08B7675D198A}" name="Duração"/>
     <tableColumn id="12" xr3:uid="{7E09DA88-5D9A-4A6B-96E8-4C36A3FE6CEA}" name="Início da Linha de Base"/>
     <tableColumn id="13" xr3:uid="{C1E2EF24-D9C7-434F-8897-0EFE807E8AB5}" name="Término da linha de base"/>
-    <tableColumn id="4" xr3:uid="{C2640AD0-5D41-43AC-AE07-9EDA2254638B}" name="Restrições" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{6710B2EE-6C9A-4D88-B5C8-0E1F3CFD5C85}" name="Restrição" dataDxfId="32">
+    <tableColumn id="4" xr3:uid="{C2640AD0-5D41-43AC-AE07-9EDA2254638B}" name="Restrições" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{6710B2EE-6C9A-4D88-B5C8-0E1F3CFD5C85}" name="Restrição" dataDxfId="31">
       <calculatedColumnFormula>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9168,38 +9159,38 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}" name="Prontidao_MedioPrazo" displayName="Prontidao_MedioPrazo" ref="A6:S55" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}" name="Prontidao_MedioPrazo" displayName="Prontidao_MedioPrazo" ref="A6:S55" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
   <autoFilter ref="A6:S55" xr:uid="{EE603C61-D67B-4AA5-A566-C27C6333F29B}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{BCE3C5A2-1F72-49EB-BB87-9A92C2B54BB4}" name="ITEM" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{66580C9C-6594-4500-A4D5-A646C365043A}" name="LOCAL" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{72CADBD4-BB10-4819-BD20-5F1FED34D952}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{2ADFA8B7-8EFF-44DC-A62F-3674B062D4A2}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{BCE3C5A2-1F72-49EB-BB87-9A92C2B54BB4}" name="ITEM" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{66580C9C-6594-4500-A4D5-A646C365043A}" name="LOCAL" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{72CADBD4-BB10-4819-BD20-5F1FED34D952}" name="WBS DA ATIVIDADE IMPACTADA" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{2ADFA8B7-8EFF-44DC-A62F-3674B062D4A2}" name="ATIVIDADE IMPACTADA (DESCRIÇÃO)" dataDxfId="23">
       <calculatedColumnFormula>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{10644C3D-33D6-4632-AEDA-8C10BCF893ED}" name="GRUPO" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{2E31625A-C772-4196-9F67-24069F7E96AC}" name="RESTRIÇÃO DETECTADA" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{10644C3D-33D6-4632-AEDA-8C10BCF893ED}" name="GRUPO" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{2E31625A-C772-4196-9F67-24069F7E96AC}" name="RESTRIÇÃO DETECTADA" dataDxfId="21">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],Cronograma[[EDT]:[Restrições]],6,0),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{480343CB-432F-4FEF-BD8B-240D45972277}" name="AÇÃO A SER TOMADA" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{96E10FFD-7709-41D7-989F-D00B08372AB5}" name="DATA DE MAPEAMENTO" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{714BC864-34A3-4792-AA6F-188AABE3C4ED}" name="DATA DE IMPACTO" dataDxfId="20">
+    <tableColumn id="7" xr3:uid="{480343CB-432F-4FEF-BD8B-240D45972277}" name="AÇÃO A SER TOMADA" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{96E10FFD-7709-41D7-989F-D00B08372AB5}" name="DATA DE MAPEAMENTO" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{714BC864-34A3-4792-AA6F-188AABE3C4ED}" name="DATA DE IMPACTO" dataDxfId="18">
       <calculatedColumnFormula>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4DC78624-5319-4031-B1C2-493145D03132}" name="TÉRMINO PREV. (BASELINE)" dataDxfId="19"/>
-    <tableColumn id="18" xr3:uid="{4DF93A02-132B-4759-A432-9CA8B6508C90}" name="SEMANA" dataDxfId="18">
+    <tableColumn id="10" xr3:uid="{4DC78624-5319-4031-B1C2-493145D03132}" name="TÉRMINO PREV. (BASELINE)" dataDxfId="17"/>
+    <tableColumn id="18" xr3:uid="{4DF93A02-132B-4759-A432-9CA8B6508C90}" name="SEMANA" dataDxfId="16">
       <calculatedColumnFormula>WEEKNUM(Prontidao_MedioPrazo[[#This Row],[Coluna1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C57D6655-5CF4-4B9A-A67C-31241F5DC72D}" name="RESPONSÁVEL" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{D104C09E-C921-4B27-A02D-B5B54E0475C1}" name="DISCIPLINA" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{F0D9B4F9-EBAB-4F73-A8C5-C7D317CF207D}" name="EMPRESA" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{63E49F65-A154-4361-87FC-104A847190DC}" name="TÉRMINO PREVISTO" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{0C1B0E76-8A6B-471B-983E-1BC8BF383DB3}" name="TÉRMINO REAL" dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{7E90AD6D-C70F-4E00-A6C8-54C0F9D79A8C}" name="STATUS" dataDxfId="12">
+    <tableColumn id="11" xr3:uid="{C57D6655-5CF4-4B9A-A67C-31241F5DC72D}" name="RESPONSÁVEL" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{D104C09E-C921-4B27-A02D-B5B54E0475C1}" name="DISCIPLINA" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{F0D9B4F9-EBAB-4F73-A8C5-C7D317CF207D}" name="EMPRESA" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{63E49F65-A154-4361-87FC-104A847190DC}" name="TÉRMINO PREVISTO" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{0C1B0E76-8A6B-471B-983E-1BC8BF383DB3}" name="TÉRMINO REAL" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{7E90AD6D-C70F-4E00-A6C8-54C0F9D79A8C}" name="STATUS" dataDxfId="10">
       <calculatedColumnFormula>IF(Prontidao_MedioPrazo[[#This Row],[RESTRIÇÃO DETECTADA]]&lt;&gt;"",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO REAL]]&lt;&gt;0,"Concluída",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]="","À definir",IF(Prontidao_MedioPrazo[[#This Row],[TÉRMINO PREVISTO]]&gt;=TODAY(),"No Prazo","Atrasada"))),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{1DD489EB-9393-4846-8D4D-BEF17D7FA138}" name="OBSERVAÇÕES" dataDxfId="11"/>
-    <tableColumn id="19" xr3:uid="{435CC5A0-634A-4EA9-A219-7FF662FF83FE}" name="Coluna1" dataDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{1DD489EB-9393-4846-8D4D-BEF17D7FA138}" name="OBSERVAÇÕES" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{435CC5A0-634A-4EA9-A219-7FF662FF83FE}" name="Coluna1" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9581,7 +9572,7 @@
       <c r="F1" s="44" t="s">
         <v>1704</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="82" t="s">
         <v>2326</v>
       </c>
       <c r="H1" s="8" t="s">
@@ -9605,7 +9596,7 @@
       <c r="F2" s="76">
         <v>45639</v>
       </c>
-      <c r="G2" s="86"/>
+      <c r="G2" s="83"/>
       <c r="H2" s="10">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
@@ -22831,7 +22822,7 @@
       <c r="F592" s="77">
         <v>45422</v>
       </c>
-      <c r="G592" s="87"/>
+      <c r="G592" s="84"/>
       <c r="H592" s="13">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
@@ -33991,7 +33982,7 @@
       <c r="B1098" s="48" t="s">
         <v>1044</v>
       </c>
-      <c r="C1098" s="88" t="s">
+      <c r="C1098" s="85" t="s">
         <v>1345</v>
       </c>
       <c r="D1098" s="48" t="s">
@@ -34013,7 +34004,7 @@
       <c r="B1099" s="48" t="s">
         <v>1045</v>
       </c>
-      <c r="C1099" s="89" t="s">
+      <c r="C1099" s="86" t="s">
         <v>2361</v>
       </c>
       <c r="D1099" s="48" t="s">
@@ -38406,89 +38397,89 @@
       </c>
     </row>
     <row r="1298" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B1298" s="82" t="s">
+      <c r="B1298" s="80" t="s">
         <v>1190</v>
       </c>
-      <c r="C1298" s="82" t="s">
+      <c r="C1298" s="80" t="s">
         <v>1661</v>
       </c>
-      <c r="D1298" s="82" t="s">
+      <c r="D1298" s="80" t="s">
         <v>1670</v>
       </c>
-      <c r="E1298" s="83">
+      <c r="E1298" s="81">
         <v>45607</v>
       </c>
-      <c r="F1298" s="83">
+      <c r="F1298" s="81">
         <v>45624</v>
       </c>
-      <c r="G1298" s="83"/>
-      <c r="H1298" s="84">
+      <c r="G1298" s="81"/>
+      <c r="H1298" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
     </row>
     <row r="1299" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B1299" s="82" t="s">
+      <c r="B1299" s="80" t="s">
         <v>1191</v>
       </c>
-      <c r="C1299" s="82" t="s">
+      <c r="C1299" s="80" t="s">
         <v>1662</v>
       </c>
-      <c r="D1299" s="82" t="s">
+      <c r="D1299" s="80" t="s">
         <v>2325</v>
       </c>
-      <c r="E1299" s="83">
+      <c r="E1299" s="81">
         <v>45590</v>
       </c>
-      <c r="F1299" s="83">
+      <c r="F1299" s="81">
         <v>45639</v>
       </c>
-      <c r="G1299" s="83"/>
-      <c r="H1299" s="84">
+      <c r="G1299" s="81"/>
+      <c r="H1299" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
     </row>
     <row r="1300" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B1300" s="82" t="s">
+      <c r="B1300" s="80" t="s">
         <v>1192</v>
       </c>
-      <c r="C1300" s="82" t="s">
+      <c r="C1300" s="80" t="s">
         <v>1663</v>
       </c>
-      <c r="D1300" s="82" t="s">
+      <c r="D1300" s="80" t="s">
         <v>1697</v>
       </c>
-      <c r="E1300" s="83">
+      <c r="E1300" s="81">
         <v>45600</v>
       </c>
-      <c r="F1300" s="83">
+      <c r="F1300" s="81">
         <v>45639</v>
       </c>
-      <c r="G1300" s="83"/>
-      <c r="H1300" s="84">
+      <c r="G1300" s="81"/>
+      <c r="H1300" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
     </row>
     <row r="1301" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B1301" s="82" t="s">
+      <c r="B1301" s="80" t="s">
         <v>1193</v>
       </c>
-      <c r="C1301" s="82" t="s">
+      <c r="C1301" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="D1301" s="82" t="s">
+      <c r="D1301" s="80" t="s">
         <v>1685</v>
       </c>
-      <c r="E1301" s="83">
+      <c r="E1301" s="81">
         <v>45590</v>
       </c>
-      <c r="F1301" s="83">
+      <c r="F1301" s="81">
         <v>45639</v>
       </c>
-      <c r="G1301" s="83"/>
-      <c r="H1301" s="84">
+      <c r="G1301" s="81"/>
+      <c r="H1301" s="12">
         <f>COUNTIF('Prontidão Médio Prazo'!C:C,Cronograma[[#This Row],[EDT]])</f>
         <v>0</v>
       </c>
@@ -38578,8 +38569,8 @@
   </sheetPr>
   <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="37" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="37" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -39127,7 +39118,7 @@
       <c r="C14" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="D14" s="80" t="str">
+      <c r="D14" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_131</v>
       </c>
@@ -39144,7 +39135,7 @@
       <c r="H14" s="18">
         <v>45433</v>
       </c>
-      <c r="I14" s="81">
+      <c r="I14" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45454</v>
       </c>
@@ -39177,7 +39168,7 @@
       <c r="C15" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="D15" s="80" t="str">
+      <c r="D15" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_137</v>
       </c>
@@ -39194,7 +39185,7 @@
       <c r="H15" s="18">
         <v>45435</v>
       </c>
-      <c r="I15" s="81">
+      <c r="I15" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45456</v>
       </c>
@@ -39227,7 +39218,7 @@
       <c r="C16" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="D16" s="80" t="str">
+      <c r="D16" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_172</v>
       </c>
@@ -39244,7 +39235,7 @@
       <c r="H16" s="18">
         <v>45405</v>
       </c>
-      <c r="I16" s="81">
+      <c r="I16" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45426</v>
       </c>
@@ -39277,7 +39268,7 @@
       <c r="C17" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="D17" s="80" t="str">
+      <c r="D17" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_174</v>
       </c>
@@ -39294,7 +39285,7 @@
       <c r="H17" s="18">
         <v>45407</v>
       </c>
-      <c r="I17" s="81">
+      <c r="I17" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45428</v>
       </c>
@@ -39327,7 +39318,7 @@
       <c r="C18" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="D18" s="80" t="str">
+      <c r="D18" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_175</v>
       </c>
@@ -39344,7 +39335,7 @@
       <c r="H18" s="18">
         <v>45408</v>
       </c>
-      <c r="I18" s="81">
+      <c r="I18" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45429</v>
       </c>
@@ -39377,7 +39368,7 @@
       <c r="C19" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="D19" s="80" t="str">
+      <c r="D19" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 149</v>
       </c>
@@ -39394,7 +39385,7 @@
       <c r="H19" s="18">
         <v>45404</v>
       </c>
-      <c r="I19" s="81">
+      <c r="I19" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45425</v>
       </c>
@@ -39427,7 +39418,7 @@
       <c r="C20" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="D20" s="80" t="str">
+      <c r="D20" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 150</v>
       </c>
@@ -39444,7 +39435,7 @@
       <c r="H20" s="18">
         <v>45407</v>
       </c>
-      <c r="I20" s="81">
+      <c r="I20" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45428</v>
       </c>
@@ -39477,7 +39468,7 @@
       <c r="C21" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="D21" s="80" t="str">
+      <c r="D21" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 3"-S1-14E-5347-H</v>
       </c>
@@ -39494,7 +39485,7 @@
       <c r="H21" s="18">
         <v>45464</v>
       </c>
-      <c r="I21" s="81">
+      <c r="I21" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45485</v>
       </c>
@@ -39527,7 +39518,7 @@
       <c r="C22" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="D22" s="80" t="str">
+      <c r="D22" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Fornecimento de carretéis (Hydro) - Linha 5351</v>
       </c>
@@ -39544,7 +39535,7 @@
       <c r="H22" s="18">
         <v>45383</v>
       </c>
-      <c r="I22" s="81">
+      <c r="I22" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45404</v>
       </c>
@@ -39577,7 +39568,7 @@
       <c r="C23" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="D23" s="80" t="str">
+      <c r="D23" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_126</v>
       </c>
@@ -39594,7 +39585,7 @@
       <c r="H23" s="18">
         <v>45432</v>
       </c>
-      <c r="I23" s="81">
+      <c r="I23" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45453</v>
       </c>
@@ -39627,7 +39618,7 @@
       <c r="C24" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="D24" s="80" t="str">
+      <c r="D24" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_133</v>
       </c>
@@ -39644,7 +39635,7 @@
       <c r="H24" s="18">
         <v>45405</v>
       </c>
-      <c r="I24" s="81">
+      <c r="I24" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45426</v>
       </c>
@@ -39677,7 +39668,7 @@
       <c r="C25" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="D25" s="80" t="str">
+      <c r="D25" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_131</v>
       </c>
@@ -39694,7 +39685,7 @@
       <c r="H25" s="18">
         <v>45435</v>
       </c>
-      <c r="I25" s="81">
+      <c r="I25" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45456</v>
       </c>
@@ -39727,7 +39718,7 @@
       <c r="C26" s="16" t="s">
         <v>562</v>
       </c>
-      <c r="D26" s="80" t="str">
+      <c r="D26" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_137</v>
       </c>
@@ -39744,7 +39735,7 @@
       <c r="H26" s="18">
         <v>45442</v>
       </c>
-      <c r="I26" s="81">
+      <c r="I26" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45463</v>
       </c>
@@ -39777,7 +39768,7 @@
       <c r="C27" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="D27" s="80" t="str">
+      <c r="D27" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Montar e soldar linha 2º Trecho - Linha 8'' 5333</v>
       </c>
@@ -39794,7 +39785,7 @@
       <c r="H27" s="18">
         <v>45357</v>
       </c>
-      <c r="I27" s="81">
+      <c r="I27" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45378</v>
       </c>
@@ -39824,7 +39815,7 @@
       <c r="C28" s="16" t="s">
         <v>747</v>
       </c>
-      <c r="D28" s="80" t="str">
+      <c r="D28" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 10"-S3-14E-5332-H</v>
       </c>
@@ -39841,7 +39832,7 @@
       <c r="H28" s="18">
         <v>45372</v>
       </c>
-      <c r="I28" s="81">
+      <c r="I28" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45393</v>
       </c>
@@ -39874,7 +39865,7 @@
       <c r="C29" s="16" t="s">
         <v>752</v>
       </c>
-      <c r="D29" s="80" t="str">
+      <c r="D29" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Linha 10"-S3-14E-5334-H</v>
       </c>
@@ -39891,7 +39882,7 @@
       <c r="H29" s="18">
         <v>45378</v>
       </c>
-      <c r="I29" s="81">
+      <c r="I29" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45399</v>
       </c>
@@ -39924,7 +39915,7 @@
       <c r="C30" s="16" t="s">
         <v>827</v>
       </c>
-      <c r="D30" s="80" t="str">
+      <c r="D30" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_164 - Parada</v>
       </c>
@@ -39941,7 +39932,7 @@
       <c r="H30" s="18">
         <v>45453</v>
       </c>
-      <c r="I30" s="81">
+      <c r="I30" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45474</v>
       </c>
@@ -39974,7 +39965,7 @@
       <c r="C31" s="16" t="s">
         <v>834</v>
       </c>
-      <c r="D31" s="80" t="str">
+      <c r="D31" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_172</v>
       </c>
@@ -39991,7 +39982,7 @@
       <c r="H31" s="18">
         <v>45413</v>
       </c>
-      <c r="I31" s="81">
+      <c r="I31" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45434</v>
       </c>
@@ -40024,7 +40015,7 @@
       <c r="C32" s="16" t="s">
         <v>841</v>
       </c>
-      <c r="D32" s="80" t="str">
+      <c r="D32" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_174</v>
       </c>
@@ -40041,7 +40032,7 @@
       <c r="H32" s="18">
         <v>45414</v>
       </c>
-      <c r="I32" s="81">
+      <c r="I32" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45435</v>
       </c>
@@ -40074,7 +40065,7 @@
       <c r="C33" s="16" t="s">
         <v>848</v>
       </c>
-      <c r="D33" s="80" t="str">
+      <c r="D33" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_175</v>
       </c>
@@ -40091,7 +40082,7 @@
       <c r="H33" s="18">
         <v>45415</v>
       </c>
-      <c r="I33" s="81">
+      <c r="I33" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45436</v>
       </c>
@@ -40124,7 +40115,7 @@
       <c r="C34" s="16" t="s">
         <v>1827</v>
       </c>
-      <c r="D34" s="80" t="str">
+      <c r="D34" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_176</v>
       </c>
@@ -40141,7 +40132,7 @@
       <c r="H34" s="18">
         <v>45419</v>
       </c>
-      <c r="I34" s="81">
+      <c r="I34" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45440</v>
       </c>
@@ -40174,7 +40165,7 @@
       <c r="C35" s="16" t="s">
         <v>1841</v>
       </c>
-      <c r="D35" s="80" t="str">
+      <c r="D35" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>solda de vent´s e drenos trecho de linha 20"-S3-14E-5313-H</v>
       </c>
@@ -40191,7 +40182,7 @@
       <c r="H35" s="18">
         <v>45407</v>
       </c>
-      <c r="I35" s="81">
+      <c r="I35" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45428</v>
       </c>
@@ -40224,7 +40215,7 @@
       <c r="C36" s="16" t="s">
         <v>1843</v>
       </c>
-      <c r="D36" s="80" t="str">
+      <c r="D36" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>solda de vent´s e drenos trecho de linha 20"-S3-14E-5313-H</v>
       </c>
@@ -40241,7 +40232,7 @@
       <c r="H36" s="18">
         <v>45412</v>
       </c>
-      <c r="I36" s="81">
+      <c r="I36" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45433</v>
       </c>
@@ -40274,7 +40265,7 @@
       <c r="C37" s="16" t="s">
         <v>907</v>
       </c>
-      <c r="D37" s="80" t="str">
+      <c r="D37" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Montar e soldar trecho de linha 20"-S3-14E-5313-H</v>
       </c>
@@ -40291,7 +40282,7 @@
       <c r="H37" s="18">
         <v>45398</v>
       </c>
-      <c r="I37" s="81">
+      <c r="I37" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45419</v>
       </c>
@@ -40324,7 +40315,7 @@
       <c r="C38" s="16" t="s">
         <v>908</v>
       </c>
-      <c r="D38" s="80" t="str">
+      <c r="D38" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Teste hidrostático ( 5313 - 20'')</v>
       </c>
@@ -40341,7 +40332,7 @@
       <c r="H38" s="18">
         <v>45411</v>
       </c>
-      <c r="I38" s="81">
+      <c r="I38" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45432</v>
       </c>
@@ -40374,7 +40365,7 @@
       <c r="C39" s="16" t="s">
         <v>912</v>
       </c>
-      <c r="D39" s="80" t="str">
+      <c r="D39" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Montar e soldar trecho de linha 14"-S3-14E-5314-H 2º trecho</v>
       </c>
@@ -40391,7 +40382,7 @@
       <c r="H39" s="18">
         <v>45334</v>
       </c>
-      <c r="I39" s="81">
+      <c r="I39" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45355</v>
       </c>
@@ -40424,7 +40415,7 @@
       <c r="C40" s="16" t="s">
         <v>923</v>
       </c>
-      <c r="D40" s="80" t="str">
+      <c r="D40" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Montar e soldar linha 24"-S3-14E-5312-H</v>
       </c>
@@ -40441,7 +40432,7 @@
       <c r="H40" s="18">
         <v>45436</v>
       </c>
-      <c r="I40" s="81">
+      <c r="I40" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45457</v>
       </c>
@@ -40474,7 +40465,7 @@
       <c r="C41" s="16" t="s">
         <v>935</v>
       </c>
-      <c r="D41" s="80" t="str">
+      <c r="D41" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 108</v>
       </c>
@@ -40491,7 +40482,7 @@
       <c r="H41" s="18">
         <v>45408</v>
       </c>
-      <c r="I41" s="81">
+      <c r="I41" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45429</v>
       </c>
@@ -40524,7 +40515,7 @@
       <c r="C42" s="16" t="s">
         <v>941</v>
       </c>
-      <c r="D42" s="80" t="str">
+      <c r="D42" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE in 161</v>
       </c>
@@ -40541,7 +40532,7 @@
       <c r="H42" s="18">
         <v>45411</v>
       </c>
-      <c r="I42" s="81">
+      <c r="I42" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45432</v>
       </c>
@@ -40574,7 +40565,7 @@
       <c r="C43" s="16" t="s">
         <v>953</v>
       </c>
-      <c r="D43" s="80" t="str">
+      <c r="D43" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 140 - Parada</v>
       </c>
@@ -40591,7 +40582,7 @@
       <c r="H43" s="18">
         <v>45455</v>
       </c>
-      <c r="I43" s="81">
+      <c r="I43" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45476</v>
       </c>
@@ -40624,7 +40615,7 @@
       <c r="C44" s="16" t="s">
         <v>959</v>
       </c>
-      <c r="D44" s="80" t="str">
+      <c r="D44" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 142 - Parada</v>
       </c>
@@ -40641,7 +40632,7 @@
       <c r="H44" s="18">
         <v>45453</v>
       </c>
-      <c r="I44" s="81">
+      <c r="I44" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45474</v>
       </c>
@@ -40674,7 +40665,7 @@
       <c r="C45" s="16" t="s">
         <v>965</v>
       </c>
-      <c r="D45" s="80" t="str">
+      <c r="D45" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 144 - Parada</v>
       </c>
@@ -40691,7 +40682,7 @@
       <c r="H45" s="18">
         <v>45453</v>
       </c>
-      <c r="I45" s="81">
+      <c r="I45" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45474</v>
       </c>
@@ -40724,7 +40715,7 @@
       <c r="C46" s="16" t="s">
         <v>971</v>
       </c>
-      <c r="D46" s="80" t="str">
+      <c r="D46" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE-IN_138</v>
       </c>
@@ -40741,7 +40732,7 @@
       <c r="H46" s="18">
         <v>45448</v>
       </c>
-      <c r="I46" s="81">
+      <c r="I46" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45469</v>
       </c>
@@ -40774,7 +40765,7 @@
       <c r="C47" s="16" t="s">
         <v>1045</v>
       </c>
-      <c r="D47" s="80" t="str">
+      <c r="D47" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Montar e soldar tubulação ( 5300)</v>
       </c>
@@ -40791,7 +40782,7 @@
       <c r="H47" s="18">
         <v>45406</v>
       </c>
-      <c r="I47" s="81">
+      <c r="I47" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45427</v>
       </c>
@@ -40824,7 +40815,7 @@
       <c r="C48" s="16" t="s">
         <v>1101</v>
       </c>
-      <c r="D48" s="80" t="str">
+      <c r="D48" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>FT-14E-01A</v>
       </c>
@@ -40841,7 +40832,7 @@
       <c r="H48" s="18">
         <v>45450</v>
       </c>
-      <c r="I48" s="81">
+      <c r="I48" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45471</v>
       </c>
@@ -40874,7 +40865,7 @@
       <c r="C49" s="16" t="s">
         <v>1107</v>
       </c>
-      <c r="D49" s="80" t="str">
+      <c r="D49" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>FT-14E-01B</v>
       </c>
@@ -40891,7 +40882,7 @@
       <c r="H49" s="18">
         <v>45457</v>
       </c>
-      <c r="I49" s="81">
+      <c r="I49" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45478</v>
       </c>
@@ -40924,7 +40915,7 @@
       <c r="C50" s="16" t="s">
         <v>1114</v>
       </c>
-      <c r="D50" s="80" t="str">
+      <c r="D50" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>P-14E-07A</v>
       </c>
@@ -40941,7 +40932,7 @@
       <c r="H50" s="18">
         <v>45450</v>
       </c>
-      <c r="I50" s="81">
+      <c r="I50" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45471</v>
       </c>
@@ -40974,7 +40965,7 @@
       <c r="C51" s="16" t="s">
         <v>1120</v>
       </c>
-      <c r="D51" s="80" t="str">
+      <c r="D51" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>P-14E-07A</v>
       </c>
@@ -40991,7 +40982,7 @@
       <c r="H51" s="18">
         <v>45456</v>
       </c>
-      <c r="I51" s="81">
+      <c r="I51" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45477</v>
       </c>
@@ -41024,7 +41015,7 @@
       <c r="C52" s="16" t="s">
         <v>1161</v>
       </c>
-      <c r="D52" s="80" t="str">
+      <c r="D52" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE IN_110/111 Desaerador_E-14A-02B</v>
       </c>
@@ -41041,7 +41032,7 @@
       <c r="H52" s="18">
         <v>45404</v>
       </c>
-      <c r="I52" s="81">
+      <c r="I52" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45425</v>
       </c>
@@ -41074,7 +41065,7 @@
       <c r="C53" s="16" t="s">
         <v>1167</v>
       </c>
-      <c r="D53" s="80" t="str">
+      <c r="D53" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>TIE IN_112/114 Desaerador_E-14A-02A</v>
       </c>
@@ -41091,7 +41082,7 @@
       <c r="H53" s="18">
         <v>45400</v>
       </c>
-      <c r="I53" s="81">
+      <c r="I53" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45421</v>
       </c>
@@ -41124,7 +41115,7 @@
       <c r="C54" s="16" t="s">
         <v>1867</v>
       </c>
-      <c r="D54" s="80" t="str">
+      <c r="D54" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 120 - Parada</v>
       </c>
@@ -41141,7 +41132,7 @@
       <c r="H54" s="18">
         <v>45454</v>
       </c>
-      <c r="I54" s="81">
+      <c r="I54" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45475</v>
       </c>
@@ -41174,7 +41165,7 @@
       <c r="C55" s="16" t="s">
         <v>1893</v>
       </c>
-      <c r="D55" s="80" t="str">
+      <c r="D55" s="17" t="str">
         <f>TRIM(_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!C:C,""))</f>
         <v>Tie in 169</v>
       </c>
@@ -41191,7 +41182,7 @@
       <c r="H55" s="18">
         <v>45460</v>
       </c>
-      <c r="I55" s="81">
+      <c r="I55" s="19">
         <f>IF(ISBLANK(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]]),"",_xlfn.XLOOKUP(Prontidao_MedioPrazo[[#This Row],[WBS DA ATIVIDADE IMPACTADA]],'Cronograma'!B:B,'Cronograma'!E:E,""))</f>
         <v>45481</v>
       </c>
@@ -41218,12 +41209,12 @@
       <c r="A56" s="79"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
-      <c r="D56" s="80"/>
+      <c r="D56" s="17"/>
       <c r="E56" s="16"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
       <c r="H56" s="18"/>
-      <c r="I56" s="81"/>
+      <c r="I56" s="19"/>
       <c r="J56" s="68"/>
       <c r="K56" s="63"/>
       <c r="L56" s="60"/>
@@ -41237,26 +41228,26 @@
     </row>
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
+  <conditionalFormatting sqref="C8 C10:C56">
+    <cfRule type="duplicateValues" dxfId="6" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="233"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D56">
+    <cfRule type="duplicateValues" dxfId="4" priority="238"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q7:Q56">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Concluída"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"À definir"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"Atrasada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"No Prazo"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8 C10:C56">
-    <cfRule type="duplicateValues" dxfId="2" priority="232"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="233"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D56">
-    <cfRule type="duplicateValues" dxfId="0" priority="238"/>
   </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Fórmula, não há necessidade de preenchimento" sqref="Q7:Q26" xr:uid="{ED295417-BECD-49C1-A871-25A5B2CB03C2}"/>
@@ -41267,7 +41258,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="30" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="31" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
